--- a/testingAllImports.xlsx
+++ b/testingAllImports.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -428,48 +428,51 @@
         <v>urlgMaps</v>
       </c>
       <c r="I1" t="str">
+        <v>iframeMap</v>
+      </c>
+      <c r="J1" t="str">
         <v>city</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>stars</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>CantidadResenas</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>opiniones</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>photoOriginalURL</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>photoDownloadScript</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <v>photoFileName</v>
       </c>
-      <c r="P1" t="str">
+      <c r="Q1" t="str">
         <v>photoNewName</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="R1" t="str">
         <v>photoNewURL</v>
       </c>
-      <c r="R1" t="str">
+      <c r="S1" t="str">
         <v>fileNameConversionScript</v>
       </c>
-      <c r="S1" t="str">
+      <c r="T1" t="str">
         <v>articleIntro</v>
       </c>
-      <c r="T1" t="str">
+      <c r="U1" t="str">
         <v>photoNewFileNameFull</v>
       </c>
-      <c r="U1" t="str">
+      <c r="V1" t="str">
         <v>structuredData</v>
       </c>
-      <c r="V1" t="str">
+      <c r="W1" t="str">
         <v>photoLocal</v>
       </c>
-      <c r="W1" t="str">
+      <c r="X1" t="str">
         <v>missingData</v>
       </c>
     </row>
@@ -493,70 +496,76 @@
         <v>Durango</v>
       </c>
       <c r="H2" t="str">
-        <v>https://www.google.com.mx/maps/place/Vivero+Santa+Fe/data=!4m7!3m6!1s0x869bb7e17f5ebdfd:0x329bbfbf57717ca0!8m2!3d24.0199748!4d-104.6558555!16s%2Fg%2F11btmr25_0!19sChIJ_b1ef-G3m4YRoHxxV7-_mzI?authuser=0&amp;hl=es&amp;rclk=1</v>
+        <v>https://www.google.com.mx/maps/place/Vivero+Santa+Fe/@24.0199748,-104.6558555,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb7e17f5ebdfd:0x329bbfbf57717ca0!8m2!3d24.0199748!4d-104.6558555!16s%2Fg%2F11btmr25_0?authuser=0&amp;hl=es</v>
       </c>
       <c r="I2" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3644.3144297120525!2d-104.6558555!3d24.0199748!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb7e17f5ebdfd%3A0x329bbfbf57717ca0!2sVivero%20Santa%20Fe!5e0!3m2!1ses!2smx!4v1678840872234!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="J2" t="str">
         <v>289V+XM Durango</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <v>4.2</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <v>33</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M2" t="str">
         <v>Super mala atención. Tienen muy bonitas plantas pero la señora que atendie, nunca me hizo caso, le mostre la planta que quería y me ignoro por completo, pésimo. No lo recomiendo y no vuelvo a ir,Excelente atención variedad de plantas  adornos para jardín lo recomiendo Buen Trato y novedades,Excelente atención y plantas de muy buena calidad</v>
       </c>
-      <c r="M2" t="str">
+      <c r="N2" t="str">
         <v>https://lh5.googleusercontent.com/p/AF1QipOC7w7iQu2kg7BiEaF1hoYdzwUX11Mfy6wYJIgK=w408-h306-k-no</v>
       </c>
-      <c r="N2" t="str">
+      <c r="O2" t="str">
         <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipOC7w7iQu2kg7BiEaF1hoYdzwUX11Mfy6wYJIgK=w408-h306-k-no</v>
       </c>
-      <c r="O2" t="str">
+      <c r="P2" t="str">
         <v>AF1QipOC7w7iQu2kg7BiEaF1hoYdzwUX11Mfy6wYJIgK=w408-h306-k-no</v>
       </c>
-      <c r="P2" t="str">
+      <c r="Q2" t="str">
         <v>Vivero_Santa_Fe_0</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="R2" t="str">
         <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Santa_Fe_0.jpg</v>
       </c>
-      <c r="R2" t="str">
+      <c r="S2" t="str">
         <v>ren "AF1QipOC7w7iQu2kg7BiEaF1hoYdzwUX11Mfy6wYJIgK=w408-h306-k-no" "Vivero_Santa_Fe_0.jpg"</v>
       </c>
-      <c r="S2" t="str" xml:space="preserve">
+      <c r="T2" t="str" xml:space="preserve">
         <v xml:space="preserve">
                     &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Natural que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Parque Natural mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="T2" t="str" xml:space="preserve">
+ Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Centro Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te daremos los Parque Ecológico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
+ Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="U2" t="str" xml:space="preserve">
         <v xml:space="preserve">
                     &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Natural que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Parque Natural mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="U2" t="str" xml:space="preserve">
+ Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Centro Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te daremos los Parque Ecológico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
+ Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="V2" t="str" xml:space="preserve">
         <v xml:space="preserve">
                     &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Vivero Santa Fe&lt;/b&gt;&lt;/h2&gt;
-                        &lt;p&gt;El Parque Ecoturístico undefined es una opción fantástica para tener una aventura natural en Tabasco. Su calificación promedio es de 4.2 respaldada por más de 33visitantes, así que no tenemos duda de que este lugar pertenece a la lista de los Parque Ecoturístico mejor rankeados de Tabasco y que se trata de uno de los principales atractivos naturales en la región. Así que ya sabes... ¿ganas de naturaleza?... pues el Parque Ecoturístico undefined es una grandísima opción.&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico Vivero Santa Fe? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;El Centro Ecoturístico se ubica enBlvd. Cnel. Enrique Carrola Antuna 909, Ciénega, 34090 Durango, Dgo.. Puedes ir a este lugar sin problemas manejando, sólo coloca su dirección oficial en waze, google maps o equivalente, o guíate con este &lt;a href='https://www.google.com.mx/maps/place/Vivero+Santa+Fe/data=!4m7!3m6!1s0x869bb7e17f5ebdfd:0x329bbfbf57717ca0!8m2!3d24.0199748!4d-104.6558555!16s%2Fg%2F11btmr25_0!19sChIJ_b1ef-G3m4YRoHxxV7-_mzI?authuser=0&amp;hl=es&amp;rclk=1'&gt;Mapa del Parque Ecoturístico Vivero Santa Fe&lt;/a&gt;&lt;/p&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Santa_Fe_0.jpg" alt="Vivero Santa Fe"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3644.3144297120525!2d-104.6558555!3d24.0199748!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb7e17f5ebdfd%3A0x329bbfbf57717ca0!2sVivero%20Santa%20Fe!5e0!3m2!1ses!2smx!4v1678840872234!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;/div&gt;
+                        &lt;p&gt;Bueno pues si eres de quienes ama estar en contacto con la naturaleza y andas por Tabasco, entonces no puedes perderte la experiencia de visitar el Parque Ecoturístico undefined. Con una calificación promedio de 4.2 estrellas de más de Super mala atención. Tienen muy bonitas plantas pero la señora que atendie, nunca me hizo caso, le mostre la planta que quería y me ignoro por completo, pésimo. No lo recomiendo y no vuelvo a ir,Excelente atención variedad de plantas  adornos para jardín lo recomiendo Buen Trato y novedades,Excelente atención y plantas de muy buena calidad visitantes, no tenemos duda de que se trata de un favorito de esta región. Así que nada...prepárate para sumergirte y disfrutar a tope de los paisajes naturales de Tabasco&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro Ecoturístico Vivero Santa Fe? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El Parque Ecológico se ubica enBlvd. Cnel. Enrique Carrola Antuna 909, Ciénega, 34090 Durango, Dgo.. LLegar al lugar es bastante sencillo. Símplemente coloca la dirección en una app con gps, o apóyate con este &lt;a href='https://www.google.com.mx/maps/place/Vivero+Santa+Fe/@24.0199748,-104.6558555,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb7e17f5ebdfd:0x329bbfbf57717ca0!8m2!3d24.0199748!4d-104.6558555!16s%2Fg%2F11btmr25_0?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Vivero Santa Fe&lt;/a&gt;&lt;/p&gt;
                         &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Parque Ecoturístico Vivero Santa Fe?&lt;/b&gt;&lt;/h3&gt;
                             &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Vivero Santa Fe son: &lt;/p&gt;
                             &lt;ul&gt;
                                 &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;618 235 9375&lt;/li&gt;
                                 &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
                             &lt;/ul&gt;
-                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Parque Ecoturístico Vivero Santa Fe?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Centro Ecoturístico Vivero Santa Fe?&lt;/b&gt;&lt;/h3&gt;
                             &lt;p&gt;Los horarios oficiales del Parque Ecoturístico Vivero Santa Fe son los siguientes:&lt;/p&gt;                       
                             &lt;ul&gt;
-                                &lt;li&gt;Lunes de 09:30 a 19:30&lt;/li&gt;
+                                &lt;li&gt;Lunes (Natalicio de Benito Juárez (feriado)) de 09:30 a 19:30 El horario podría cambiar&lt;/li&gt;
                                 &lt;li&gt;Martes de 09:30 a 19:30&lt;/li&gt;
                                 &lt;li&gt;Miércoles de 09:30 a 19:30&lt;/li&gt;
                                 &lt;li&gt;Jueves de 09:30 a 19:30&lt;/li&gt;
@@ -564,15 +573,15 @@
                                 &lt;li&gt;Sábado de 09:30 a 19:30&lt;/li&gt;
                                 &lt;li&gt;Domingo de 09:30 a 19:30&lt;/li&gt;
                             &lt;/ul&gt;
-                            &lt;p&gt;Aunque cuentes ya con los horarios oficiales de apertura de este lugar, siempre te recomendamos que antes de ir eches un ojito a sus redes sociales y vías de contacto, para asegurarte de que no hayan tenido algún cambio logístico de última hora&lt;/p&gt;                 
-                    </v>
-      </c>
-      <c r="V2" t="str" xml:space="preserve">
+                            &lt;p&gt;Aunque estos horarios están oficialmente vigentes, siempre es bueno consultar sus sitios de contacto y redes oficiales antes de visitarlos, por cualquier cambio extraordinario que pudieran tener.&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="W2" t="str" xml:space="preserve">
         <v xml:space="preserve">
                     &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Santa_Fe_0.jpg" alt="Vivero Santa Fe"&gt;                
                 </v>
       </c>
-      <c r="W2" t="str">
+      <c r="X2" t="str">
         <v>Añadir sitio web</v>
       </c>
     </row>
@@ -596,71 +605,77 @@
         <v>Durango</v>
       </c>
       <c r="H3" t="str">
-        <v>https://www.google.com.mx/maps/place/Vivero+Las+Magnolias/data=!4m7!3m6!1s0x869bb7b871872b85:0x65cc8cefdc6b7345!8m2!3d24.0374832!4d-104.6351623!16s%2Fg%2F11b6j5b_lw!19sChIJhSuHcbi3m4YRRXNr3O-MzGU?authuser=0&amp;hl=es&amp;rclk=1</v>
+        <v>https://www.google.com.mx/maps/place/Vivero+Las+Magnolias/@24.0374832,-104.6351623,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb7b871872b85:0x65cc8cefdc6b7345!8m2!3d24.0374832!4d-104.6351623!16s%2Fg%2F11b6j5b_lw?authuser=0&amp;hl=es</v>
       </c>
       <c r="I3" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3643.8179757079024!2d-104.63516229999999!3d24.037483200000004!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb7b871872b85%3A0x65cc8cefdc6b7345!2sVivero%20Las%20Magnolias!5e0!3m2!1ses!2smx!4v1678840876876!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="J3" t="str">
         <v>29P7+XW Durango</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <v>4.7</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <v>106</v>
       </c>
-      <c r="L3" t="str" xml:space="preserve">
+      <c r="M3" t="str" xml:space="preserve">
         <v xml:space="preserve">Excelente atención del joven y mucha variedad de plantas!!
 Compré tierra para macetas, me dijo el joven que era muy buena, pero huele muy mal, me pueden dar alguna sugerencia para eliminar ese olor tan fuerte?! Por favor!!,Me encantan todas las plantas, son muy amables, los precios justos🤩…,Muy bonito vivero</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <v>https://lh5.googleusercontent.com/p/AF1QipPmQSXM5PoyrFj8IU2GdEEKh9C_3Ku5CJxKUUUM=w408-h306-k-no</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPmQSXM5PoyrFj8IU2GdEEKh9C_3Ku5CJxKUUUM=w408-h306-k-no</v>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <v>AF1QipPmQSXM5PoyrFj8IU2GdEEKh9C_3Ku5CJxKUUUM=w408-h306-k-no</v>
       </c>
-      <c r="P3" t="str">
+      <c r="Q3" t="str">
         <v>Vivero_Las_Magnolias_1</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="R3" t="str">
         <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Las_Magnolias_1.jpg</v>
       </c>
-      <c r="R3" t="str">
+      <c r="S3" t="str">
         <v>ren "AF1QipPmQSXM5PoyrFj8IU2GdEEKh9C_3Ku5CJxKUUUM=w408-h306-k-no" "Vivero_Las_Magnolias_1.jpg"</v>
       </c>
-      <c r="S3" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Sitio Ecoturístico que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque de Ecoturismo que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Centro Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
       <c r="T3" t="str" xml:space="preserve">
         <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Sitio Ecoturístico que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque de Ecoturismo que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Centro Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
+                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Natural que han sido mejor evaluados en este estado. 
+ Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecológico que mejor calificación han recibido en Tabasco durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te daremos los Parque Ecológico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
  Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
                     </v>
       </c>
       <c r="U3" t="str" xml:space="preserve">
         <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Natural que han sido mejor evaluados en este estado. 
+ Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecológico que mejor calificación han recibido en Tabasco durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te daremos los Parque Ecológico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
+ Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="V3" t="str" xml:space="preserve">
+        <v xml:space="preserve">
                     &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Vivero Las Magnolias&lt;/b&gt;&lt;/h2&gt;
-                        &lt;p&gt;Este Parque Ecoturístico tiene 4.7 de calificación promedio, a partir de las más de 106 opiniones de sus visitantes... ¿nada mal no?. Es por eso que es parte de esta lista de los Parque Ecoturístico mejor calificados de Tabasco. Con este respaldo estamos más que seguras(os) que se trata  de un sitio que vas a disfrutar al Máximo. Así que ya sabes, si lo que buscas es naturaleza, el Parque Ecoturístico undefineden Tabasco, es sin duda una gran opción&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Natural Vivero Las Magnolias? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;El Parque de Ecoturismo se ubica enSauca 103, Jardines de Durango, 34200 Durango, Dgo.. Puedes ir a este lugar sin problemas manejando, sólo coloca su dirección oficial en waze, google maps o equivalente, o guíate con este &lt;a href='https://www.google.com.mx/maps/place/Vivero+Las+Magnolias/data=!4m7!3m6!1s0x869bb7b871872b85:0x65cc8cefdc6b7345!8m2!3d24.0374832!4d-104.6351623!16s%2Fg%2F11b6j5b_lw!19sChIJhSuHcbi3m4YRRXNr3O-MzGU?authuser=0&amp;hl=es&amp;rclk=1'&gt;Mapa del Parque Ecoturístico Vivero Las Magnolias&lt;/a&gt;&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Sitio Ecoturístico Vivero Las Magnolias?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los contactos disponibles del Centro de Ecoturismo Vivero Las Magnolias son: &lt;/p&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Las_Magnolias_1.jpg" alt="Vivero Las Magnolias"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3643.8179757079024!2d-104.63516229999999!3d24.037483200000004!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb7b871872b85%3A0x65cc8cefdc6b7345!2sVivero%20Las%20Magnolias!5e0!3m2!1ses!2smx!4v1678840876876!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;/div&gt;
+                        &lt;p&gt;El Parque Ecoturístico undefined es una opción fantástica para tener una aventura natural en Tabasco. Su calificación promedio es de 4.7 respaldada por más de 106visitantes, así que no tenemos duda de que este lugar pertenece a la lista de los Parque Ecoturístico mejor rankeados de Tabasco y que se trata de uno de los principales atractivos naturales en la región. Así que ya sabes... ¿ganas de naturaleza?... pues el Parque Ecoturístico undefined es una grandísima opción.&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico Vivero Las Magnolias? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El Parque Ecoturístico se ubica enSauca 103, Jardines de Durango, 34200 Durango, Dgo.. Para llegar, puedes símplemente colocar esta dirección en el googleMaps o Waze o apoyarte en este &lt;a href='https://www.google.com.mx/maps/place/Vivero+Las+Magnolias/@24.0374832,-104.6351623,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb7b871872b85:0x65cc8cefdc6b7345!8m2!3d24.0374832!4d-104.6351623!16s%2Fg%2F11b6j5b_lw?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Vivero Las Magnolias&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Parque Ecoturístico Vivero Las Magnolias?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Vivero Las Magnolias son: &lt;/p&gt;
                             &lt;ul&gt;
                                 &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;618 129 7673&lt;/li&gt;
                                 &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
                             &lt;/ul&gt;
-                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Parque de Ecoturismo Vivero Las Magnolias?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los horarios oficiales del Centro de Ecoturismo Vivero Las Magnolias son los siguientes:&lt;/p&gt;                       
-                            &lt;ul&gt;
-                                &lt;li&gt;Lunes de 09:00 a 18:00&lt;/li&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Sitio Ecoturístico Vivero Las Magnolias?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del Parque Ecoturístico Vivero Las Magnolias son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes (Natalicio de Benito Juárez (feriado)) de 09:00 a 18:00 El horario podría cambiar&lt;/li&gt;
                                 &lt;li&gt;Martes de 09:00 a 18:00&lt;/li&gt;
                                 &lt;li&gt;Miércoles de 09:00 a 18:00&lt;/li&gt;
                                 &lt;li&gt;Jueves de 09:00 a 18:00&lt;/li&gt;
@@ -668,15 +683,15 @@
                                 &lt;li&gt;Sábado de 09:00 a 18:00&lt;/li&gt;
                                 &lt;li&gt;Domingo de 09:00 a 17:00&lt;/li&gt;
                             &lt;/ul&gt;
-                            &lt;p&gt;A pesar de contar con horarios oficiales, te recomendamos siempre visitar sus sitios de contacto y redes oficiales antes de ir al lugar, así podrás identificar cualquier cambio extraordinario que hayan tenido.&lt;/p&gt;                 
-                    </v>
-      </c>
-      <c r="V3" t="str" xml:space="preserve">
+                            &lt;p&gt;Aunque estos horarios están oficialmente vigentes, siempre es bueno consultar sus sitios de contacto y redes oficiales antes de visitarlos, por cualquier cambio extraordinario que pudieran tener.&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="W3" t="str" xml:space="preserve">
         <v xml:space="preserve">
                     &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Las_Magnolias_1.jpg" alt="Vivero Las Magnolias"&gt;                
                 </v>
       </c>
-      <c r="W3" t="str">
+      <c r="X3" t="str">
         <v>Añadir sitio web</v>
       </c>
     </row>
@@ -700,70 +715,76 @@
         <v>Durango</v>
       </c>
       <c r="H4" t="str">
-        <v>https://www.google.com.mx/maps/place/VIVERO%C2%B4S+AVE+DE+PARAISO/data=!4m7!3m6!1s0x869bb7f0d4ea30ef:0x4cb36ed930d8acad!8m2!3d24.008504!4d-104.644488!16s%2Fg%2F11ddx2_b8h!19sChIJ7zDq1PC3m4YRrazYMNlus0w?authuser=0&amp;hl=es&amp;rclk=1</v>
+        <v>https://www.google.com.mx/maps/place/VIVERO%C2%B4S+AVE+DE+PARAISO/@24.008504,-104.644488,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb7f0d4ea30ef:0x4cb36ed930d8acad!8m2!3d24.008504!4d-104.644488!16s%2Fg%2F11ddx2_b8h?authuser=0&amp;hl=es</v>
       </c>
       <c r="I4" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3644.639501915154!2d-104.64448800000001!3d24.008503999999995!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb7f0d4ea30ef%3A0x4cb36ed930d8acad!2sVIVERO%C2%B4S%20AVE%20DE%20PARAISO!5e0!3m2!1ses!2smx!4v1678840881035!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="J4" t="str">
         <v>2954+C6 Durango</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <v>4.3</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <v>21</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <v>Mala atención,Las nochebuenas estan hermosas, no me fui de ahí sin las mías, lastimas que el resto de plantas están muy amontonadas y no se pueden apreciar bien,Tienen una gran variedad de plantas</v>
       </c>
-      <c r="M4" t="str">
+      <c r="N4" t="str">
         <v>https://lh5.googleusercontent.com/p/AF1QipMOYk2QlPDlj4I6VmQIIolnA3Ipl8mWjdIXSvrS=w408-h725-k-no</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMOYk2QlPDlj4I6VmQIIolnA3Ipl8mWjdIXSvrS=w408-h725-k-no</v>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
         <v>AF1QipMOYk2QlPDlj4I6VmQIIolnA3Ipl8mWjdIXSvrS=w408-h725-k-no</v>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <v>VIVERO´S_AVE_DE_PARAISO_2</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="R4" t="str">
         <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/VIVERO´S_AVE_DE_PARAISO_2.jpg</v>
       </c>
-      <c r="R4" t="str">
+      <c r="S4" t="str">
         <v>ren "AF1QipMOYk2QlPDlj4I6VmQIIolnA3Ipl8mWjdIXSvrS=w408-h725-k-no" "VIVERO´S_AVE_DE_PARAISO_2.jpg"</v>
       </c>
-      <c r="S4" t="str" xml:space="preserve">
+      <c r="T4" t="str" xml:space="preserve">
         <v xml:space="preserve">
                     &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Ecoturístico que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Parque Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="T4" t="str" xml:space="preserve">
+ Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Centro Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te daremos los Parque Ecológico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
+ Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="U4" t="str" xml:space="preserve">
         <v xml:space="preserve">
                     &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Ecoturístico que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Parque Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="U4" t="str" xml:space="preserve">
+ Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Centro Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te daremos los Parque Ecológico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
+ Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="V4" t="str" xml:space="preserve">
         <v xml:space="preserve">
                     &lt;h2&gt;&lt;b&gt;Parque Ecoturístico VIVERO´S AVE DE PARAISO&lt;/b&gt;&lt;/h2&gt;
-                        &lt;p&gt;El Parque Ecoturístico undefined es una opción fantástica para tener una aventura natural en Tabasco. Su calificación promedio es de 4.3 respaldada por más de 21visitantes, así que no tenemos duda de que este lugar pertenece a la lista de los Parque Ecoturístico mejor rankeados de Tabasco y que se trata de uno de los principales atractivos naturales en la región. Así que ya sabes... ¿ganas de naturaleza?... pues el Parque Ecoturístico undefined es una grandísima opción.&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecológico VIVERO´S AVE DE PARAISO? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;El Centro Ecoturístico se ubica enCalle Nazas 614, Los Sauces, 34078 Durango, Dgo.. Para llegar, puedes símplemente colocar esta dirección en el googleMaps o Waze o apoyarte en este &lt;a href='https://www.google.com.mx/maps/place/VIVERO%C2%B4S+AVE+DE+PARAISO/data=!4m7!3m6!1s0x869bb7f0d4ea30ef:0x4cb36ed930d8acad!8m2!3d24.008504!4d-104.644488!16s%2Fg%2F11ddx2_b8h!19sChIJ7zDq1PC3m4YRrazYMNlus0w?authuser=0&amp;hl=es&amp;rclk=1'&gt;Mapa del Parque Ecoturístico VIVERO´S AVE DE PARAISO&lt;/a&gt;&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Centro de Ecoturismo VIVERO´S AVE DE PARAISO?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los contactos disponibles del Sitio Ecoturístico VIVERO´S AVE DE PARAISO son: &lt;/p&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/VIVERO´S_AVE_DE_PARAISO_2.jpg" alt="VIVERO´S AVE DE PARAISO"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3644.639501915154!2d-104.64448800000001!3d24.008503999999995!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb7f0d4ea30ef%3A0x4cb36ed930d8acad!2sVIVERO%C2%B4S%20AVE%20DE%20PARAISO!5e0!3m2!1ses!2smx!4v1678840881035!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;/div&gt;
+                        &lt;p&gt;Bueno pues si eres de quienes ama estar en contacto con la naturaleza y andas por Tabasco, entonces no puedes perderte la experiencia de visitar el Parque Ecoturístico undefined. Con una calificación promedio de 4.3 estrellas de más de Mala atención,Las nochebuenas estan hermosas, no me fui de ahí sin las mías, lastimas que el resto de plantas están muy amontonadas y no se pueden apreciar bien,Tienen una gran variedad de plantas visitantes, no tenemos duda de que se trata de un favorito de esta región. Así que nada...prepárate para sumergirte y disfrutar a tope de los paisajes naturales de Tabasco&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico VIVERO´S AVE DE PARAISO? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El Parque Ecológico se ubica enCalle Nazas 614, Los Sauces, 34078 Durango, Dgo.. Puedes ir a este lugar sin problemas manejando, sólo coloca su dirección oficial en waze, google maps o equivalente, o guíate con este &lt;a href='https://www.google.com.mx/maps/place/VIVERO%C2%B4S+AVE+DE+PARAISO/@24.008504,-104.644488,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb7f0d4ea30ef:0x4cb36ed930d8acad!8m2!3d24.008504!4d-104.644488!16s%2Fg%2F11ddx2_b8h?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico VIVERO´S AVE DE PARAISO&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Parque de Ecoturismo VIVERO´S AVE DE PARAISO?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo VIVERO´S AVE DE PARAISO son: &lt;/p&gt;
                             &lt;ul&gt;
                                 &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;618 818 0964&lt;/li&gt;
                                 &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;&lt;a href="https://www.instagram.com/invites/contact/?i=1rjinh0zovkbr&amp;utm_content=myh4mm5"&gt;Web del place VIVERO´S AVE DE PARAISO&lt;/a&gt;&lt;/li&gt;                                
                             &lt;/ul&gt;
-                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Sitio Ecoturístico VIVERO´S AVE DE PARAISO?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Parque Ecoturístico VIVERO´S AVE DE PARAISO?&lt;/b&gt;&lt;/h3&gt;
                             &lt;p&gt;Los horarios oficiales del Parque Ecoturístico VIVERO´S AVE DE PARAISO son los siguientes:&lt;/p&gt;                       
                             &lt;ul&gt;
-                                &lt;li&gt;Lunes de 08:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Lunes (Natalicio de Benito Juárez (feriado)) de 08:00 a 19:00 El horario podría cambiar&lt;/li&gt;
                                 &lt;li&gt;Martes de 08:00 a 19:00&lt;/li&gt;
                                 &lt;li&gt;Miércoles de 08:00 a 19:00&lt;/li&gt;
                                 &lt;li&gt;Jueves de 08:00 a 19:00&lt;/li&gt;
@@ -771,15 +792,15 @@
                                 &lt;li&gt;Sábado de 08:00 a 17:00&lt;/li&gt;
                                 &lt;li&gt;Domingo de 09:00 a 17:00&lt;/li&gt;
                             &lt;/ul&gt;
-                            &lt;p&gt;Aunque cuentes ya con los horarios oficiales de apertura de este lugar, siempre te recomendamos que antes de ir eches un ojito a sus redes sociales y vías de contacto, para asegurarte de que no hayan tenido algún cambio logístico de última hora&lt;/p&gt;                 
-                    </v>
-      </c>
-      <c r="V4" t="str" xml:space="preserve">
+                            &lt;p&gt;A pesar de contar con horarios oficiales, te recomendamos siempre visitar sus sitios de contacto y redes oficiales antes de ir al lugar, así podrás identificar cualquier cambio extraordinario que hayan tenido.&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="W4" t="str" xml:space="preserve">
         <v xml:space="preserve">
                     &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/VIVERO´S_AVE_DE_PARAISO_2.jpg" alt="VIVERO´S AVE DE PARAISO"&gt;                
                 </v>
       </c>
-      <c r="W4" t="str">
+      <c r="X4" t="str">
         <v/>
       </c>
     </row>
@@ -803,72 +824,78 @@
         <v>Durango</v>
       </c>
       <c r="H5" t="str">
-        <v>https://www.google.com.mx/maps/place/Vivero+Santa+Fe/data=!4m7!3m6!1s0x869bc7de9a5a690f:0x1c9d03d9335b8bbd!8m2!3d23.9936822!4d-104.6858595!16s%2Fg%2F11b6jgmr3h!19sChIJD2lamt7Hm4YRvYtbM9kDnRw?authuser=0&amp;hl=es&amp;rclk=1</v>
+        <v>https://www.google.com.mx/maps/place/Vivero+Santa+Fe/@23.9936822,-104.6858595,17z/data=!3m1!4b1!4m6!3m5!1s0x869bc7de9a5a690f:0x1c9d03d9335b8bbd!8m2!3d23.9936822!4d-104.6858595!16s%2Fg%2F11b6jgmr3h?authuser=0&amp;hl=es</v>
       </c>
       <c r="I5" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3645.059322127962!2d-104.68585949999999!3d23.993682200000002!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bc7de9a5a690f%3A0x1c9d03d9335b8bbd!2sVivero%20Santa%20Fe!5e0!3m2!1ses!2smx!4v1678840885276!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="J5" t="str">
         <v>X8V7+FM Durango</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <v>4.4</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <v>52</v>
       </c>
-      <c r="L5" t="str" xml:space="preserve">
+      <c r="M5" t="str" xml:space="preserve">
         <v xml:space="preserve">Gran surtido de plantas y pasto de muy buena calidad,Tiene gran variedad de plantas, pero sus precios no son nada asequibles, inclusive precios triplicados en cuanto a precios en otros viveros...,Muchas plantas muy bonitas
 Para Sol y sombra y buenos precios
 Sí lo recomiendo.</v>
       </c>
-      <c r="M5" t="str">
-        <v>no hay foto</v>
-      </c>
       <c r="N5" t="str">
-        <v>wget --no-check-certificate no hay foto</v>
+        <v>https://lh5.googleusercontent.com/p/AF1QipNrN9F6dstJ2M3M7lFIyGQEZFWkNlnH0euKP8Hi=w426-h240-k-no</v>
       </c>
       <c r="O5" t="str">
-        <v>no hay foto</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipNrN9F6dstJ2M3M7lFIyGQEZFWkNlnH0euKP8Hi=w426-h240-k-no</v>
       </c>
       <c r="P5" t="str">
+        <v>AF1QipNrN9F6dstJ2M3M7lFIyGQEZFWkNlnH0euKP8Hi=w426-h240-k-no</v>
+      </c>
+      <c r="Q5" t="str">
         <v>Vivero_Santa_Fe_3</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="R5" t="str">
         <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Santa_Fe_3.jpg</v>
       </c>
-      <c r="R5" t="str">
-        <v>ren "no hay foto" "Vivero_Santa_Fe_3.jpg"</v>
-      </c>
-      <c r="S5" t="str" xml:space="preserve">
+      <c r="S5" t="str">
+        <v>ren "AF1QipNrN9F6dstJ2M3M7lFIyGQEZFWkNlnH0euKP8Hi=w426-h240-k-no" "Vivero_Santa_Fe_3.jpg"</v>
+      </c>
+      <c r="T5" t="str" xml:space="preserve">
         <v xml:space="preserve">
                     &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Ecoturístico que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Sitio Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="T5" t="str" xml:space="preserve">
+ Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque de Ecoturismo que mejor calificación han recibido en Tabasco durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te daremos los Centro de Ecoturismo mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
+ Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="U5" t="str" xml:space="preserve">
         <v xml:space="preserve">
                     &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Ecoturístico que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Sitio Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="U5" t="str" xml:space="preserve">
+ Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque de Ecoturismo que mejor calificación han recibido en Tabasco durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te daremos los Centro de Ecoturismo mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
+ Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="V5" t="str" xml:space="preserve">
         <v xml:space="preserve">
                     &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Vivero Santa Fe&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Santa_Fe_3.jpg" alt="Vivero Santa Fe"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3645.059322127962!2d-104.68585949999999!3d23.993682200000002!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bc7de9a5a690f%3A0x1c9d03d9335b8bbd!2sVivero%20Santa%20Fe!5e0!3m2!1ses!2smx!4v1678840885276!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;/div&gt;
                         &lt;p&gt;El Parque Ecoturístico undefined es una opción fantástica para tener una aventura natural en Tabasco. Su calificación promedio es de 4.4 respaldada por más de 52visitantes, así que no tenemos duda de que este lugar pertenece a la lista de los Parque Ecoturístico mejor rankeados de Tabasco y que se trata de uno de los principales atractivos naturales en la región. Así que ya sabes... ¿ganas de naturaleza?... pues el Parque Ecoturístico undefined es una grandísima opción.&lt;/p&gt;
                         &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico Vivero Santa Fe? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;El Parque Ecoturístico se ubica enC. Victoria 106, Arroyo Seco, 34147 Durango, Dgo.. Para ir a este parque, simplemente basta con colocar la dirección en una app de navegación o siguiendo este &lt;a href='https://www.google.com.mx/maps/place/Vivero+Santa+Fe/data=!4m7!3m6!1s0x869bc7de9a5a690f:0x1c9d03d9335b8bbd!8m2!3d23.9936822!4d-104.6858595!16s%2Fg%2F11b6jgmr3h!19sChIJD2lamt7Hm4YRvYtbM9kDnRw?authuser=0&amp;hl=es&amp;rclk=1'&gt;Mapa del Parque Ecoturístico Vivero Santa Fe&lt;/a&gt;&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Parque Ecoturístico Vivero Santa Fe?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Vivero Santa Fe son: &lt;/p&gt;
+                            &lt;p&gt;El Parque Ecoturístico se ubica enC. Victoria 106, Arroyo Seco, 34147 Durango, Dgo.. Para ir a este sitio, coloca esta dirección en una herramienta de navegación o apóyate con este &lt;a href='https://www.google.com.mx/maps/place/Vivero+Santa+Fe/@23.9936822,-104.6858595,17z/data=!3m1!4b1!4m6!3m5!1s0x869bc7de9a5a690f:0x1c9d03d9335b8bbd!8m2!3d23.9936822!4d-104.6858595!16s%2Fg%2F11b6jgmr3h?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Vivero Santa Fe&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Centro de Ecoturismo Vivero Santa Fe?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Sitio Ecoturístico Vivero Santa Fe son: &lt;/p&gt;
                             &lt;ul&gt;
                                 &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;618 120 0604&lt;/li&gt;
                                 &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
                             &lt;/ul&gt;
-                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Centro de Ecoturismo Vivero Santa Fe?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los horarios oficiales del Sitio Ecoturístico Vivero Santa Fe son los siguientes:&lt;/p&gt;                       
-                            &lt;ul&gt;
-                                &lt;li&gt;Lunes de 08:00 a 19:00&lt;/li&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Parque Ecoturístico Vivero Santa Fe?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del Parque Ecoturístico Vivero Santa Fe son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes (Natalicio de Benito Juárez (feriado)) de 08:00 a 19:00 El horario podría cambiar&lt;/li&gt;
                                 &lt;li&gt;Martes de 08:00 a 19:00&lt;/li&gt;
                                 &lt;li&gt;Miércoles de 08:00 a 19:00&lt;/li&gt;
                                 &lt;li&gt;Jueves de 08:00 a 19:00&lt;/li&gt;
@@ -876,15 +903,15 @@
                                 &lt;li&gt;Sábado de 08:00 a 19:00&lt;/li&gt;
                                 &lt;li&gt;Domingo de 08:00 a 16:00&lt;/li&gt;
                             &lt;/ul&gt;
-                            &lt;p&gt;Aunque estos horarios sean oficialmente vigentes, nunca está de más que antes de lanzarte, revises en sus redes sociales o contactos digitales que no haya habido ningún cambio logístico extraordinario en sus horarios de apertura y cierre.&lt;/p&gt;                 
-                    </v>
-      </c>
-      <c r="V5" t="str" xml:space="preserve">
+                            &lt;p&gt;Aunque cuentes ya con los horarios oficiales de apertura de este lugar, siempre te recomendamos que antes de ir eches un ojito a sus redes sociales y vías de contacto, para asegurarte de que no hayan tenido algún cambio logístico de última hora&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="W5" t="str" xml:space="preserve">
         <v xml:space="preserve">
                     &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Santa_Fe_3.jpg" alt="Vivero Santa Fe"&gt;                
                 </v>
       </c>
-      <c r="W5" t="str">
+      <c r="X5" t="str">
         <v>Añadir sitio web</v>
       </c>
     </row>
@@ -908,70 +935,76 @@
         <v>Durango</v>
       </c>
       <c r="H6" t="str">
-        <v>https://www.google.com.mx/maps/place/Vivero+Las+Palmas+De+Veracruz/data=!4m7!3m6!1s0x869bb7f86bc35165:0x2c2ed3acd58201b2!8m2!3d24.0040886!4d-104.6488795!16s%2Fg%2F11b6j9p3hk!19sChIJZVHDa_i3m4YRsgGC1azTLiw?authuser=0&amp;hl=es&amp;rclk=1</v>
+        <v>https://www.google.com.mx/maps/place/Vivero+Las+Palmas+De+Veracruz/@24.0040886,-104.6488795,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb7f86bc35165:0x2c2ed3acd58201b2!8m2!3d24.0040886!4d-104.6488795!16s%2Fg%2F11b6j9p3hk?authuser=0&amp;hl=es</v>
       </c>
       <c r="I6" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3644.7645914614886!2d-104.64887949999999!3d24.0040886!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb7f86bc35165%3A0x2c2ed3acd58201b2!2sVivero%20Las%20Palmas%20De%20Veracruz!5e0!3m2!1ses!2smx!4v1678840889861!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="J6" t="str">
         <v>2932+JC Durango</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <v>4.6</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <v>65</v>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <v>En este vivero hay una gran variedad de plantas, flores 🥀, tierra, árboles etc. A muy buenos precios y una excelente atención lo recomiendo…,Muy amables, la señora que atiende es muy amable, te explica sobre las plantas, sólo que llega mucha gente y la abordan todos juntos, pero ella es muy linda y amable, además de que sus plantas super bonitas y muy cuidaditas.,Buen inventario de plantas y serviciales</v>
       </c>
-      <c r="M6" t="str">
-        <v>no hay foto</v>
-      </c>
       <c r="N6" t="str">
-        <v>wget --no-check-certificate no hay foto</v>
+        <v>https://lh3.googleusercontent.com/gps-proxy/ALm4wwme7VXgc2Weboi_HjqXsTwOoYDzDtl-7QULWTGauR_1pIM6JfwLo_H9Nol9a1_HTM3fCPFOVh7wQkl6kxAMWk5pDpL1VqQRniHWZFNj63HTU3Tj9HkhzDhZ7T3Fgkd6gg5XzmXkh3mG7bsdpm5QbMBg435MdUuWHNb4VyosQvmalS8qKv-xQwT3AFTKS3g9floAJcw=w408-h726-k-no</v>
       </c>
       <c r="O6" t="str">
-        <v>no hay foto</v>
+        <v>wget --no-check-certificate https://lh3.googleusercontent.com/gps-proxy/ALm4wwme7VXgc2Weboi_HjqXsTwOoYDzDtl-7QULWTGauR_1pIM6JfwLo_H9Nol9a1_HTM3fCPFOVh7wQkl6kxAMWk5pDpL1VqQRniHWZFNj63HTU3Tj9HkhzDhZ7T3Fgkd6gg5XzmXkh3mG7bsdpm5QbMBg435MdUuWHNb4VyosQvmalS8qKv-xQwT3AFTKS3g9floAJcw=w408-h726-k-no</v>
       </c>
       <c r="P6" t="str">
+        <v>ALm4wwme7VXgc2Weboi_HjqXsTwOoYDzDtl-7QULWTGauR_1pIM6JfwLo_H9Nol9a1_HTM3fCPFOVh7wQkl6kxAMWk5pDpL1VqQRniHWZFNj63HTU3Tj9HkhzDhZ7T3Fgkd6gg5XzmXkh3mG7bsdpm5QbMBg435MdUuWHNb4VyosQvmalS8qKv-xQwT3AFTKS3g9floAJcw=w408-h726-k-no</v>
+      </c>
+      <c r="Q6" t="str">
         <v>Vivero_Las_Palmas_De_Veracruz_4</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="R6" t="str">
         <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Las_Palmas_De_Veracruz_4.jpg</v>
       </c>
-      <c r="R6" t="str">
-        <v>ren "no hay foto" "Vivero_Las_Palmas_De_Veracruz_4.jpg"</v>
-      </c>
-      <c r="S6" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Centro de Ecoturismo que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
+      <c r="S6" t="str">
+        <v>ren "ALm4wwme7VXgc2Weboi_HjqXsTwOoYDzDtl-7QULWTGauR_1pIM6JfwLo_H9Nol9a1_HTM3fCPFOVh7wQkl6kxAMWk5pDpL1VqQRniHWZFNj63HTU3Tj9HkhzDhZ7T3Fgkd6gg5XzmXkh3mG7bsdpm5QbMBg435MdUuWHNb4VyosQvmalS8qKv-xQwT3AFTKS3g9floAJcw=w408-h726-k-no" "Vivero_Las_Palmas_De_Veracruz_4.jpg"</v>
+      </c>
+      <c r="T6" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Ecoturístico que han sido mejor evaluados en este estado. 
+ Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque de Ecoturismo que mejor calificación han recibido en Tabasco durante los últimos años. 
  Con esta prueba social como respaldo, hoy te daremos los Parque Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
  Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
                     </v>
       </c>
-      <c r="T6" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Centro de Ecoturismo que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
+      <c r="U6" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Ecoturístico que han sido mejor evaluados en este estado. 
+ Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque de Ecoturismo que mejor calificación han recibido en Tabasco durante los últimos años. 
  Con esta prueba social como respaldo, hoy te daremos los Parque Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
  Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
                     </v>
       </c>
-      <c r="U6" t="str" xml:space="preserve">
+      <c r="V6" t="str" xml:space="preserve">
         <v xml:space="preserve">
                     &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Vivero Las Palmas De Veracruz&lt;/b&gt;&lt;/h2&gt;
-                        &lt;p&gt;Este Parque Ecoturístico tiene 4.6 de calificación promedio, a partir de las más de 65 opiniones de sus visitantes... ¿nada mal no?. Es por eso que es parte de esta lista de los Parque Ecoturístico mejor calificados de Tabasco. Con este respaldo estamos más que seguras(os) que se trata  de un sitio que vas a disfrutar al Máximo. Así que ya sabes, si lo que buscas es naturaleza, el Parque Ecoturístico undefineden Tabasco, es sin duda una gran opción&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico Vivero Las Palmas De Veracruz? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;El Parque Ecoturístico se ubica enCalle Cto. Interior 208, Residencial Santa Teresa, 34166 Durango, Dgo.. Para ir a este lugar usar esa dirección en un gps o ayudarte con este &lt;a href='https://www.google.com.mx/maps/place/Vivero+Las+Palmas+De+Veracruz/data=!4m7!3m6!1s0x869bb7f86bc35165:0x2c2ed3acd58201b2!8m2!3d24.0040886!4d-104.6488795!16s%2Fg%2F11b6j9p3hk!19sChIJZVHDa_i3m4YRsgGC1azTLiw?authuser=0&amp;hl=es&amp;rclk=1'&gt;Mapa del Parque Ecoturístico Vivero Las Palmas De Veracruz&lt;/a&gt;&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Centro Ecoturístico Vivero Las Palmas De Veracruz?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Vivero Las Palmas De Veracruz son: &lt;/p&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Las_Palmas_De_Veracruz_4.jpg" alt="Vivero Las Palmas De Veracruz"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3644.7645914614886!2d-104.64887949999999!3d24.0040886!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb7f86bc35165%3A0x2c2ed3acd58201b2!2sVivero%20Las%20Palmas%20De%20Veracruz!5e0!3m2!1ses!2smx!4v1678840889861!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;/div&gt;
+                        &lt;p&gt;El Parque Ecoturístico undefined es una opción fantástica para tener una aventura natural en Tabasco. Su calificación promedio es de 4.6 respaldada por más de 65visitantes, así que no tenemos duda de que este lugar pertenece a la lista de los Parque Ecoturístico mejor rankeados de Tabasco y que se trata de uno de los principales atractivos naturales en la región. Así que ya sabes... ¿ganas de naturaleza?... pues el Parque Ecoturístico undefined es una grandísima opción.&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecológico Vivero Las Palmas De Veracruz? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El Parque Ecoturístico se ubica enCalle Cto. Interior 208, Residencial Santa Teresa, 34166 Durango, Dgo.. Para ir a este centro manejando, puedes usar esta dirección oficial con tu google maps o usando este  &lt;a href='https://www.google.com.mx/maps/place/Vivero+Las+Palmas+De+Veracruz/@24.0040886,-104.6488795,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb7f86bc35165:0x2c2ed3acd58201b2!8m2!3d24.0040886!4d-104.6488795!16s%2Fg%2F11b6j9p3hk?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Vivero Las Palmas De Veracruz&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Parque Ecoturístico Vivero Las Palmas De Veracruz?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Vivero Las Palmas De Veracruz son: &lt;/p&gt;
                             &lt;ul&gt;
                                 &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;675 113 9208&lt;/li&gt;
                                 &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
                             &lt;/ul&gt;
-                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Parque Ecoturístico Vivero Las Palmas De Veracruz?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los horarios oficiales del Parque Ecoturístico Vivero Las Palmas De Veracruz son los siguientes:&lt;/p&gt;                       
-                            &lt;ul&gt;
-                                &lt;li&gt;Lunes de 09:00 a 20:00&lt;/li&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Parque Ecológico Vivero Las Palmas De Veracruz?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del Parque Natural Vivero Las Palmas De Veracruz son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes (Natalicio de Benito Juárez (feriado)) de 09:00 a 20:00 El horario podría cambiar&lt;/li&gt;
                                 &lt;li&gt;Martes de 09:00 a 20:00&lt;/li&gt;
                                 &lt;li&gt;Miércoles de 09:00 a 20:00&lt;/li&gt;
                                 &lt;li&gt;Jueves de 09:00 a 20:00&lt;/li&gt;
@@ -979,21 +1012,568 @@
                                 &lt;li&gt;Sábado de 09:00 a 20:00&lt;/li&gt;
                                 &lt;li&gt;Domingo de 09:00 a 16:00&lt;/li&gt;
                             &lt;/ul&gt;
-                            &lt;p&gt;A pesar de contar con horarios oficiales, te recomendamos siempre visitar sus sitios de contacto y redes oficiales antes de ir al lugar, así podrás identificar cualquier cambio extraordinario que hayan tenido.&lt;/p&gt;                 
-                    </v>
-      </c>
-      <c r="V6" t="str" xml:space="preserve">
+                            &lt;p&gt;Aunque cuentes ya con los horarios oficiales de apertura de este lugar, siempre te recomendamos que antes de ir eches un ojito a sus redes sociales y vías de contacto, para asegurarte de que no hayan tenido algún cambio logístico de última hora&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="W6" t="str" xml:space="preserve">
         <v xml:space="preserve">
                     &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Las_Palmas_De_Veracruz_4.jpg" alt="Vivero Las Palmas De Veracruz"&gt;                
                 </v>
       </c>
-      <c r="W6" t="str">
+      <c r="X6" t="str">
         <v>Añadir sitio web</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Viveros Del Guadiana</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Abasolo 609, Francisco González de la Vega, 34157 Durango, Dgo.</v>
+      </c>
+      <c r="D7" t="str">
+        <v>618 825 3855</v>
+      </c>
+      <c r="E7" t="str">
+        <v>http://macetasvivero.com.mx/directorio-viveros/durango/</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Durango</v>
+      </c>
+      <c r="H7" t="str">
+        <v>https://www.google.com.mx/maps/place/Viveros+Del+Guadiana/@24.0106133,-104.6687241,17z/data=!3m1!4b1!4m6!3m5!1s0x869bc80512f9f577:0xa4030d2093a8b85e!8m2!3d24.0106133!4d-104.6687241!16s%2Fg%2F11b6jd0vv1?authuser=0&amp;hl=es</v>
+      </c>
+      <c r="I7" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3644.5797372023844!2d-104.66872409999999!3d24.010613299999996!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bc80512f9f577%3A0xa4030d2093a8b85e!2sViveros%20Del%20Guadiana!5e0!3m2!1ses!2smx!4v1678840894132!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="J7" t="str">
+        <v>286J+6G Durango</v>
+      </c>
+      <c r="K7" t="str">
+        <v>5.0</v>
+      </c>
+      <c r="L7" t="str">
+        <v>4</v>
+      </c>
+      <c r="M7" t="str" xml:space="preserve">
+        <v xml:space="preserve">Bastante variedad de plantas, se adaptan en cada temporada del año, ahora para fiestas de navideñas cuentan con variedad de noche buenas, además que también ofrecen el servicio de diseño y mantenimiento para jardines.…,Me gustó este lugar, tiene variedad de plantas 🌱 ahí encontré dos gardenias hermosas que ya florecieron y huelen muy bonito. La atención es excelente. Volveré por más plantas 🌹🌸
+🌱🌱…,Gran variedad de plantas y excelente atención.</v>
+      </c>
+      <c r="N7" t="str">
+        <v>https://lh5.googleusercontent.com/p/AF1QipMrQ-GksQ-38r7UjiSPgRrkAk_jvI98IIqdsliq=w426-h240-k-no</v>
+      </c>
+      <c r="O7" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMrQ-GksQ-38r7UjiSPgRrkAk_jvI98IIqdsliq=w426-h240-k-no</v>
+      </c>
+      <c r="P7" t="str">
+        <v>AF1QipMrQ-GksQ-38r7UjiSPgRrkAk_jvI98IIqdsliq=w426-h240-k-no</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>Viveros_Del_Guadiana_5</v>
+      </c>
+      <c r="R7" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Viveros_Del_Guadiana_5.jpg</v>
+      </c>
+      <c r="S7" t="str">
+        <v>ren "AF1QipMrQ-GksQ-38r7UjiSPgRrkAk_jvI98IIqdsliq=w426-h240-k-no" "Viveros_Del_Guadiana_5.jpg"</v>
+      </c>
+      <c r="T7" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Natural que han sido mejor evaluados en este estado. 
+ Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te daremos los Parque Natural mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
+ Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="U7" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Natural que han sido mejor evaluados en este estado. 
+ Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te daremos los Parque Natural mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
+ Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="V7" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Viveros Del Guadiana&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Viveros_Del_Guadiana_5.jpg" alt="Viveros Del Guadiana"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3644.5797372023844!2d-104.66872409999999!3d24.010613299999996!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bc80512f9f577%3A0xa4030d2093a8b85e!2sViveros%20Del%20Guadiana!5e0!3m2!1ses!2smx!4v1678840894132!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;/div&gt;
+                        &lt;p&gt;Este Parque Ecoturístico tiene 5.0 de calificación promedio, a partir de las más de 4 opiniones de sus visitantes... ¿nada mal no?. Es por eso que es parte de esta lista de los Parque Ecoturístico mejor calificados de Tabasco. Con este respaldo estamos más que seguras(os) que se trata  de un sitio que vas a disfrutar al Máximo. Así que ya sabes, si lo que buscas es naturaleza, el Parque Ecoturístico undefineden Tabasco, es sin duda una gran opción&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro de Ecoturismo Viveros Del Guadiana? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El Centro Ecoturístico se ubica enAbasolo 609, Francisco González de la Vega, 34157 Durango, Dgo.. Podrás llegar manejando sin ningún problema, símplemente usa la dirección en una app como waze o googleMaps, o usa este enlace al &lt;a href='https://www.google.com.mx/maps/place/Viveros+Del+Guadiana/@24.0106133,-104.6687241,17z/data=!3m1!4b1!4m6!3m5!1s0x869bc80512f9f577:0xa4030d2093a8b85e!8m2!3d24.0106133!4d-104.6687241!16s%2Fg%2F11b6jd0vv1?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Viveros Del Guadiana&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Parque Ecoturístico Viveros Del Guadiana?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Sitio Ecoturístico Viveros Del Guadiana son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;618 825 3855&lt;/li&gt;
+                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;&lt;a href="http://macetasvivero.com.mx/directorio-viveros/durango/"&gt;Web del place Viveros Del Guadiana&lt;/a&gt;&lt;/li&gt;                                
+                            &lt;/ul&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Parque Ecoturístico Viveros Del Guadiana?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del Centro de Ecoturismo Viveros Del Guadiana son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes (Natalicio de Benito Juárez (feriado)) de 09:00 a 19:00 El horario podría cambiar&lt;/li&gt;
+                                &lt;li&gt;Martes de 09:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Miércoles de 09:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Jueves de 09:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Viernes de 09:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Sábado de 09:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Domingo de 10:00 a 15:00&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Aunque estos horarios están oficialmente vigentes, siempre es bueno consultar sus sitios de contacto y redes oficiales antes de visitarlos, por cualquier cambio extraordinario que pudieran tener.&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="W7" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Viveros_Del_Guadiana_5.jpg" alt="Viveros Del Guadiana"&gt;                
+                </v>
+      </c>
+      <c r="X7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Vivero Santos</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Blvd. Luis Donaldo Colosio M. 109, La Forestal, 34217 Durango, Dgo.</v>
+      </c>
+      <c r="D8" t="str">
+        <v>618 107 2833</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Web no disponible</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Durango</v>
+      </c>
+      <c r="H8" t="str">
+        <v>https://www.google.com.mx/maps/place/Vivero+Santos/@24.0385842,-104.657476,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb7d6349387f9:0x5f5970606c2c7ea8!8m2!3d24.0385842!4d-104.657476!16s%2Fg%2F11b6hvymy7?authuser=0&amp;hl=es</v>
+      </c>
+      <c r="I8" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3643.7867452724445!2d-104.65747599999999!3d24.0385842!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb7d6349387f9%3A0x5f5970606c2c7ea8!2sVivero%20Santos!5e0!3m2!1ses!2smx!4v1678840897661!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="J8" t="str">
+        <v>28QV+C2 Durango</v>
+      </c>
+      <c r="K8" t="str">
+        <v>4.6</v>
+      </c>
+      <c r="L8" t="str">
+        <v>15</v>
+      </c>
+      <c r="M8" t="str">
+        <v>Mucho surtido excelente atención.  Bastante ayuda con la asesoría gratuita que me Proporcionaron.  en verdad te ayudan a hacer realidad tu proyecto de remodelación  de jardín.,Es un lugar muy lindo y el sr muy amable llama uno y le da informes,tienen muchas suculentas y cactus a buen precio</v>
+      </c>
+      <c r="N8" t="str">
+        <v>https://lh3.googleusercontent.com/gps-proxy/ALm4wwnmWGA_OMikXL9-T5PwzyqO2X2p_ZQytVRTBFNm7ZjGFRiUKH6xElhH4if7RzNzLQ6kbIUuIkAR-mWgQBNCz1a9TD_6qvwgEdA7FkS7iXpBe_eXXrFki1oOpICa1w_uRTztpTiqcueJ4KxG44WIfZ7x2iFv9PjrK3H2fcFMAQ7h7Tyf3UPHLGSD4075VXgLy8y7nyo=w427-h240-k-no</v>
+      </c>
+      <c r="O8" t="str">
+        <v>wget --no-check-certificate https://lh3.googleusercontent.com/gps-proxy/ALm4wwnmWGA_OMikXL9-T5PwzyqO2X2p_ZQytVRTBFNm7ZjGFRiUKH6xElhH4if7RzNzLQ6kbIUuIkAR-mWgQBNCz1a9TD_6qvwgEdA7FkS7iXpBe_eXXrFki1oOpICa1w_uRTztpTiqcueJ4KxG44WIfZ7x2iFv9PjrK3H2fcFMAQ7h7Tyf3UPHLGSD4075VXgLy8y7nyo=w427-h240-k-no</v>
+      </c>
+      <c r="P8" t="str">
+        <v>ALm4wwnmWGA_OMikXL9-T5PwzyqO2X2p_ZQytVRTBFNm7ZjGFRiUKH6xElhH4if7RzNzLQ6kbIUuIkAR-mWgQBNCz1a9TD_6qvwgEdA7FkS7iXpBe_eXXrFki1oOpICa1w_uRTztpTiqcueJ4KxG44WIfZ7x2iFv9PjrK3H2fcFMAQ7h7Tyf3UPHLGSD4075VXgLy8y7nyo=w427-h240-k-no</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>Vivero_Santos_6</v>
+      </c>
+      <c r="R8" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Santos_6.jpg</v>
+      </c>
+      <c r="S8" t="str">
+        <v>ren "ALm4wwnmWGA_OMikXL9-T5PwzyqO2X2p_ZQytVRTBFNm7ZjGFRiUKH6xElhH4if7RzNzLQ6kbIUuIkAR-mWgQBNCz1a9TD_6qvwgEdA7FkS7iXpBe_eXXrFki1oOpICa1w_uRTztpTiqcueJ4KxG44WIfZ7x2iFv9PjrK3H2fcFMAQ7h7Tyf3UPHLGSD4075VXgLy8y7nyo=w427-h240-k-no" "Vivero_Santos_6.jpg"</v>
+      </c>
+      <c r="T8" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Ecológico que han sido mejor evaluados en este estado. 
+ Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque de Ecoturismo que mejor calificación han recibido en Tabasco durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te daremos los Parque de Ecoturismo mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
+ Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="U8" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Ecológico que han sido mejor evaluados en este estado. 
+ Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque de Ecoturismo que mejor calificación han recibido en Tabasco durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te daremos los Parque de Ecoturismo mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
+ Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="V8" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Vivero Santos&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Santos_6.jpg" alt="Vivero Santos"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3643.7867452724445!2d-104.65747599999999!3d24.0385842!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb7d6349387f9%3A0x5f5970606c2c7ea8!2sVivero%20Santos!5e0!3m2!1ses!2smx!4v1678840897661!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;/div&gt;
+                        &lt;p&gt;Este Parque Ecoturístico tiene 4.6 de calificación promedio, a partir de las más de 15 opiniones de sus visitantes... ¿nada mal no?. Es por eso que es parte de esta lista de los Parque Ecoturístico mejor calificados de Tabasco. Con este respaldo estamos más que seguras(os) que se trata  de un sitio que vas a disfrutar al Máximo. Así que ya sabes, si lo que buscas es naturaleza, el Parque Ecoturístico undefineden Tabasco, es sin duda una gran opción&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Natural Vivero Santos? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El Parque Ecoturístico se ubica enBlvd. Luis Donaldo Colosio M. 109, La Forestal, 34217 Durango, Dgo.. Podrás llegar manejando sin ningún problema, símplemente usa la dirección en una app como waze o googleMaps, o usa este enlace al &lt;a href='https://www.google.com.mx/maps/place/Vivero+Santos/@24.0385842,-104.657476,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb7d6349387f9:0x5f5970606c2c7ea8!8m2!3d24.0385842!4d-104.657476!16s%2Fg%2F11b6hvymy7?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Vivero Santos&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Centro de Ecoturismo Vivero Santos?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Vivero Santos son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;618 107 2833&lt;/li&gt;
+                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
+                            &lt;/ul&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Centro de Ecoturismo Vivero Santos?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del Centro de Ecoturismo Vivero Santos son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes (Natalicio de Benito Juárez (feriado)) de 09:00 a 19:00 El horario podría cambiar&lt;/li&gt;
+                                &lt;li&gt;Martes de 09:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Miércoles de 09:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Jueves de 09:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Viernes de 09:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Sábado de 09:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Domingo de 09:00 a 19:00&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Aunque cuentes ya con los horarios oficiales de apertura de este lugar, siempre te recomendamos que antes de ir eches un ojito a sus redes sociales y vías de contacto, para asegurarte de que no hayan tenido algún cambio logístico de última hora&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="W8" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Santos_6.jpg" alt="Vivero Santos"&gt;                
+                </v>
+      </c>
+      <c r="X8" t="str">
+        <v>Añadir sitio web</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Vivero Las Nubes</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Av Fidel Velázquez Sánchez, Nuevo Pedregal, Las Nubes, 34224 Durango, Dgo.</v>
+      </c>
+      <c r="D9" t="str">
+        <v>No cuenta con teléfono</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Web no disponible</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Durango</v>
+      </c>
+      <c r="H9" t="str">
+        <v>https://www.google.com.mx/maps/place/Vivero+Las+Nubes/@24.052367,-104.595552,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb71dcf83f9bb:0x30182ba89df601ac!8m2!3d24.052367!4d-104.595552!16s%2Fg%2F11b6h_sf8h?authuser=0&amp;hl=es</v>
+      </c>
+      <c r="I9" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3643.395675164008!2d-104.595552!3d24.052367!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb71dcf83f9bb%3A0x30182ba89df601ac!2sVivero%20Las%20Nubes!5e0!3m2!1ses!2smx!4v1678840902756!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="J9" t="str">
+        <v>3C23+WQ Durango</v>
+      </c>
+      <c r="K9" t="str">
+        <v>4.4</v>
+      </c>
+      <c r="L9" t="str">
+        <v>117</v>
+      </c>
+      <c r="M9" t="str">
+        <v>Gran vivero con muchas opciones hermosas de plantas a un buen precio, trato muy amable. Abren los domingos y eso también es una gran ventaja ya que es cuando mucha gente tiene tiempo libre y busca opciones para decorar su hogar. ¡Recomendado!,Siempre tiene plantas muy bonitas. Más el viernes en la tarde, excelente trato y te dan tips,Tienen una excelente variedad de plantas y el señor que atendió sabe mucho de plantas.</v>
+      </c>
+      <c r="N9" t="str">
+        <v>https://lh3.googleusercontent.com/gps-proxy/ALm4wwnuNOHlzHUWJLF2TGvIIHTNpfyaszgaXNpUFrx-2ZpHPklEgneZyqU4Uw7u9r8taeR6iC3X2nvh89fjpPZvWtkMGT-xFZBD8euiWt1W4NJojLzgXeK1f2Ic_tOu4UF0z5H5h6C6C7ttcPhTGHOmLFGEZ4H0pvYl8fn_dOehOifL8g63P0B2qloOhxOTPih048hhkw=w408-h726-k-no</v>
+      </c>
+      <c r="O9" t="str">
+        <v>wget --no-check-certificate https://lh3.googleusercontent.com/gps-proxy/ALm4wwnuNOHlzHUWJLF2TGvIIHTNpfyaszgaXNpUFrx-2ZpHPklEgneZyqU4Uw7u9r8taeR6iC3X2nvh89fjpPZvWtkMGT-xFZBD8euiWt1W4NJojLzgXeK1f2Ic_tOu4UF0z5H5h6C6C7ttcPhTGHOmLFGEZ4H0pvYl8fn_dOehOifL8g63P0B2qloOhxOTPih048hhkw=w408-h726-k-no</v>
+      </c>
+      <c r="P9" t="str">
+        <v>ALm4wwnuNOHlzHUWJLF2TGvIIHTNpfyaszgaXNpUFrx-2ZpHPklEgneZyqU4Uw7u9r8taeR6iC3X2nvh89fjpPZvWtkMGT-xFZBD8euiWt1W4NJojLzgXeK1f2Ic_tOu4UF0z5H5h6C6C7ttcPhTGHOmLFGEZ4H0pvYl8fn_dOehOifL8g63P0B2qloOhxOTPih048hhkw=w408-h726-k-no</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>Vivero_Las_Nubes_7</v>
+      </c>
+      <c r="R9" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Las_Nubes_7.jpg</v>
+      </c>
+      <c r="S9" t="str">
+        <v>ren "ALm4wwnuNOHlzHUWJLF2TGvIIHTNpfyaszgaXNpUFrx-2ZpHPklEgneZyqU4Uw7u9r8taeR6iC3X2nvh89fjpPZvWtkMGT-xFZBD8euiWt1W4NJojLzgXeK1f2Ic_tOu4UF0z5H5h6C6C7ttcPhTGHOmLFGEZ4H0pvYl8fn_dOehOifL8g63P0B2qloOhxOTPih048hhkw=w408-h726-k-no" "Vivero_Las_Nubes_7.jpg"</v>
+      </c>
+      <c r="T9" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque de Ecoturismo que han sido mejor evaluados en este estado. 
+ Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecológico que mejor calificación han recibido en Tabasco durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te daremos los Centro Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
+ Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="U9" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque de Ecoturismo que han sido mejor evaluados en este estado. 
+ Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecológico que mejor calificación han recibido en Tabasco durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te daremos los Centro Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
+ Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="V9" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Vivero Las Nubes&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Las_Nubes_7.jpg" alt="Vivero Las Nubes"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3643.395675164008!2d-104.595552!3d24.052367!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb71dcf83f9bb%3A0x30182ba89df601ac!2sVivero%20Las%20Nubes!5e0!3m2!1ses!2smx!4v1678840902756!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;/div&gt;
+                        &lt;p&gt;Bueno pues si eres de quienes ama estar en contacto con la naturaleza y andas por Tabasco, entonces no puedes perderte la experiencia de visitar el Parque Ecoturístico undefined. Con una calificación promedio de 4.4 estrellas de más de Gran vivero con muchas opciones hermosas de plantas a un buen precio, trato muy amable. Abren los domingos y eso también es una gran ventaja ya que es cuando mucha gente tiene tiempo libre y busca opciones para decorar su hogar. ¡Recomendado!,Siempre tiene plantas muy bonitas. Más el viernes en la tarde, excelente trato y te dan tips,Tienen una excelente variedad de plantas y el señor que atendió sabe mucho de plantas. visitantes, no tenemos duda de que se trata de un favorito de esta región. Así que nada...prepárate para sumergirte y disfrutar a tope de los paisajes naturales de Tabasco&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico Vivero Las Nubes? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El Parque Ecoturístico se ubica enAv Fidel Velázquez Sánchez, Nuevo Pedregal, Las Nubes, 34224 Durango, Dgo.. Podrás llegar manejando sin ningún problema, símplemente usa la dirección en una app como waze o googleMaps, o usa este enlace al &lt;a href='https://www.google.com.mx/maps/place/Vivero+Las+Nubes/@24.052367,-104.595552,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb71dcf83f9bb:0x30182ba89df601ac!8m2!3d24.052367!4d-104.595552!16s%2Fg%2F11b6h_sf8h?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Vivero Las Nubes&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Sitio Ecoturístico Vivero Las Nubes?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Vivero Las Nubes son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;No cuenta con teléfono&lt;/li&gt;
+                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
+                            &lt;/ul&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Parque Natural Vivero Las Nubes?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del Parque Ecológico Vivero Las Nubes son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes (Natalicio de Benito Juárez (feriado)) de 09:00 a 19:00 El horario podría cambiar&lt;/li&gt;
+                                &lt;li&gt;Martes de 09:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Miércoles de 09:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Jueves de 09:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Viernes de 09:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Sábado de 09:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Domingo de 09:30 a 16:00&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Siempre es importante -aún si cuentas con estos horarios oficiales-, revisar en sus redes sociales y medios de contacto antes de ir. Así podrás asegurarte de que no hayan tenido ningún cambio de horario o logístico de último momento.&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="W9" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Las_Nubes_7.jpg" alt="Vivero Las Nubes"&gt;                
+                </v>
+      </c>
+      <c r="X9" t="str">
+        <v>Añadir número de teléfono del sitio,Añadir sitio web</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Vivero El Milagro Suc Los Angeles</v>
+      </c>
+      <c r="C10" t="str">
+        <v>C. Aquiles Serdan 1306, Los Ángeles, 34076 Durango, Dgo.</v>
+      </c>
+      <c r="D10" t="str">
+        <v>618 189 0754</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Web no disponible</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Durango</v>
+      </c>
+      <c r="H10" t="str">
+        <v>https://www.google.com.mx/maps/place/Vivero+El+Milagro+Suc+Los+Angeles/@24.0267101,-104.6794677,17z/data=!3m1!4b1!4m6!3m5!1s0x869bc83f03010ed1:0x1db0e10487ed912!8m2!3d24.0267101!4d-104.6794677!16s%2Fg%2F11b6j6cy2v?authuser=0&amp;hl=es</v>
+      </c>
+      <c r="I10" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3644.123489275272!2d-104.67946769999999!3d24.0267101!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bc83f03010ed1%3A0x1db0e10487ed912!2sVivero%20El%20Milagro%20Suc%20Los%20Angeles!5e0!3m2!1ses!2smx!4v1678840906363!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="J10" t="str">
+        <v>28GC+M6 Durango</v>
+      </c>
+      <c r="K10" t="str">
+        <v>4.2</v>
+      </c>
+      <c r="L10" t="str">
+        <v>11</v>
+      </c>
+      <c r="M10" t="str" xml:space="preserve">
+        <v xml:space="preserve">Muy bonito lugar, precios moderados,  buenas bebidas y snacks,La comida estuvo buena.
+El servicio a cliente es pésimo, las chicas son muy groseras e incómodan con su actitud. Problemas al tomar la orden.,Hay muy poca variedad de maceta floral</v>
+      </c>
+      <c r="N10" t="str">
+        <v>https://lh3.googleusercontent.com/gps-proxy/ALm4wwlhoCICLNrCakBRbJ52KABdnQK1nKhuotM0pNYzS7emK1HStPexrEFEtHyXqM6bDlhgivruwFg1uQ8Pk1V_bURU_NkNU6vxwFrbCv4WLzlRK-9Tlk0yFhLDC4ke5PGQLnW_qgErq8ChHcchLH_anc1cZAaajn6B3GYglaBwPSZBXxs78jDzmdog2ufU5WoSUSdY3A=w427-h240-k-no</v>
+      </c>
+      <c r="O10" t="str">
+        <v>wget --no-check-certificate https://lh3.googleusercontent.com/gps-proxy/ALm4wwlhoCICLNrCakBRbJ52KABdnQK1nKhuotM0pNYzS7emK1HStPexrEFEtHyXqM6bDlhgivruwFg1uQ8Pk1V_bURU_NkNU6vxwFrbCv4WLzlRK-9Tlk0yFhLDC4ke5PGQLnW_qgErq8ChHcchLH_anc1cZAaajn6B3GYglaBwPSZBXxs78jDzmdog2ufU5WoSUSdY3A=w427-h240-k-no</v>
+      </c>
+      <c r="P10" t="str">
+        <v>ALm4wwlhoCICLNrCakBRbJ52KABdnQK1nKhuotM0pNYzS7emK1HStPexrEFEtHyXqM6bDlhgivruwFg1uQ8Pk1V_bURU_NkNU6vxwFrbCv4WLzlRK-9Tlk0yFhLDC4ke5PGQLnW_qgErq8ChHcchLH_anc1cZAaajn6B3GYglaBwPSZBXxs78jDzmdog2ufU5WoSUSdY3A=w427-h240-k-no</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>Vivero_El_Milagro_Suc_Los_Angeles_8</v>
+      </c>
+      <c r="R10" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_El_Milagro_Suc_Los_Angeles_8.jpg</v>
+      </c>
+      <c r="S10" t="str">
+        <v>ren "ALm4wwlhoCICLNrCakBRbJ52KABdnQK1nKhuotM0pNYzS7emK1HStPexrEFEtHyXqM6bDlhgivruwFg1uQ8Pk1V_bURU_NkNU6vxwFrbCv4WLzlRK-9Tlk0yFhLDC4ke5PGQLnW_qgErq8ChHcchLH_anc1cZAaajn6B3GYglaBwPSZBXxs78jDzmdog2ufU5WoSUSdY3A=w427-h240-k-no" "Vivero_El_Milagro_Suc_Los_Angeles_8.jpg"</v>
+      </c>
+      <c r="T10" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Ecoturístico que han sido mejor evaluados en este estado. 
+ Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te daremos los Parque Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
+ Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="U10" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Ecoturístico que han sido mejor evaluados en este estado. 
+ Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te daremos los Parque Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
+ Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="V10" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Vivero El Milagro Suc Los Angeles&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_El_Milagro_Suc_Los_Angeles_8.jpg" alt="Vivero El Milagro Suc Los Angeles"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3644.123489275272!2d-104.67946769999999!3d24.0267101!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bc83f03010ed1%3A0x1db0e10487ed912!2sVivero%20El%20Milagro%20Suc%20Los%20Angeles!5e0!3m2!1ses!2smx!4v1678840906363!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;/div&gt;
+                        &lt;p&gt;Este Parque Ecoturístico tiene 4.2 de calificación promedio, a partir de las más de 11 opiniones de sus visitantes... ¿nada mal no?. Es por eso que es parte de esta lista de los Parque Ecoturístico mejor calificados de Tabasco. Con este respaldo estamos más que seguras(os) que se trata  de un sitio que vas a disfrutar al Máximo. Así que ya sabes, si lo que buscas es naturaleza, el Parque Ecoturístico undefineden Tabasco, es sin duda una gran opción&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico Vivero El Milagro Suc Los Angeles? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El Sitio Ecoturístico se ubica enC. Aquiles Serdan 1306, Los Ángeles, 34076 Durango, Dgo.. Para llegar, puedes símplemente colocar esta dirección en el googleMaps o Waze o apoyarte en este &lt;a href='https://www.google.com.mx/maps/place/Vivero+El+Milagro+Suc+Los+Angeles/@24.0267101,-104.6794677,17z/data=!3m1!4b1!4m6!3m5!1s0x869bc83f03010ed1:0x1db0e10487ed912!8m2!3d24.0267101!4d-104.6794677!16s%2Fg%2F11b6j6cy2v?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Vivero El Milagro Suc Los Angeles&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Parque de Ecoturismo Vivero El Milagro Suc Los Angeles?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Centro Ecoturístico Vivero El Milagro Suc Los Angeles son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;618 189 0754&lt;/li&gt;
+                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
+                            &lt;/ul&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Parque de Ecoturismo Vivero El Milagro Suc Los Angeles?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del Parque de Ecoturismo Vivero El Milagro Suc Los Angeles son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes (Natalicio de Benito Juárez (feriado)) de 08:00 a 19:00 El horario podría cambiar&lt;/li&gt;
+                                &lt;li&gt;Martes de 08:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Miércoles de 08:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Jueves de 08:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Viernes de 08:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Sábado de 08:00 a 23:00&lt;/li&gt;
+                                &lt;li&gt;Domingo de 08:00 a 23:00&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Aunque estos horarios sean oficialmente vigentes, nunca está de más que antes de lanzarte, revises en sus redes sociales o contactos digitales que no haya habido ningún cambio logístico extraordinario en sus horarios de apertura y cierre.&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="W10" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_El_Milagro_Suc_Los_Angeles_8.jpg" alt="Vivero El Milagro Suc Los Angeles"&gt;                
+                </v>
+      </c>
+      <c r="X10" t="str">
+        <v>Añadir sitio web</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Vivero Victoria</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Av. del Factor 906, Casa Redonda, 35158 Durango, Dgo.</v>
+      </c>
+      <c r="D11" t="str">
+        <v>No cuenta con teléfono</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Web no disponible</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Durango</v>
+      </c>
+      <c r="H11" t="str">
+        <v>https://www.google.com.mx/maps/place/Vivero+Victoria/@24.0391699,-104.6661015,17z/data=!3m1!4b1!4m6!3m5!1s0x869bc82f1e35ef4b:0x28ac0bb71cd10463!8m2!3d24.0391699!4d-104.6661015!16s%2Fg%2F11b6j5hybg?authuser=0&amp;hl=es</v>
+      </c>
+      <c r="I11" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3643.7701310402113!2d-104.6661015!3d24.039169899999997!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bc82f1e35ef4b%3A0x28ac0bb71cd10463!2sVivero%20Victoria!5e0!3m2!1ses!2smx!4v1678840910783!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="J11" t="str">
+        <v>28QM+MH Durango</v>
+      </c>
+      <c r="K11" t="str">
+        <v>4.3</v>
+      </c>
+      <c r="L11" t="str">
+        <v>7</v>
+      </c>
+      <c r="M11" t="str">
+        <v>Cuando fui no sabían que veriedad eran los árboles, aún que tenían de muchos tipos, los dan muy económicos.,Mucha variedad de plantas,Buen servicio</v>
+      </c>
+      <c r="N11" t="str">
+        <v>https://lh3.googleusercontent.com/gps-proxy/ALm4wwlIxtyo1B_aI5fW_-j28M2U6kwbnPZmpcWWw1fESbw5AxS813poPcupGTN3aCJGpI1FEzmkNN1zZUPofuwIYeXBS8Pct4vuUMtAunxUZB4gYW-TY8Edz-p2nSQKebAAQGxduiv5-8nN0tn2vcLotAzsnMxvj-N1bexMbh6y5GF1OwlgXDmbMg80lrwkH1-l1kOFnbs=w427-h240-k-no</v>
+      </c>
+      <c r="O11" t="str">
+        <v>wget --no-check-certificate https://lh3.googleusercontent.com/gps-proxy/ALm4wwlIxtyo1B_aI5fW_-j28M2U6kwbnPZmpcWWw1fESbw5AxS813poPcupGTN3aCJGpI1FEzmkNN1zZUPofuwIYeXBS8Pct4vuUMtAunxUZB4gYW-TY8Edz-p2nSQKebAAQGxduiv5-8nN0tn2vcLotAzsnMxvj-N1bexMbh6y5GF1OwlgXDmbMg80lrwkH1-l1kOFnbs=w427-h240-k-no</v>
+      </c>
+      <c r="P11" t="str">
+        <v>ALm4wwlIxtyo1B_aI5fW_-j28M2U6kwbnPZmpcWWw1fESbw5AxS813poPcupGTN3aCJGpI1FEzmkNN1zZUPofuwIYeXBS8Pct4vuUMtAunxUZB4gYW-TY8Edz-p2nSQKebAAQGxduiv5-8nN0tn2vcLotAzsnMxvj-N1bexMbh6y5GF1OwlgXDmbMg80lrwkH1-l1kOFnbs=w427-h240-k-no</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>Vivero_Victoria_9</v>
+      </c>
+      <c r="R11" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Victoria_9.jpg</v>
+      </c>
+      <c r="S11" t="str">
+        <v>ren "ALm4wwlIxtyo1B_aI5fW_-j28M2U6kwbnPZmpcWWw1fESbw5AxS813poPcupGTN3aCJGpI1FEzmkNN1zZUPofuwIYeXBS8Pct4vuUMtAunxUZB4gYW-TY8Edz-p2nSQKebAAQGxduiv5-8nN0tn2vcLotAzsnMxvj-N1bexMbh6y5GF1OwlgXDmbMg80lrwkH1-l1kOFnbs=w427-h240-k-no" "Vivero_Victoria_9.jpg"</v>
+      </c>
+      <c r="T11" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Ecológico que han sido mejor evaluados en este estado. 
+ Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque de Ecoturismo que mejor calificación han recibido en Tabasco durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te daremos los Parque de Ecoturismo mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
+ Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="U11" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Ecológico que han sido mejor evaluados en este estado. 
+ Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque de Ecoturismo que mejor calificación han recibido en Tabasco durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te daremos los Parque de Ecoturismo mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
+ Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="V11" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Vivero Victoria&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Victoria_9.jpg" alt="Vivero Victoria"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3643.7701310402113!2d-104.6661015!3d24.039169899999997!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bc82f1e35ef4b%3A0x28ac0bb71cd10463!2sVivero%20Victoria!5e0!3m2!1ses!2smx!4v1678840910783!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;/div&gt;
+                        &lt;p&gt;El Parque Ecoturístico undefined es una opción fantástica para tener una aventura natural en Tabasco. Su calificación promedio es de 4.3 respaldada por más de 7visitantes, así que no tenemos duda de que este lugar pertenece a la lista de los Parque Ecoturístico mejor rankeados de Tabasco y que se trata de uno de los principales atractivos naturales en la región. Así que ya sabes... ¿ganas de naturaleza?... pues el Parque Ecoturístico undefined es una grandísima opción.&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro Ecoturístico Vivero Victoria? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El Parque Ecoturístico se ubica enAv. del Factor 906, Casa Redonda, 35158 Durango, Dgo.. Puedes ir a este lugar sin problemas manejando, sólo coloca su dirección oficial en waze, google maps o equivalente, o guíate con este &lt;a href='https://www.google.com.mx/maps/place/Vivero+Victoria/@24.0391699,-104.6661015,17z/data=!3m1!4b1!4m6!3m5!1s0x869bc82f1e35ef4b:0x28ac0bb71cd10463!8m2!3d24.0391699!4d-104.6661015!16s%2Fg%2F11b6j5hybg?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Vivero Victoria&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Parque Natural Vivero Victoria?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Sitio Ecoturístico Vivero Victoria son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;No cuenta con teléfono&lt;/li&gt;
+                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
+                            &lt;/ul&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Parque Ecoturístico Vivero Victoria?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del Centro Ecoturístico Vivero Victoria son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes (Natalicio de Benito Juárez (feriado)) de 09:00 a 19:00 El horario podría cambiar&lt;/li&gt;
+                                &lt;li&gt;Martes de 09:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Miércoles de 09:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Jueves de 09:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Viernes de 09:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Sábado de 09:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Domingo de 09:00 a 19:00&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Aunque cuentes ya con los horarios oficiales de apertura de este lugar, siempre te recomendamos que antes de ir eches un ojito a sus redes sociales y vías de contacto, para asegurarte de que no hayan tenido algún cambio logístico de última hora&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="W11" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Victoria_9.jpg" alt="Vivero Victoria"&gt;                
+                </v>
+      </c>
+      <c r="X11" t="str">
+        <v>Añadir número de teléfono del sitio,Añadir sitio web</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:X11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testingAllImports.xlsx
+++ b/testingAllImports.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,54 +431,60 @@
         <v>cityClean</v>
       </c>
       <c r="J1" t="str">
+        <v>state</v>
+      </c>
+      <c r="K1" t="str">
         <v>urlgMaps</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>iframeMap</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>city</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>stars</v>
       </c>
-      <c r="N1" t="str">
-        <v>CantidadResenas</v>
-      </c>
       <c r="O1" t="str">
+        <v>cantidadResenas</v>
+      </c>
+      <c r="P1" t="str">
         <v>opiniones</v>
       </c>
-      <c r="P1" t="str">
+      <c r="Q1" t="str">
         <v>photoOriginalURL</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="R1" t="str">
         <v>photoDownloadScript</v>
       </c>
-      <c r="R1" t="str">
+      <c r="S1" t="str">
         <v>photoFileName</v>
       </c>
-      <c r="S1" t="str">
+      <c r="T1" t="str">
         <v>photoNewName</v>
       </c>
-      <c r="T1" t="str">
+      <c r="U1" t="str">
+        <v>photoNewFullFileName</v>
+      </c>
+      <c r="V1" t="str">
         <v>photoNewURL</v>
       </c>
-      <c r="U1" t="str">
+      <c r="W1" t="str">
         <v>fileNameConversionScript</v>
       </c>
-      <c r="V1" t="str">
+      <c r="X1" t="str">
+        <v>slug</v>
+      </c>
+      <c r="Y1" t="str">
         <v>articleIntro</v>
       </c>
-      <c r="W1" t="str">
-        <v>photoNewFileNameFull</v>
-      </c>
-      <c r="X1" t="str">
+      <c r="Z1" t="str">
         <v>structuredData</v>
       </c>
-      <c r="Y1" t="str">
+      <c r="AA1" t="str">
         <v>photoLocal</v>
       </c>
-      <c r="Z1" t="str">
+      <c r="AB1" t="str">
         <v>missingData</v>
       </c>
     </row>
@@ -487,113 +493,114 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>Vivero Santa Fe</v>
+        <v>Centro Ecoturistico El Nuevo Mundo - Estoracon</v>
       </c>
       <c r="C2" t="str">
-        <v>Vivero Santa Fe</v>
+        <v>Centro Ecoturistico El Nuevo Mundo - Estoracon</v>
       </c>
       <c r="D2" t="str">
-        <v>vivero santa fe</v>
+        <v>centro ecoturistico el nuevo mundo - estoracon</v>
       </c>
       <c r="E2" t="str">
-        <v>Blvd. Cnel. Enrique Carrola Antuna 909, Ciénega, 34090 Durango, Dgo.</v>
+        <v>Carretera Sayula S/N, Francisco I. Madero, 30400 Cintalapa, Chis.</v>
       </c>
       <c r="F2" t="str">
-        <v>618 235 9375</v>
+        <v>961 284 4705</v>
       </c>
       <c r="G2" t="str">
         <v>Web no disponible</v>
       </c>
       <c r="I2" t="str">
-        <v>Durango</v>
+        <v>Estoracón, Chiapas</v>
       </c>
       <c r="J2" t="str">
-        <v>https://www.google.com.mx/maps/place/Vivero+Santa+Fe/@24.0199748,-104.6558555,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb7e17f5ebdfd:0x329bbfbf57717ca0!8m2!3d24.0199748!4d-104.6558555!16s%2Fg%2F11btmr25_0?authuser=0&amp;hl=es</v>
+        <v>Chiapas</v>
       </c>
       <c r="K2" t="str">
-        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3644.3144297120525!2d-104.6558555!3d24.0199748!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb7e17f5ebdfd%3A0x329bbfbf57717ca0!2sVivero%20Santa%20Fe!5e0!3m2!1ses!2smx!4v1678923698250!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+        <v>https://www.google.com/maps/place/Centro+Ecoturistico+El+Nuevo+Mundo+-+Estoracon/@16.8505798,-93.7933739,17z/data=!3m1!4b1!4m6!3m5!1s0x85eca6200d7617bb:0x7498371825377da6!8m2!3d16.8505798!4d-93.7933739!16s%2Fg%2F11dxpchfty?authuser=0&amp;hl=es</v>
       </c>
       <c r="L2" t="str">
-        <v>289V+XM Durango</v>
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3818.5113687598837!2d-93.79337389999999!3d16.8505798!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85eca6200d7617bb%3A0x7498371825377da6!2sCentro%20Ecoturistico%20El%20Nuevo%20Mundo%20-%20Estoracon!5e0!3m2!1ses!2smx!4v1679084159063!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
       </c>
       <c r="M2" t="str">
-        <v>4.2</v>
+        <v>V624+6M Estoracón, Chiapas</v>
       </c>
       <c r="N2" t="str">
-        <v>33</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="str">
-        <v>Super mala atención. Tienen muy bonitas plantas pero la señora que atendie, nunca me hizo caso, le mostre la planta que quería y me ignoro por completo, pésimo. No lo recomiendo y no vuelvo a ir,Excelente atención variedad de plantas  adornos para jardín lo recomiendo Buen Trato y novedades,Excelente atención y plantas de muy buena calidad</v>
+        <v>31</v>
       </c>
       <c r="P2" t="str">
-        <v>https://lh5.googleusercontent.com/p/AF1QipOC7w7iQu2kg7BiEaF1hoYdzwUX11Mfy6wYJIgK=w408-h306-k-no</v>
+        <v>Hermoso día de excursión en familia a este sitio remoto con 4 cascadas en plena naturaleza con piscina y una comida riquísima con buena atención, los Tucanes con muchi acercamiento, salimos de Cintalapa Chiapas,Muy bonita reserva recomendable,Se puede acampar ($180 por tienda de campaña), hay cabañas (sencilla $400, doble $800), rentan hamacas, tienda de campaña, venden refrescos, cervezas, sabritas, buena comida(camarones empanizado, en ensalada , mojarras, carne asada, pollo,…</v>
       </c>
       <c r="Q2" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipOC7w7iQu2kg7BiEaF1hoYdzwUX11Mfy6wYJIgK=w408-h306-k-no</v>
+        <v>https://lh5.googleusercontent.com/p/AF1QipPOgfBL_SMdx6bZCZHeZCe150jGe-GqwXaX7lE=w408-h306-k-no</v>
       </c>
       <c r="R2" t="str">
-        <v>AF1QipOC7w7iQu2kg7BiEaF1hoYdzwUX11Mfy6wYJIgK=w408-h306-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPOgfBL_SMdx6bZCZHeZCe150jGe-GqwXaX7lE=w408-h306-k-no</v>
       </c>
       <c r="S2" t="str">
-        <v>Vivero_Santa_Fe_0</v>
+        <v>AF1QipPOgfBL_SMdx6bZCZHeZCe150jGe-GqwXaX7lE=w408-h306-k-no</v>
       </c>
       <c r="T2" t="str">
-        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Santa_Fe_0.jpg</v>
+        <v>Centro_Ecoturistico_El_Nuevo_Mundo_-_Estoracon_0</v>
       </c>
       <c r="U2" t="str">
-        <v>ren "AF1QipOC7w7iQu2kg7BiEaF1hoYdzwUX11Mfy6wYJIgK=w408-h306-k-no" "Vivero_Santa_Fe_0.jpg"</v>
-      </c>
-      <c r="V2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Natural que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Natural que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Centro Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="W2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Natural que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Natural que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Centro Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="X2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Vivero Santa Fe&lt;/b&gt;&lt;/h2&gt;
-                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Santa_Fe_0.jpg" alt="Vivero Santa Fe"&gt;   
-                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3644.3144297120525!2d-104.6558555!3d24.0199748!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb7e17f5ebdfd%3A0x329bbfbf57717ca0!2sVivero%20Santa%20Fe!5e0!3m2!1ses!2smx!4v1678923698250!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+        <v>Centro_Ecoturistico_El_Nuevo_Mundo_-_Estoracon_0.jpg</v>
+      </c>
+      <c r="V2" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturistico_El_Nuevo_Mundo_-_Estoracon_0.jpg</v>
+      </c>
+      <c r="W2" t="str">
+        <v>ren "AF1QipPOgfBL_SMdx6bZCZHeZCe150jGe-GqwXaX7lE=w408-h306-k-no" "Centro_Ecoturistico_El_Nuevo_Mundo_-_Estoracon_0.jpg"</v>
+      </c>
+      <c r="X2" t="str">
+        <v>parques-ecoturismo-en-chiapas</v>
+      </c>
+      <c r="Y2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en undefined? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parque ecológico que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parque ecoturístico que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en undefined durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los parque ecoturístico mejor calificados en undefined en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en undefined!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="Z2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Centro de Ecoturismo Centro Ecoturistico El Nuevo Mundo - Estoracon&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturistico_El_Nuevo_Mundo_-_Estoracon_0.jpg" alt="Centro Ecoturistico El Nuevo Mundo - Estoracon"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3818.5113687598837!2d-93.79337389999999!3d16.8505798!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85eca6200d7617bb%3A0x7498371825377da6!2sCentro%20Ecoturistico%20El%20Nuevo%20Mundo%20-%20Estoracon!5e0!3m2!1ses!2smx!4v1679084159063!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
                         &lt;div&gt;&lt;/div&gt;
-                        &lt;p&gt;El Parque Ecoturístico undefined es una opción fantástica para tener una aventura natural en Tabasco. Su calificación promedio es de 4.2 respaldada por más de 33visitantes, así que no tenemos duda de que este lugar pertenece a la lista de los Parque Ecoturístico mejor rankeados de Tabasco y que se trata de uno de los principales atractivos naturales en la región. Así que ya sabes... ¿ganas de naturaleza?... pues el Parque Ecoturístico undefined es una grandísima opción.&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Natural "Vivero Santa Fe"? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;El Parque Ecológico se ubica enBlvd. Cnel. Enrique Carrola Antuna 909, Ciénega, 34090 Durango, Dgo.. Podrás llegar manejando sin ningún problema, símplemente usa la dirección en una app como waze o googleMaps, o usa este enlace al &lt;a href='https://www.google.com.mx/maps/place/Vivero+Santa+Fe/@24.0199748,-104.6558555,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb7e17f5ebdfd:0x329bbfbf57717ca0!8m2!3d24.0199748!4d-104.6558555!16s%2Fg%2F11btmr25_0?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Vivero Santa Fe&lt;/a&gt;&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Parque Natural Vivero Santa Fe?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Vivero Santa Fe son: &lt;/p&gt;
-                            &lt;ul&gt;
-                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;618 235 9375&lt;/li&gt;
+                        &lt;p&gt;Bueno pues si eres de quienes ama estar en contacto con la naturaleza y andas por undefined, entonces no puedes perderte la experiencia de visitar el parque ecológico undefined. Con una calificación promedio de undefinedestrellas de más de undefined visitantes, no tenemos duda de que se trata de un favorito de esta región. Así que nada...prepárate para sumergirte y disfrutar a tope de los paisajes naturales de undefined y Lánzate a undefined&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro Ecoturístico "Centro Ecoturistico El Nuevo Mundo - Estoracon"? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El parque ecoturístico se ubica enCarretera Sayula S/N, Francisco I. Madero, 30400 Cintalapa, Chis.. Para encontrar esta dirección, puedes apoyarte en tu app de navegación favorita o irte directo a la navegación de googleMaps por medio de este &lt;a href='https://www.google.com/maps/place/Centro+Ecoturistico+El+Nuevo+Mundo+-+Estoracon/@16.8505798,-93.7933739,17z/data=!3m1!4b1!4m6!3m5!1s0x85eca6200d7617bb:0x7498371825377da6!8m2!3d16.8505798!4d-93.7933739!16s%2Fg%2F11dxpchfty?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico,Centro Ecoturístico,Parque Ecoturístico,Sitio Ecoturístico,Parque Ecológico,Parque Ecoturístico,Parque Natural,Parque Ecoturístico,Centro de Ecoturismo,Parque de Ecoturismo Centro Ecoturistico El Nuevo Mundo - Estoracon&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque de ecoturismo Centro Ecoturistico El Nuevo Mundo - Estoracon?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Centro de Ecoturismo Centro Ecoturistico El Nuevo Mundo - Estoracon son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;961 284 4705&lt;/li&gt;
                                 &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
                             &lt;/ul&gt;
-                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Centro Ecoturístico Vivero Santa Fe?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los horarios oficiales del Centro Ecoturístico Vivero Santa Fe son los siguientes:&lt;/p&gt;                       
-                            &lt;ul&gt;
-                                &lt;li&gt;Lunes de 09:30 a 19:30&lt;/li&gt;
-                                &lt;li&gt;Martes de 09:30 a 19:30&lt;/li&gt;
-                                &lt;li&gt;Miércoles de 09:30 a 19:30&lt;/li&gt;
-                                &lt;li&gt;Jueves de 09:30 a 19:30&lt;/li&gt;
-                                &lt;li&gt;Viernes de 09:30 a 19:30&lt;/li&gt;
-                                &lt;li&gt;Sábado de 09:30 a 19:30&lt;/li&gt;
-                                &lt;li&gt;Domingo de 09:30 a 19:30&lt;/li&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del parque ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes de 10:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Martes de 10:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Miércoles de 10:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Jueves de 10:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Viernes de 10:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Sábado de 10:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Domingo de 10:00 a 19:00&lt;/li&gt;
                             &lt;/ul&gt;
                             &lt;p&gt;A pesar de contar con horarios oficiales, te recomendamos siempre visitar sus sitios de contacto y redes oficiales antes de ir al lugar, así podrás identificar cualquier cambio extraordinario que hayan tenido.&lt;/p&gt;                 
                     </v>
       </c>
-      <c r="Y2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Santa_Fe_0.jpg" alt="Vivero Santa Fe"&gt;                
+      <c r="AA2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturistico_El_Nuevo_Mundo_-_Estoracon_0.jpg" alt="Centro Ecoturistico El Nuevo Mundo - Estoracon"&gt;                
                 </v>
       </c>
-      <c r="Z2" t="str">
+      <c r="AB2" t="str">
         <v>Añadir sitio web</v>
       </c>
     </row>
@@ -602,114 +609,115 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>VIVERO´S AVE DE PARAISO</v>
+        <v>Siempre Verde Chiapas, Centro Ecoturístico</v>
       </c>
       <c r="C3" t="str">
-        <v>Vivero´s Ave De Paraiso</v>
+        <v>Siempre Verde Chiapas, Centro Ecoturístico</v>
       </c>
       <c r="D3" t="str">
-        <v>vivero´s ave de paraiso</v>
+        <v>siempre verde chiapas, centro ecoturístico</v>
       </c>
       <c r="E3" t="str">
-        <v>Calle Nazas 614, Los Sauces, 34078 Durango, Dgo.</v>
+        <v>Carretera Escopetazo Pichucalco Kilometro 81 S/N, El Campanario, 29760 Jitotol, Chis.</v>
       </c>
       <c r="F3" t="str">
-        <v>618 818 0964</v>
+        <v>919 104 9970</v>
       </c>
       <c r="G3" t="str">
-        <v>https://www.instagram.com/invites/contact/?i=1rjinh0zovkbr&amp;utm_content=myh4mm5</v>
+        <v>Web no disponible</v>
       </c>
       <c r="I3" t="str">
-        <v>Durango</v>
+        <v>Jitotol, Chiapas</v>
       </c>
       <c r="J3" t="str">
-        <v>https://www.google.com.mx/maps/place/VIVERO%C2%B4S+AVE+DE+PARAISO/@24.008504,-104.644488,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb7f0d4ea30ef:0x4cb36ed930d8acad!8m2!3d24.008504!4d-104.644488!16s%2Fg%2F11ddx2_b8h?authuser=0&amp;hl=es</v>
+        <v>Chiapas</v>
       </c>
       <c r="K3" t="str">
-        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3644.639501915154!2d-104.64448800000001!3d24.008503999999995!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb7f0d4ea30ef%3A0x4cb36ed930d8acad!2sVIVERO%C2%B4S%20AVE%20DE%20PARAISO!5e0!3m2!1ses!2smx!4v1678923703160!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+        <v>https://www.google.com/maps/place/Siempre+Verde+Chiapas,+Centro+Ecotur%C3%ADstico/@17.143827,-92.888084,17z/data=!3m1!4b1!4m6!3m5!1s0x85ed0ee58c29248b:0xcdab59d265c14ddf!8m2!3d17.143827!4d-92.888084!16s%2Fg%2F11bvv4whms?authuser=0&amp;hl=es</v>
       </c>
       <c r="L3" t="str">
-        <v>2954+C6 Durango</v>
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3812.5419796816677!2d-92.88808399999999!3d17.143826999999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ed0ee58c29248b%3A0xcdab59d265c14ddf!2sSiempre%20Verde%20Chiapas%2C%20Centro%20Ecotur%C3%ADstico!5e0!3m2!1ses!2smx!4v1679084163897!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
       </c>
       <c r="M3" t="str">
-        <v>4.3</v>
+        <v>44V6+GQ Jitotol, Chiapas</v>
       </c>
       <c r="N3" t="str">
-        <v>21</v>
+        <v>4.4</v>
       </c>
       <c r="O3" t="str">
-        <v>Mala atención,Las nochebuenas estan hermosas, no me fui de ahí sin las mías, lastimas que el resto de plantas están muy amontonadas y no se pueden apreciar bien,Tienen una gran variedad de plantas</v>
+        <v>555</v>
       </c>
       <c r="P3" t="str">
-        <v>https://lh5.googleusercontent.com/p/AF1QipMOYk2QlPDlj4I6VmQIIolnA3Ipl8mWjdIXSvrS=w408-h725-k-no</v>
+        <v>Hermoso lugar para realizar senderismo, manejar cuatrimotos y para pasar unos días de relajamiento, todo el lugar es magnifico, las cabañas con chimeneas y balcones enormes desde donde puedes admirar el bosque, el lugar cuenta con…,El lugar es espectacular para estar alejado de la ciudad. Descansar, delicioso clima. Cómodo y limpio. No esperes un lugar de lujo pero si un lugar acogedor.,Un lugar muy bello para pasar un fin de semana en familia, el clima súper agradable y la vegetación maravillosa. Amo mi chiapas</v>
       </c>
       <c r="Q3" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMOYk2QlPDlj4I6VmQIIolnA3Ipl8mWjdIXSvrS=w408-h725-k-no</v>
+        <v>https://lh5.googleusercontent.com/p/AF1QipPeHN3i2PWxhWxToRs-k5bKZZRwHphpyIy-yf-L=w426-h240-k-no</v>
       </c>
       <c r="R3" t="str">
-        <v>AF1QipMOYk2QlPDlj4I6VmQIIolnA3Ipl8mWjdIXSvrS=w408-h725-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPeHN3i2PWxhWxToRs-k5bKZZRwHphpyIy-yf-L=w426-h240-k-no</v>
       </c>
       <c r="S3" t="str">
-        <v>VIVERO´S_AVE_DE_PARAISO_1</v>
+        <v>AF1QipPeHN3i2PWxhWxToRs-k5bKZZRwHphpyIy-yf-L=w426-h240-k-no</v>
       </c>
       <c r="T3" t="str">
-        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/VIVERO´S_AVE_DE_PARAISO_1.jpg</v>
+        <v>Siempre_Verde_Chiapas,_Centro_Ecoturístico_1</v>
       </c>
       <c r="U3" t="str">
-        <v>ren "AF1QipMOYk2QlPDlj4I6VmQIIolnA3Ipl8mWjdIXSvrS=w408-h725-k-no" "VIVERO´S_AVE_DE_PARAISO_1.jpg"</v>
-      </c>
-      <c r="V3" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque de Ecoturismo que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecológico que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Parque Ecológico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="W3" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque de Ecoturismo que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecológico que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Parque Ecológico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="X3" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Vivero´s Ave De Paraiso&lt;/b&gt;&lt;/h2&gt;
-                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/VIVERO´S_AVE_DE_PARAISO_1.jpg" alt="VIVERO´S AVE DE PARAISO"&gt;   
-                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3644.639501915154!2d-104.64448800000001!3d24.008503999999995!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb7f0d4ea30ef%3A0x4cb36ed930d8acad!2sVIVERO%C2%B4S%20AVE%20DE%20PARAISO!5e0!3m2!1ses!2smx!4v1678923703160!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+        <v>Siempre_Verde_Chiapas,_Centro_Ecoturístico_1.jpg</v>
+      </c>
+      <c r="V3" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Siempre_Verde_Chiapas,_Centro_Ecoturístico_1.jpg</v>
+      </c>
+      <c r="W3" t="str">
+        <v>ren "AF1QipPeHN3i2PWxhWxToRs-k5bKZZRwHphpyIy-yf-L=w426-h240-k-no" "Siempre_Verde_Chiapas,_Centro_Ecoturístico_1.jpg"</v>
+      </c>
+      <c r="X3" t="str">
+        <v>parques-ecoturismo-en-chiapas</v>
+      </c>
+      <c r="Y3" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en undefined? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parque de ecoturismo que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los centro ecoturístico que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en undefined durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los parque ecoturístico mejor calificados en undefined en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en undefined!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="Z3" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Parque Natural Siempre Verde Chiapas, Centro Ecoturístico&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Siempre_Verde_Chiapas,_Centro_Ecoturístico_1.jpg" alt="Siempre Verde Chiapas, Centro Ecoturístico"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3812.5419796816677!2d-92.88808399999999!3d17.143826999999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ed0ee58c29248b%3A0xcdab59d265c14ddf!2sSiempre%20Verde%20Chiapas%2C%20Centro%20Ecotur%C3%ADstico!5e0!3m2!1ses!2smx!4v1679084163897!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
                         &lt;div&gt;&lt;/div&gt;
-                        &lt;p&gt;Este Parque Ecoturístico tiene 4.3 de calificación promedio, a partir de las más de 21 opiniones de sus visitantes... ¿nada mal no?. Es por eso que es parte de esta lista de los Parque Ecoturístico mejor calificados de Tabasco. Con este respaldo estamos más que seguras(os) que se trata  de un sitio que vas a disfrutar al Máximo. Así que ya sabes, si lo que buscas es naturaleza, el Parque Ecoturístico undefineden Tabasco, es sin duda una gran opción&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Vivero´s Ave De Paraiso"? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;El Centro Ecoturístico se ubica enCalle Nazas 614, Los Sauces, 34078 Durango, Dgo.. Para ir a este sitio, coloca esta dirección en una herramienta de navegación o apóyate con este &lt;a href='https://www.google.com.mx/maps/place/VIVERO%C2%B4S+AVE+DE+PARAISO/@24.008504,-104.644488,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb7f0d4ea30ef:0x4cb36ed930d8acad!8m2!3d24.008504!4d-104.644488!16s%2Fg%2F11ddx2_b8h?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Vivero´s Ave De Paraiso&lt;/a&gt;&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Parque Natural Vivero´s Ave De Paraiso?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Vivero´s Ave De Paraiso son: &lt;/p&gt;
-                            &lt;ul&gt;
-                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;618 818 0964&lt;/li&gt;
-                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;&lt;a href="https://www.instagram.com/invites/contact/?i=1rjinh0zovkbr&amp;utm_content=myh4mm5"&gt;Web del place VIVERO´S AVE DE PARAISO&lt;/a&gt;&lt;/li&gt;                                
-                            &lt;/ul&gt;
-                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Centro Ecoturístico Vivero´s Ave De Paraiso?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los horarios oficiales del Parque Natural Vivero´s Ave De Paraiso son los siguientes:&lt;/p&gt;                       
-                            &lt;ul&gt;
-                                &lt;li&gt;Lunes de 08:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Martes de 08:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Miércoles de 08:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Jueves de 08:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Viernes de 08:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Sábado de 08:00 a 17:00&lt;/li&gt;
-                                &lt;li&gt;Domingo de 09:00 a 17:00&lt;/li&gt;
-                            &lt;/ul&gt;
-                            &lt;p&gt;A pesar de contar con horarios oficiales, te recomendamos siempre visitar sus sitios de contacto y redes oficiales antes de ir al lugar, así podrás identificar cualquier cambio extraordinario que hayan tenido.&lt;/p&gt;                 
-                    </v>
-      </c>
-      <c r="Y3" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/VIVERO´S_AVE_DE_PARAISO_1.jpg" alt="VIVERO´S AVE DE PARAISO"&gt;                
+                        &lt;p&gt;Uno de los sitios naturales más memorables de undefined es sin duda alguna el parque ecoturístico undefined. Este lugar está respaldado por un montón de visitantes previos y más de undefined evaluaciones promedio que rondan las undefined estrellas, lo que lo hace un favorito de esta región. Es por eso que forma parte de esta lista de los mejores sitios ecoturísticos de undefined, y es por eso también que nos parece una recomendación imperdible para ti.&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Sitio Ecoturístico "Siempre Verde Chiapas, Centro Ecoturístico"? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El sitio ecoturístico se ubica enCarretera Escopetazo Pichucalco Kilometro 81 S/N, El Campanario, 29760 Jitotol, Chis.. Para ir a este lugar usar esa dirección en un gps o ayudarte con este &lt;a href='https://www.google.com/maps/place/Siempre+Verde+Chiapas,+Centro+Ecotur%C3%ADstico/@17.143827,-92.888084,17z/data=!3m1!4b1!4m6!3m5!1s0x85ed0ee58c29248b:0xcdab59d265c14ddf!8m2!3d17.143827!4d-92.888084!16s%2Fg%2F11bvv4whms?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico,Centro Ecoturístico,Parque Ecoturístico,Sitio Ecoturístico,Parque Ecológico,Parque Ecoturístico,Parque Natural,Parque Ecoturístico,Centro de Ecoturismo,Parque de Ecoturismo Siempre Verde Chiapas, Centro Ecoturístico&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Siempre Verde Chiapas, Centro Ecoturístico?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Sitio Ecoturístico Siempre Verde Chiapas, Centro Ecoturístico son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;919 104 9970&lt;/li&gt;
+                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
+                            &lt;/ul&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el sitio ecoturístico Siempre Verde Chiapas, Centro Ecoturístico?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del parque ecoturístico Siempre Verde Chiapas, Centro Ecoturístico son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;A pesar de que los horarios sean oficiales, es buena idea que antes ir, revises siempre cómo están las cosas en sus redes sociales y contactos digitales, esto te permitirá asegurarte de que no haya cambios de horario o logística antes de tu arribo al lugar&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="AA3" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Siempre_Verde_Chiapas,_Centro_Ecoturístico_1.jpg" alt="Siempre Verde Chiapas, Centro Ecoturístico"&gt;                
                 </v>
       </c>
-      <c r="Z3" t="str">
-        <v/>
+      <c r="AB3" t="str">
+        <v>Añadir sitio web</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
@@ -717,115 +725,116 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>Vivero Las Magnolias</v>
+        <v>Centro Ecoturístico "El Aguacero"</v>
       </c>
       <c r="C4" t="str">
-        <v>Vivero Las Magnolias</v>
+        <v>Centro Ecoturístico "el Aguacero"</v>
       </c>
       <c r="D4" t="str">
-        <v>vivero las magnolias</v>
+        <v>centro ecoturístico "el aguacero"</v>
       </c>
       <c r="E4" t="str">
-        <v>Sauca 103, Jardines de Durango, 34200 Durango, Dgo.</v>
+        <v>Unnamed Road, Chis.</v>
       </c>
       <c r="F4" t="str">
-        <v>618 129 7673</v>
+        <v>968 106 9019</v>
       </c>
       <c r="G4" t="str">
-        <v>Web no disponible</v>
+        <v>http://www.cascadaelaguacero.com/</v>
       </c>
       <c r="I4" t="str">
-        <v>Durango</v>
+        <v>El Recuerdo, Chiapas</v>
       </c>
       <c r="J4" t="str">
-        <v>https://www.google.com.mx/maps/place/Vivero+Las+Magnolias/@24.0374832,-104.6351623,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb7b871872b85:0x65cc8cefdc6b7345!8m2!3d24.0374832!4d-104.6351623!16s%2Fg%2F11b6j5b_lw?authuser=0&amp;hl=es</v>
+        <v>Chiapas</v>
       </c>
       <c r="K4" t="str">
-        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3643.8179757079024!2d-104.63516229999999!3d24.037483200000004!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb7b871872b85%3A0x65cc8cefdc6b7345!2sVivero%20Las%20Magnolias!5e0!3m2!1ses!2smx!4v1678923707825!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+        <v>https://www.google.com/maps/place/Centro+Ecotur%C3%ADstico+%22El+Aguacero%22/@16.7591291,-93.5246499,17z/data=!3m1!4b1!4m6!3m5!1s0x85ecbbbeb75d1b1f:0x70f4450b76c6d0b!8m2!3d16.7591291!4d-93.5246499!16s%2Fg%2F11g6mr_n7p?authuser=0&amp;hl=es</v>
       </c>
       <c r="L4" t="str">
-        <v>29P7+XW Durango</v>
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3820.352500879553!2d-93.5246499!3d16.7591291!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ecbbbeb75d1b1f%3A0x70f4450b76c6d0b!2sCentro%20Ecotur%C3%ADstico%20%22El%20Aguacero%22!5e0!3m2!1ses!2smx!4v1679084168823!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
       </c>
       <c r="M4" t="str">
-        <v>4.7</v>
+        <v>QF5G+M4 El Recuerdo, Chiapas</v>
       </c>
       <c r="N4" t="str">
-        <v>106</v>
-      </c>
-      <c r="O4" t="str" xml:space="preserve">
-        <v xml:space="preserve">Excelente atención del joven y mucha variedad de plantas!!
-Compré tierra para macetas, me dijo el joven que era muy buena, pero huele muy mal, me pueden dar alguna sugerencia para eliminar ese olor tan fuerte?! Por favor!!,Me encantan todas las plantas, son muy amables, los precios justos🤩…,Muy bonito vivero</v>
-      </c>
-      <c r="P4" t="str">
-        <v>https://lh5.googleusercontent.com/p/AF1QipPmQSXM5PoyrFj8IU2GdEEKh9C_3Ku5CJxKUUUM=w408-h306-k-no</v>
+        <v>4.6</v>
+      </c>
+      <c r="O4" t="str">
+        <v>318</v>
+      </c>
+      <c r="P4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Un lugar maravilloso para visitar, te exige mucha condición (ir preparados con calzado para escalar o senderismo) y llevar ropa cómoda.
+La comida del restaurante es excelente y con un sazón único!…,Increible lugar, antes de ir necesitas saber que para llegar a la cascada hay que caminar 30 minutos aproximadamente, escaleras hacia abajo, son más de 700 escalones más una caminata de unos 200 metros sobre el río. No hay partes ondas y hay mucho lugar para montar un picnic.,Es un lugar increíble!! Si no tienes coche el acceso esta algo complicado pero vale la pena, es mas para pasar el día llevar de comer o incluso acampar, la altura del río es pequeña así que no es tanto para nadar pero bastante agradable, cobran una entrada de aproximadamente 60 pesos</v>
       </c>
       <c r="Q4" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPmQSXM5PoyrFj8IU2GdEEKh9C_3Ku5CJxKUUUM=w408-h306-k-no</v>
+        <v>https://lh5.googleusercontent.com/p/AF1QipPtbKPypMyq7Ne_R7EO2WsnKqRywG7IpYIsf5Im=w408-h544-k-no</v>
       </c>
       <c r="R4" t="str">
-        <v>AF1QipPmQSXM5PoyrFj8IU2GdEEKh9C_3Ku5CJxKUUUM=w408-h306-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPtbKPypMyq7Ne_R7EO2WsnKqRywG7IpYIsf5Im=w408-h544-k-no</v>
       </c>
       <c r="S4" t="str">
-        <v>Vivero_Las_Magnolias_2</v>
+        <v>AF1QipPtbKPypMyq7Ne_R7EO2WsnKqRywG7IpYIsf5Im=w408-h544-k-no</v>
       </c>
       <c r="T4" t="str">
-        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Las_Magnolias_2.jpg</v>
+        <v>Centro_Ecoturístico_"El_Aguacero"_2</v>
       </c>
       <c r="U4" t="str">
-        <v>ren "AF1QipPmQSXM5PoyrFj8IU2GdEEKh9C_3Ku5CJxKUUUM=w408-h306-k-no" "Vivero_Las_Magnolias_2.jpg"</v>
-      </c>
-      <c r="V4" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Ecológico que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Centro de Ecoturismo que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Parque Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="W4" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Ecológico que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Centro de Ecoturismo que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Parque Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="X4" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Vivero Las Magnolias&lt;/b&gt;&lt;/h2&gt;
-                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Las_Magnolias_2.jpg" alt="Vivero Las Magnolias"&gt;   
-                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3643.8179757079024!2d-104.63516229999999!3d24.037483200000004!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb7b871872b85%3A0x65cc8cefdc6b7345!2sVivero%20Las%20Magnolias!5e0!3m2!1ses!2smx!4v1678923707825!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+        <v>Centro_Ecoturístico_"El_Aguacero"_2.jpg</v>
+      </c>
+      <c r="V4" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturístico_"El_Aguacero"_2.jpg</v>
+      </c>
+      <c r="W4" t="str">
+        <v>ren "AF1QipPtbKPypMyq7Ne_R7EO2WsnKqRywG7IpYIsf5Im=w408-h544-k-no" "Centro_Ecoturístico_"El_Aguacero"_2.jpg"</v>
+      </c>
+      <c r="X4" t="str">
+        <v>parques-ecoturismo-en-chiapas</v>
+      </c>
+      <c r="Y4" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en undefined? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  sitio ecoturístico que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parque natural que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en undefined durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los parque natural mejor calificados en undefined en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en undefined!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="Z4" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Centro Ecoturístico "el Aguacero"&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturístico_"El_Aguacero"_2.jpg" alt="Centro Ecoturístico "El Aguacero""&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3820.352500879553!2d-93.5246499!3d16.7591291!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ecbbbeb75d1b1f%3A0x70f4450b76c6d0b!2sCentro%20Ecotur%C3%ADstico%20%22El%20Aguacero%22!5e0!3m2!1ses!2smx!4v1679084168823!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
                         &lt;div&gt;&lt;/div&gt;
-                        &lt;p&gt;El Parque Ecoturístico undefined es una opción fantástica para tener una aventura natural en Tabasco. Su calificación promedio es de 4.7 respaldada por más de 106visitantes, así que no tenemos duda de que este lugar pertenece a la lista de los Parque Ecoturístico mejor rankeados de Tabasco y que se trata de uno de los principales atractivos naturales en la región. Así que ya sabes... ¿ganas de naturaleza?... pues el Parque Ecoturístico undefined es una grandísima opción.&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Vivero Las Magnolias"? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;El Parque Ecoturístico se ubica enSauca 103, Jardines de Durango, 34200 Durango, Dgo.. Para encontrar esta dirección, puedes usar un navegador como el waze o este &lt;a href='https://www.google.com.mx/maps/place/Vivero+Las+Magnolias/@24.0374832,-104.6351623,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb7b871872b85:0x65cc8cefdc6b7345!8m2!3d24.0374832!4d-104.6351623!16s%2Fg%2F11b6j5b_lw?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Vivero Las Magnolias&lt;/a&gt;&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Parque de Ecoturismo Vivero Las Magnolias?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Vivero Las Magnolias son: &lt;/p&gt;
-                            &lt;ul&gt;
-                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;618 129 7673&lt;/li&gt;
-                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
-                            &lt;/ul&gt;
-                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Centro de Ecoturismo Vivero Las Magnolias?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los horarios oficiales del Parque Ecoturístico Vivero Las Magnolias son los siguientes:&lt;/p&gt;                       
-                            &lt;ul&gt;
-                                &lt;li&gt;Lunes de 09:00 a 18:00&lt;/li&gt;
-                                &lt;li&gt;Martes de 09:00 a 18:00&lt;/li&gt;
-                                &lt;li&gt;Miércoles de 09:00 a 18:00&lt;/li&gt;
-                                &lt;li&gt;Jueves de 09:00 a 18:00&lt;/li&gt;
-                                &lt;li&gt;Viernes de 09:00 a 18:00&lt;/li&gt;
-                                &lt;li&gt;Sábado de 09:00 a 18:00&lt;/li&gt;
-                                &lt;li&gt;Domingo de 09:00 a 17:00&lt;/li&gt;
-                            &lt;/ul&gt;
-                            &lt;p&gt;Siempre es importante -aún si cuentas con estos horarios oficiales-, revisar en sus redes sociales y medios de contacto antes de ir. Así podrás asegurarte de que no hayan tenido ningún cambio de horario o logístico de último momento.&lt;/p&gt;                 
-                    </v>
-      </c>
-      <c r="Y4" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Las_Magnolias_2.jpg" alt="Vivero Las Magnolias"&gt;                
+                        &lt;p&gt;¿Te gusta el ecoturismo o andas en undefined buscando algo de aventura natural? Entonces pon ya mismo en tu lista al parque natural undefined. Este es un lugar ideal para encontrarte con la naturaleza y disfrutar de paisajes lindos. Es un sitio ecoturístico que ha sido evaluado por más de undefined personas y tiene un promedio de undefined estrellas de calificación. Aunque puede que haya algunos detallitos que es posible mejorar, la realidad es que undefined es un paso obligado si lo que estás buscando es ecoturismo y naturaleza en undefined&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Centro Ecoturístico "el Aguacero""? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El parque ecoturístico se ubica enUnnamed Road, Chis.. Puedes ir a este lugar sin problemas manejando, sólo coloca su dirección oficial en waze, google maps o equivalente, o guíate con este &lt;a href='https://www.google.com/maps/place/Centro+Ecotur%C3%ADstico+%22El+Aguacero%22/@16.7591291,-93.5246499,17z/data=!3m1!4b1!4m6!3m5!1s0x85ecbbbeb75d1b1f:0x70f4450b76c6d0b!8m2!3d16.7591291!4d-93.5246499!16s%2Fg%2F11g6mr_n7p?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico,Centro Ecoturístico,Parque Ecoturístico,Sitio Ecoturístico,Parque Ecológico,Parque Ecoturístico,Parque Natural,Parque Ecoturístico,Centro de Ecoturismo,Parque de Ecoturismo Centro Ecoturístico "el Aguacero"&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Centro Ecoturístico "el Aguacero"?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Sitio Ecoturístico Centro Ecoturístico "el Aguacero" son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;968 106 9019&lt;/li&gt;
+                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;&lt;a href="http://www.cascadaelaguacero.com/"&gt;Web del place Centro Ecoturístico "El Aguacero"&lt;/a&gt;&lt;/li&gt;                                
+                            &lt;/ul&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro de ecoturismo Centro Ecoturístico "el Aguacero"?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del sitio ecoturístico Centro Ecoturístico "el Aguacero" son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes de 07:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Martes de 07:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Miércoles de 07:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Jueves de 07:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Viernes de 07:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Sábado de 07:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Domingo de 07:00 a 17:00&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Siempre está bueno que, aunque ya tengas estos horarios oficiales, cheques sus redes sociales y medios de contacto antes de ir, para estar al tanto de cualquier cambio de horario o logística inesperado&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="AA4" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturístico_"El_Aguacero"_2.jpg" alt="Centro Ecoturístico "El Aguacero""&gt;                
                 </v>
       </c>
-      <c r="Z4" t="str">
-        <v>Añadir sitio web</v>
+      <c r="AB4" t="str">
+        <v/>
       </c>
     </row>
     <row r="5" xml:space="preserve">
@@ -833,117 +842,114 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>Vivero Santa Fe</v>
+        <v>Parque Ecoturistico Tzimbac</v>
       </c>
       <c r="C5" t="str">
-        <v>Vivero Santa Fe</v>
+        <v>Parque Ecoturistico Tzimbac</v>
       </c>
       <c r="D5" t="str">
-        <v>vivero santa fe</v>
+        <v>parque ecoturistico tzimbac</v>
       </c>
       <c r="E5" t="str">
-        <v>C. Victoria 106, Arroyo Seco, 34147 Durango, Dgo.</v>
+        <v>Carretera a Monterrey Km. 2.2, Villarreal, 29125 Chis.</v>
       </c>
       <c r="F5" t="str">
-        <v>618 120 0604</v>
+        <v>961 286 8575</v>
       </c>
       <c r="G5" t="str">
         <v>Web no disponible</v>
       </c>
       <c r="I5" t="str">
-        <v>Durango</v>
+        <v>Santa Rita, Chiapas</v>
       </c>
       <c r="J5" t="str">
-        <v>https://www.google.com.mx/maps/place/Vivero+Santa+Fe/@23.9936822,-104.6858595,17z/data=!3m1!4b1!4m6!3m5!1s0x869bc7de9a5a690f:0x1c9d03d9335b8bbd!8m2!3d23.9936822!4d-104.6858595!16s%2Fg%2F11b6jgmr3h?authuser=0&amp;hl=es</v>
+        <v>Chiapas</v>
       </c>
       <c r="K5" t="str">
-        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3645.059322127962!2d-104.68585949999999!3d23.993682200000002!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bc7de9a5a690f%3A0x1c9d03d9335b8bbd!2sVivero%20Santa%20Fe!5e0!3m2!1ses!2smx!4v1678923711731!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+        <v>https://www.google.com/maps/place/Parque+Ecoturistico+Tzimbac/@16.8998672,-93.2289146,17z/data=!3m1!4b1!4m6!3m5!1s0x85ece790120fdba7:0xf3cf8d4d73cd7595!8m2!3d16.8998672!4d-93.2289146!16s%2Fg%2F12hm176_z?authuser=0&amp;hl=es</v>
       </c>
       <c r="L5" t="str">
-        <v>X8V7+FM Durango</v>
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3817.515055110652!2d-93.2289146!3d16.8998672!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ece790120fdba7%3A0xf3cf8d4d73cd7595!2sParque%20Ecoturistico%20Tzimbac!5e0!3m2!1ses!2smx!4v1679084173457!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
       </c>
       <c r="M5" t="str">
-        <v>4.4</v>
+        <v>VQXC+WC Santa Rita, Chiapas</v>
       </c>
       <c r="N5" t="str">
-        <v>52</v>
-      </c>
-      <c r="O5" t="str" xml:space="preserve">
-        <v xml:space="preserve">Gran surtido de plantas y pasto de muy buena calidad,Tiene gran variedad de plantas, pero sus precios no son nada asequibles, inclusive precios triplicados en cuanto a precios en otros viveros...,Muchas plantas muy bonitas
-Para Sol y sombra y buenos precios
-Sí lo recomiendo.</v>
+        <v>4.2</v>
+      </c>
+      <c r="O5" t="str">
+        <v>46</v>
       </c>
       <c r="P5" t="str">
-        <v>https://lh5.googleusercontent.com/p/AF1QipNrN9F6dstJ2M3M7lFIyGQEZFWkNlnH0euKP8Hi=w426-h240-k-no</v>
+        <v>Si te gusta la naturaleza visítalo, si esperas muchas comodidades no es un sitio para ti. No hay señal, los baños están módicamente cómodos (si vas a la naturaleza no esperes lujos), hay área para acampar, muy limpio. Fuimos y nos tocó…,Buen lugar para descansar y rejarte un rato, sin embargo podría mejorar en muchos detalles, porque en época de lluvia es imposible disfrutar de la naturaleza, tener más sanitarios o en áreas más comunes.,Exelente lugar para ir con la familia y amigos. Podras acampar, explorar, senderismo, rappel, tirolesa, montar a caballo. Todo esto rodeo de magia y naturaleza respirando aire puro, fuera de la cantaminacion de la ciudad; puedes realozar…</v>
       </c>
       <c r="Q5" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipNrN9F6dstJ2M3M7lFIyGQEZFWkNlnH0euKP8Hi=w426-h240-k-no</v>
+        <v>https://lh5.googleusercontent.com/p/AF1QipNYYHKIZRIqOhYXADcr3o_zu4-ho3SpnynhRZrw=w408-h306-k-no</v>
       </c>
       <c r="R5" t="str">
-        <v>AF1QipNrN9F6dstJ2M3M7lFIyGQEZFWkNlnH0euKP8Hi=w426-h240-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipNYYHKIZRIqOhYXADcr3o_zu4-ho3SpnynhRZrw=w408-h306-k-no</v>
       </c>
       <c r="S5" t="str">
-        <v>Vivero_Santa_Fe_3</v>
+        <v>AF1QipNYYHKIZRIqOhYXADcr3o_zu4-ho3SpnynhRZrw=w408-h306-k-no</v>
       </c>
       <c r="T5" t="str">
-        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Santa_Fe_3.jpg</v>
+        <v>Parque_Ecoturistico_Tzimbac_3</v>
       </c>
       <c r="U5" t="str">
-        <v>ren "AF1QipNrN9F6dstJ2M3M7lFIyGQEZFWkNlnH0euKP8Hi=w426-h240-k-no" "Vivero_Santa_Fe_3.jpg"</v>
-      </c>
-      <c r="V5" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Sitio Ecoturístico que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Sitio Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="W5" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Sitio Ecoturístico que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Sitio Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="X5" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Vivero Santa Fe&lt;/b&gt;&lt;/h2&gt;
-                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Santa_Fe_3.jpg" alt="Vivero Santa Fe"&gt;   
-                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3645.059322127962!2d-104.68585949999999!3d23.993682200000002!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bc7de9a5a690f%3A0x1c9d03d9335b8bbd!2sVivero%20Santa%20Fe!5e0!3m2!1ses!2smx!4v1678923711731!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+        <v>Parque_Ecoturistico_Tzimbac_3.jpg</v>
+      </c>
+      <c r="V5" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Parque_Ecoturistico_Tzimbac_3.jpg</v>
+      </c>
+      <c r="W5" t="str">
+        <v>ren "AF1QipNYYHKIZRIqOhYXADcr3o_zu4-ho3SpnynhRZrw=w408-h306-k-no" "Parque_Ecoturistico_Tzimbac_3.jpg"</v>
+      </c>
+      <c r="X5" t="str">
+        <v>parques-ecoturismo-en-chiapas</v>
+      </c>
+      <c r="Y5" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en undefined? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parque natural que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parque ecoturístico que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en undefined durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los centro ecoturístico mejor calificados en undefined en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en undefined!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="Z5" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Centro de Ecoturismo Parque Ecoturistico Tzimbac&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Parque_Ecoturistico_Tzimbac_3.jpg" alt="Parque Ecoturistico Tzimbac"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3817.515055110652!2d-93.2289146!3d16.8998672!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ece790120fdba7%3A0xf3cf8d4d73cd7595!2sParque%20Ecoturistico%20Tzimbac!5e0!3m2!1ses!2smx!4v1679084173457!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
                         &lt;div&gt;&lt;/div&gt;
-                        &lt;p&gt;Bueno pues si eres de quienes ama estar en contacto con la naturaleza y andas por Tabasco, entonces no puedes perderte la experiencia de visitar el Parque Ecoturístico undefined. Con una calificación promedio de 4.4 estrellas de más de Gran surtido de plantas y pasto de muy buena calidad,Tiene gran variedad de plantas, pero sus precios no son nada asequibles, inclusive precios triplicados en cuanto a precios en otros viveros...,Muchas plantas muy bonitas
-Para Sol y sombra y buenos precios
-Sí lo recomiendo. visitantes, no tenemos duda de que se trata de un favorito de esta región. Así que nada...prepárate para sumergirte y disfrutar a tope de los paisajes naturales de Tabasco&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Sitio Ecoturístico "Vivero Santa Fe"? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;El Parque Ecológico se ubica enC. Victoria 106, Arroyo Seco, 34147 Durango, Dgo.. Para encontrar esta dirección, puedes usar un navegador como el waze o este &lt;a href='https://www.google.com.mx/maps/place/Vivero+Santa+Fe/@23.9936822,-104.6858595,17z/data=!3m1!4b1!4m6!3m5!1s0x869bc7de9a5a690f:0x1c9d03d9335b8bbd!8m2!3d23.9936822!4d-104.6858595!16s%2Fg%2F11b6jgmr3h?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Vivero Santa Fe&lt;/a&gt;&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Centro de Ecoturismo Vivero Santa Fe?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Vivero Santa Fe son: &lt;/p&gt;
-                            &lt;ul&gt;
-                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;618 120 0604&lt;/li&gt;
+                        &lt;p&gt;Entendemos que si estás aquí, es porque estás buscando un buen lugar en undefined para conectarte con la naturaleza y disfrutarla a tope. Y nada... que el parque ecoturístico undefined} es sin duda alguna una de tus mejores opciones para lograrlo. Este parque ecoturístico ha sido evaluada por más de undefined visitantes, que le otorgan en promedio una calificación de undefined estrellas, haciéndolo uno de los parques ecoturísticos más recomendados de undefined. Así que nada.. a pasar del pensamiento a la acción y a poner undefined en tu ruta de ecoturismo ¡pero ya!&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro Ecoturístico "Parque Ecoturistico Tzimbac"? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El centro ecoturístico se ubica enCarretera a Monterrey Km. 2.2, Villarreal, 29125 Chis.. Si necesitas ir a este sitio manejando puedes apoyarte poniendo la dirección en un navegador tipo waze o googleMaps o siguiendo directamente este &lt;a href='https://www.google.com/maps/place/Parque+Ecoturistico+Tzimbac/@16.8998672,-93.2289146,17z/data=!3m1!4b1!4m6!3m5!1s0x85ece790120fdba7:0xf3cf8d4d73cd7595!8m2!3d16.8998672!4d-93.2289146!16s%2Fg%2F12hm176_z?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico,Centro Ecoturístico,Parque Ecoturístico,Sitio Ecoturístico,Parque Ecológico,Parque Ecoturístico,Parque Natural,Parque Ecoturístico,Centro de Ecoturismo,Parque de Ecoturismo Parque Ecoturistico Tzimbac&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque de ecoturismo Parque Ecoturistico Tzimbac?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Parque Ecológico Parque Ecoturistico Tzimbac son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;961 286 8575&lt;/li&gt;
                                 &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
                             &lt;/ul&gt;
-                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Parque Ecoturístico Vivero Santa Fe?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los horarios oficiales del Parque Ecoturístico Vivero Santa Fe son los siguientes:&lt;/p&gt;                       
-                            &lt;ul&gt;
-                                &lt;li&gt;Lunes de 08:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Martes de 08:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Miércoles de 08:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Jueves de 08:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Viernes de 08:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Sábado de 08:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Domingo de 08:00 a 16:00&lt;/li&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Parque Ecoturistico Tzimbac?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del centro de ecoturismo Parque Ecoturistico Tzimbac son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
                             &lt;/ul&gt;
                             &lt;p&gt;Aunque cuentes ya con los horarios oficiales de apertura de este lugar, siempre te recomendamos que antes de ir eches un ojito a sus redes sociales y vías de contacto, para asegurarte de que no hayan tenido algún cambio logístico de última hora&lt;/p&gt;                 
                     </v>
       </c>
-      <c r="Y5" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Santa_Fe_3.jpg" alt="Vivero Santa Fe"&gt;                
+      <c r="AA5" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Parque_Ecoturistico_Tzimbac_3.jpg" alt="Parque Ecoturistico Tzimbac"&gt;                
                 </v>
       </c>
-      <c r="Z5" t="str">
+      <c r="AB5" t="str">
         <v>Añadir sitio web</v>
       </c>
     </row>
@@ -952,114 +958,115 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>Viveros Del Guadiana</v>
+        <v>Centro Ecoturístico "Sima de las Cotorras"</v>
       </c>
       <c r="C6" t="str">
-        <v>Viveros Del Guadiana</v>
+        <v>Centro Ecoturístico "sima De Las Cotorras"</v>
       </c>
       <c r="D6" t="str">
-        <v>viveros del guadiana</v>
+        <v>centro ecoturístico "sima de las cotorras"</v>
       </c>
       <c r="E6" t="str">
-        <v>Abasolo 609, Francisco González de la Vega, 34157 Durango, Dgo.</v>
+        <v>29149 Piedra Parada, Chis.</v>
       </c>
       <c r="F6" t="str">
-        <v>618 825 3855</v>
+        <v>968 106 4463</v>
       </c>
       <c r="G6" t="str">
-        <v>http://macetasvivero.com.mx/directorio-viveros/durango/</v>
+        <v>https://www.simadelascotorras.com/</v>
       </c>
       <c r="I6" t="str">
-        <v>Durango</v>
+        <v>Piedra Parada, Chiapas</v>
       </c>
       <c r="J6" t="str">
-        <v>https://www.google.com.mx/maps/place/Viveros+Del+Guadiana/@24.0106133,-104.6687241,17z/data=!3m1!4b1!4m6!3m5!1s0x869bc80512f9f577:0xa4030d2093a8b85e!8m2!3d24.0106133!4d-104.6687241!16s%2Fg%2F11b6jd0vv1?authuser=0&amp;hl=es</v>
+        <v>Chiapas</v>
       </c>
       <c r="K6" t="str">
-        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3644.5797372023844!2d-104.66872409999999!3d24.010613299999996!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bc80512f9f577%3A0xa4030d2093a8b85e!2sViveros%20Del%20Guadiana!5e0!3m2!1ses!2smx!4v1678923716199!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+        <v>https://www.google.com/maps/place/Centro+Ecotur%C3%ADstico+%22Sima+de+las+Cotorras%22/@16.8083966,-93.4736759,17z/data=!3m1!4b1!4m6!3m5!1s0x85ecbf0b9d0ffdc1:0x388447ba88b4684e!8m2!3d16.8083966!4d-93.4736759!16s%2Fg%2F11j7vs9xqx?authuser=0&amp;hl=es</v>
       </c>
       <c r="L6" t="str">
-        <v>286J+6G Durango</v>
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3819.361831435081!2d-93.47367589999999!3d16.8083966!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ecbf0b9d0ffdc1%3A0x388447ba88b4684e!2sCentro%20Ecotur%C3%ADstico%20%22Sima%20de%20las%20Cotorras%22!5e0!3m2!1ses!2smx!4v1679084177939!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
       </c>
       <c r="M6" t="str">
-        <v>5.0</v>
+        <v>RG5G+9G Piedra Parada, Chiapas</v>
       </c>
       <c r="N6" t="str">
-        <v>4</v>
-      </c>
-      <c r="O6" t="str" xml:space="preserve">
-        <v xml:space="preserve">Bastante variedad de plantas, se adaptan en cada temporada del año, ahora para fiestas de navideñas cuentan con variedad de noche buenas, además que también ofrecen el servicio de diseño y mantenimiento para jardines.…,Me gustó este lugar, tiene variedad de plantas 🌱 ahí encontré dos gardenias hermosas que ya florecieron y huelen muy bonito. La atención es excelente. Volveré por más plantas 🌹🌸
-🌱🌱…,Gran variedad de plantas y excelente atención.</v>
-      </c>
-      <c r="P6" t="str">
-        <v>https://lh5.googleusercontent.com/p/AF1QipMrQ-GksQ-38r7UjiSPgRrkAk_jvI98IIqdsliq=w426-h240-k-no</v>
+        <v>4.4</v>
+      </c>
+      <c r="O6" t="str">
+        <v>119</v>
+      </c>
+      <c r="P6" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Abren a las 7:00 am y muchas veces a esa hora los cotorros ya realizaron su ritual de partida.
+2. Parece ser que solo tienen un casco de talla grande y a huevo nos querían…,Un hermoso lugar natural. Rica comida aunque poco variado en el menú. Excelente guía, un poco caritas las atracciones pero vale la pena el tiempo invertido. Se les invita a ir a todos. El camino está bien pero podrían mejorarlo. (Ago.2020),El camino esta lleno de baches asi que lleva buen carro o ve despacio, muy panoramico y bonito, lleva agua, pan, camino hay un restaurante económico y varias tienditas, hay camara en la entrada asi que si no entra la llamada no te preocupes…</v>
       </c>
       <c r="Q6" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMrQ-GksQ-38r7UjiSPgRrkAk_jvI98IIqdsliq=w426-h240-k-no</v>
+        <v>https://lh5.googleusercontent.com/p/AF1QipPtD0Q3849PAieWhRtMBMYjLtzib-Nu8W8LZZaW=w408-h306-k-no</v>
       </c>
       <c r="R6" t="str">
-        <v>AF1QipMrQ-GksQ-38r7UjiSPgRrkAk_jvI98IIqdsliq=w426-h240-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPtD0Q3849PAieWhRtMBMYjLtzib-Nu8W8LZZaW=w408-h306-k-no</v>
       </c>
       <c r="S6" t="str">
-        <v>Viveros_Del_Guadiana_4</v>
+        <v>AF1QipPtD0Q3849PAieWhRtMBMYjLtzib-Nu8W8LZZaW=w408-h306-k-no</v>
       </c>
       <c r="T6" t="str">
-        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Viveros_Del_Guadiana_4.jpg</v>
+        <v>Centro_Ecoturístico_"Sima_de_las_Cotorras"_4</v>
       </c>
       <c r="U6" t="str">
-        <v>ren "AF1QipMrQ-GksQ-38r7UjiSPgRrkAk_jvI98IIqdsliq=w426-h240-k-no" "Viveros_Del_Guadiana_4.jpg"</v>
-      </c>
-      <c r="V6" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Ecológico que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Sitio Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Parque Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="W6" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Ecológico que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Sitio Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Parque Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="X6" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Viveros Del Guadiana&lt;/b&gt;&lt;/h2&gt;
-                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Viveros_Del_Guadiana_4.jpg" alt="Viveros Del Guadiana"&gt;   
-                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3644.5797372023844!2d-104.66872409999999!3d24.010613299999996!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bc80512f9f577%3A0xa4030d2093a8b85e!2sViveros%20Del%20Guadiana!5e0!3m2!1ses!2smx!4v1678923716199!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+        <v>Centro_Ecoturístico_"Sima_de_las_Cotorras"_4.jpg</v>
+      </c>
+      <c r="V6" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturístico_"Sima_de_las_Cotorras"_4.jpg</v>
+      </c>
+      <c r="W6" t="str">
+        <v>ren "AF1QipPtD0Q3849PAieWhRtMBMYjLtzib-Nu8W8LZZaW=w408-h306-k-no" "Centro_Ecoturístico_"Sima_de_las_Cotorras"_4.jpg"</v>
+      </c>
+      <c r="X6" t="str">
+        <v>parques-ecoturismo-en-chiapas</v>
+      </c>
+      <c r="Y6" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en undefined? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parque de ecoturismo que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parque ecoturístico que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en undefined durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los parque ecoturístico mejor calificados en undefined en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en undefined!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="Z6" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Centro Ecoturístico "sima De Las Cotorras"&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturístico_"Sima_de_las_Cotorras"_4.jpg" alt="Centro Ecoturístico "Sima de las Cotorras""&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3819.361831435081!2d-93.47367589999999!3d16.8083966!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ecbf0b9d0ffdc1%3A0x388447ba88b4684e!2sCentro%20Ecotur%C3%ADstico%20%22Sima%20de%20las%20Cotorras%22!5e0!3m2!1ses!2smx!4v1679084177939!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
                         &lt;div&gt;&lt;/div&gt;
-                        &lt;p&gt;El Parque Ecoturístico undefined es una opción fantástica para tener una aventura natural en Tabasco. Su calificación promedio es de 5.0 respaldada por más de 4visitantes, así que no tenemos duda de que este lugar pertenece a la lista de los Parque Ecoturístico mejor rankeados de Tabasco y que se trata de uno de los principales atractivos naturales en la región. Así que ya sabes... ¿ganas de naturaleza?... pues el Parque Ecoturístico undefined es una grandísima opción.&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro de Ecoturismo "Viveros Del Guadiana"? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;El Centro Ecoturístico se ubica enAbasolo 609, Francisco González de la Vega, 34157 Durango, Dgo.. Para ir a este parque, simplemente basta con colocar la dirección en una app de navegación o siguiendo este &lt;a href='https://www.google.com.mx/maps/place/Viveros+Del+Guadiana/@24.0106133,-104.6687241,17z/data=!3m1!4b1!4m6!3m5!1s0x869bc80512f9f577:0xa4030d2093a8b85e!8m2!3d24.0106133!4d-104.6687241!16s%2Fg%2F11b6jd0vv1?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Viveros Del Guadiana&lt;/a&gt;&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Parque Ecoturístico Viveros Del Guadiana?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los contactos disponibles del Centro Ecoturístico Viveros Del Guadiana son: &lt;/p&gt;
-                            &lt;ul&gt;
-                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;618 825 3855&lt;/li&gt;
-                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;&lt;a href="http://macetasvivero.com.mx/directorio-viveros/durango/"&gt;Web del place Viveros Del Guadiana&lt;/a&gt;&lt;/li&gt;                                
-                            &lt;/ul&gt;
-                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Parque Ecoturístico Viveros Del Guadiana?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los horarios oficiales del Parque Ecoturístico Viveros Del Guadiana son los siguientes:&lt;/p&gt;                       
-                            &lt;ul&gt;
-                                &lt;li&gt;Lunes de 09:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Martes de 09:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Miércoles de 09:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Jueves de 09:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Viernes de 09:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Sábado de 09:00 a 17:00&lt;/li&gt;
-                                &lt;li&gt;Domingo de 10:00 a 15:00&lt;/li&gt;
-                            &lt;/ul&gt;
-                            &lt;p&gt;Siempre es importante -aún si cuentas con estos horarios oficiales-, revisar en sus redes sociales y medios de contacto antes de ir. Así podrás asegurarte de que no hayan tenido ningún cambio de horario o logístico de último momento.&lt;/p&gt;                 
-                    </v>
-      </c>
-      <c r="Y6" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Viveros_Del_Guadiana_4.jpg" alt="Viveros Del Guadiana"&gt;                
+                        &lt;p&gt;¿Te gusta el ecoturismo o andas en undefined buscando algo de aventura natural? Entonces pon ya mismo en tu lista al parque ecoturístico undefined. Este es un lugar ideal para encontrarte con la naturaleza y disfrutar de paisajes lindos. Es un parque ecológico que ha sido evaluado por más de undefined personas y tiene un promedio de undefined estrellas de calificación. Aunque puede que haya algunos detallitos que es posible mejorar, la realidad es que undefined es un paso obligado si lo que estás buscando es ecoturismo y naturaleza en undefined&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro Ecoturístico "Centro Ecoturístico "sima De Las Cotorras""? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El parque ecoturístico se ubica en29149 Piedra Parada, Chis.. Para llegar a este parque, simplemente sigue las indicaciones de tu aplicación de navegación preferida o utiliza este link al &lt;a href='https://www.google.com/maps/place/Centro+Ecotur%C3%ADstico+%22Sima+de+las+Cotorras%22/@16.8083966,-93.4736759,17z/data=!3m1!4b1!4m6!3m5!1s0x85ecbf0b9d0ffdc1:0x388447ba88b4684e!8m2!3d16.8083966!4d-93.4736759!16s%2Fg%2F11j7vs9xqx?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico,Centro Ecoturístico,Parque Ecoturístico,Sitio Ecoturístico,Parque Ecológico,Parque Ecoturístico,Parque Natural,Parque Ecoturístico,Centro de Ecoturismo,Parque de Ecoturismo Centro Ecoturístico "sima De Las Cotorras"&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecológico Centro Ecoturístico "sima De Las Cotorras"?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Sitio Ecoturístico Centro Ecoturístico "sima De Las Cotorras" son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;968 106 4463&lt;/li&gt;
+                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;&lt;a href="https://www.simadelascotorras.com/"&gt;Web del place Centro Ecoturístico "Sima de las Cotorras"&lt;/a&gt;&lt;/li&gt;                                
+                            &lt;/ul&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque natural Centro Ecoturístico "sima De Las Cotorras"?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del sitio ecoturístico Centro Ecoturístico "sima De Las Cotorras" son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes de 06:00 a 16:30&lt;/li&gt;
+                                &lt;li&gt;Martes de 06:00 a 16:30&lt;/li&gt;
+                                &lt;li&gt;Miércoles de 06:00 a 16:30&lt;/li&gt;
+                                &lt;li&gt;Jueves de 06:00 a 16:30&lt;/li&gt;
+                                &lt;li&gt;Viernes de 06:00 a 16:30&lt;/li&gt;
+                                &lt;li&gt;Sábado de 06:00 a 16:30&lt;/li&gt;
+                                &lt;li&gt;Domingo de 06:00 a 16:30&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Aunque estos horarios sean oficialmente vigentes, nunca está de más que antes de lanzarte, revises en sus redes sociales o contactos digitales que no haya habido ningún cambio logístico extraordinario en sus horarios de apertura y cierre.&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="AA6" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturístico_"Sima_de_las_Cotorras"_4.jpg" alt="Centro Ecoturístico "Sima de las Cotorras""&gt;                
                 </v>
       </c>
-      <c r="Z6" t="str">
+      <c r="AB6" t="str">
         <v/>
       </c>
     </row>
@@ -1068,114 +1075,115 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>Vivero Las Palmas De Veracruz</v>
+        <v>Centro Ecoturístico Las Nubes</v>
       </c>
       <c r="C7" t="str">
-        <v>Vivero Las Palmas De Veracruz</v>
+        <v>Centro Ecoturístico Las Nubes</v>
       </c>
       <c r="D7" t="str">
-        <v>vivero las palmas de veracruz</v>
+        <v>centro ecoturístico las nubes</v>
       </c>
       <c r="E7" t="str">
-        <v>Calle Cto. Interior 208, Residencial Santa Teresa, 34166 Durango, Dgo.</v>
+        <v>Ejido Las Nubes S/N, Las Nubes, 30180 Chis.</v>
       </c>
       <c r="F7" t="str">
-        <v>675 113 9208</v>
+        <v>+502 4972 0204</v>
       </c>
       <c r="G7" t="str">
-        <v>Web no disponible</v>
+        <v>http://www.lasnubeschiapas.com/</v>
       </c>
       <c r="I7" t="str">
-        <v>Durango</v>
+        <v>Gallo Giro, Chiapas</v>
       </c>
       <c r="J7" t="str">
-        <v>https://www.google.com.mx/maps/place/Vivero+Las+Palmas+De+Veracruz/@24.0040886,-104.6488795,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb7f86bc35165:0x2c2ed3acd58201b2!8m2!3d24.0040886!4d-104.6488795!16s%2Fg%2F11b6j9p3hk?authuser=0&amp;hl=es</v>
+        <v>Chiapas</v>
       </c>
       <c r="K7" t="str">
-        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3644.7645914614886!2d-104.64887949999999!3d24.0040886!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb7f86bc35165%3A0x2c2ed3acd58201b2!2sVivero%20Las%20Palmas%20De%20Veracruz!5e0!3m2!1ses!2smx!4v1678923720626!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+        <v>https://www.google.com/maps/place/Centro+Ecotur%C3%ADstico+Las+Nubes/@16.1981879,-91.3302479,17z/data=!3m1!4b1!4m9!3m8!1s0x858ca2fdb0854683:0x3544133427ae03e9!5m2!4m1!1i2!8m2!3d16.1981879!4d-91.3302479!16s%2Fg%2F11c70hlp_j?authuser=0&amp;hl=es</v>
       </c>
       <c r="L7" t="str">
-        <v>2932+JC Durango</v>
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3831.4325429987057!2d-91.3302479!3d16.1981879!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x858ca2fdb0854683%3A0x3544133427ae03e9!2sCentro%20Ecotur%C3%ADstico%20Las%20Nubes!5e0!3m2!1ses!2smx!4v1679084182761!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
       </c>
       <c r="M7" t="str">
-        <v>4.6</v>
+        <v>5MX9+7W Gallo Giro, Chiapas</v>
       </c>
       <c r="N7" t="str">
-        <v>65</v>
+        <v>0.0</v>
       </c>
       <c r="O7" t="str">
-        <v>En este vivero hay una gran variedad de plantas, flores 🥀, tierra, árboles etc. A muy buenos precios y una excelente atención lo recomiendo…,Muy amables, la señora que atiende es muy amable, te explica sobre las plantas, sólo que llega mucha gente y la abordan todos juntos, pero ella es muy linda y amable, además de que sus plantas super bonitas y muy cuidaditas.,Buen inventario de plantas y serviciales</v>
+        <v>0</v>
       </c>
       <c r="P7" t="str">
-        <v>https://lh3.googleusercontent.com/gps-proxy/ALm4wwlpSTe92xrqVRueAGDNlclWGejx_L7uksNi0vtMFcgc0iY-WuI2ZDEDtBU3haDpPOvxfNTNp3Vy9WBkBrO50SZ3-6LluOKUCPNzIG5Brty-JRRzDrpzyHIZQygaj7ssDdAuDDJY9Qh59Wn4LphayGrDyD-EG9j7srsX47Ywnx0nLMx2HadcFkGSwHE1U0irABKF-Og=w408-h726-k-no</v>
+        <v>no hay opiniones</v>
       </c>
       <c r="Q7" t="str">
-        <v>wget --no-check-certificate https://lh3.googleusercontent.com/gps-proxy/ALm4wwlpSTe92xrqVRueAGDNlclWGejx_L7uksNi0vtMFcgc0iY-WuI2ZDEDtBU3haDpPOvxfNTNp3Vy9WBkBrO50SZ3-6LluOKUCPNzIG5Brty-JRRzDrpzyHIZQygaj7ssDdAuDDJY9Qh59Wn4LphayGrDyD-EG9j7srsX47Ywnx0nLMx2HadcFkGSwHE1U0irABKF-Og=w408-h726-k-no</v>
+        <v>https://lh5.googleusercontent.com/p/AF1QipP-1dzZubqGLa5gUqJ4DAqQhqh1bQoNCYjA2epF=w408-h272-k-no</v>
       </c>
       <c r="R7" t="str">
-        <v>ALm4wwlpSTe92xrqVRueAGDNlclWGejx_L7uksNi0vtMFcgc0iY-WuI2ZDEDtBU3haDpPOvxfNTNp3Vy9WBkBrO50SZ3-6LluOKUCPNzIG5Brty-JRRzDrpzyHIZQygaj7ssDdAuDDJY9Qh59Wn4LphayGrDyD-EG9j7srsX47Ywnx0nLMx2HadcFkGSwHE1U0irABKF-Og=w408-h726-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipP-1dzZubqGLa5gUqJ4DAqQhqh1bQoNCYjA2epF=w408-h272-k-no</v>
       </c>
       <c r="S7" t="str">
-        <v>Vivero_Las_Palmas_De_Veracruz_5</v>
+        <v>AF1QipP-1dzZubqGLa5gUqJ4DAqQhqh1bQoNCYjA2epF=w408-h272-k-no</v>
       </c>
       <c r="T7" t="str">
-        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Las_Palmas_De_Veracruz_5.jpg</v>
+        <v>Centro_Ecoturístico_Las_Nubes_5</v>
       </c>
       <c r="U7" t="str">
-        <v>ren "ALm4wwlpSTe92xrqVRueAGDNlclWGejx_L7uksNi0vtMFcgc0iY-WuI2ZDEDtBU3haDpPOvxfNTNp3Vy9WBkBrO50SZ3-6LluOKUCPNzIG5Brty-JRRzDrpzyHIZQygaj7ssDdAuDDJY9Qh59Wn4LphayGrDyD-EG9j7srsX47Ywnx0nLMx2HadcFkGSwHE1U0irABKF-Og=w408-h726-k-no" "Vivero_Las_Palmas_De_Veracruz_5.jpg"</v>
-      </c>
-      <c r="V7" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque de Ecoturismo que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecológico que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Parque Natural mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="W7" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque de Ecoturismo que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecológico que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Parque Natural mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="X7" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Vivero Las Palmas De Veracruz&lt;/b&gt;&lt;/h2&gt;
-                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Las_Palmas_De_Veracruz_5.jpg" alt="Vivero Las Palmas De Veracruz"&gt;   
-                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3644.7645914614886!2d-104.64887949999999!3d24.0040886!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb7f86bc35165%3A0x2c2ed3acd58201b2!2sVivero%20Las%20Palmas%20De%20Veracruz!5e0!3m2!1ses!2smx!4v1678923720626!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+        <v>Centro_Ecoturístico_Las_Nubes_5.jpg</v>
+      </c>
+      <c r="V7" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturístico_Las_Nubes_5.jpg</v>
+      </c>
+      <c r="W7" t="str">
+        <v>ren "AF1QipP-1dzZubqGLa5gUqJ4DAqQhqh1bQoNCYjA2epF=w408-h272-k-no" "Centro_Ecoturístico_Las_Nubes_5.jpg"</v>
+      </c>
+      <c r="X7" t="str">
+        <v>parques-ecoturismo-en-chiapas</v>
+      </c>
+      <c r="Y7" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en undefined? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  sitio ecoturístico que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parque natural que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en undefined durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los centro ecoturístico mejor calificados en undefined en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en undefined!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="Z7" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Centro Ecoturístico Las Nubes&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturístico_Las_Nubes_5.jpg" alt="Centro Ecoturístico Las Nubes"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3831.4325429987057!2d-91.3302479!3d16.1981879!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x858ca2fdb0854683%3A0x3544133427ae03e9!2sCentro%20Ecotur%C3%ADstico%20Las%20Nubes!5e0!3m2!1ses!2smx!4v1679084182761!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
                         &lt;div&gt;&lt;/div&gt;
-                        &lt;p&gt;Bueno pues si eres de quienes ama estar en contacto con la naturaleza y andas por Tabasco, entonces no puedes perderte la experiencia de visitar el Parque Ecoturístico undefined. Con una calificación promedio de 4.6 estrellas de más de En este vivero hay una gran variedad de plantas, flores 🥀, tierra, árboles etc. A muy buenos precios y una excelente atención lo recomiendo…,Muy amables, la señora que atiende es muy amable, te explica sobre las plantas, sólo que llega mucha gente y la abordan todos juntos, pero ella es muy linda y amable, además de que sus plantas super bonitas y muy cuidaditas.,Buen inventario de plantas y serviciales visitantes, no tenemos duda de que se trata de un favorito de esta región. Así que nada...prepárate para sumergirte y disfrutar a tope de los paisajes naturales de Tabasco&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecológico "Vivero Las Palmas De Veracruz"? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;El Parque Ecoturístico se ubica enCalle Cto. Interior 208, Residencial Santa Teresa, 34166 Durango, Dgo.. Podrás llegar manejando sin ningún problema, símplemente usa la dirección en una app como waze o googleMaps, o usa este enlace al &lt;a href='https://www.google.com.mx/maps/place/Vivero+Las+Palmas+De+Veracruz/@24.0040886,-104.6488795,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb7f86bc35165:0x2c2ed3acd58201b2!8m2!3d24.0040886!4d-104.6488795!16s%2Fg%2F11b6j9p3hk?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Vivero Las Palmas De Veracruz&lt;/a&gt;&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Parque Natural Vivero Las Palmas De Veracruz?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los contactos disponibles del Sitio Ecoturístico Vivero Las Palmas De Veracruz son: &lt;/p&gt;
-                            &lt;ul&gt;
-                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;675 113 9208&lt;/li&gt;
-                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
-                            &lt;/ul&gt;
-                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Centro de Ecoturismo Vivero Las Palmas De Veracruz?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los horarios oficiales del Sitio Ecoturístico Vivero Las Palmas De Veracruz son los siguientes:&lt;/p&gt;                       
-                            &lt;ul&gt;
-                                &lt;li&gt;Lunes de 09:00 a 20:00&lt;/li&gt;
-                                &lt;li&gt;Martes de 09:00 a 20:00&lt;/li&gt;
-                                &lt;li&gt;Miércoles de 09:00 a 20:00&lt;/li&gt;
-                                &lt;li&gt;Jueves de 09:00 a 20:00&lt;/li&gt;
-                                &lt;li&gt;Viernes de 09:00 a 20:00&lt;/li&gt;
-                                &lt;li&gt;Sábado de 09:00 a 20:00&lt;/li&gt;
-                                &lt;li&gt;Domingo de 09:00 a 16:00&lt;/li&gt;
-                            &lt;/ul&gt;
-                            &lt;p&gt;Aunque cuentes ya con los horarios oficiales de apertura de este lugar, siempre te recomendamos que antes de ir eches un ojito a sus redes sociales y vías de contacto, para asegurarte de que no hayan tenido algún cambio logístico de última hora&lt;/p&gt;                 
-                    </v>
-      </c>
-      <c r="Y7" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Las_Palmas_De_Veracruz_5.jpg" alt="Vivero Las Palmas De Veracruz"&gt;                
+                        &lt;p&gt;Si andas en búsca de experiencias únicas en la naturaleza, entonces el centro de ecoturismo undefined en undefined tiene que ser parte de tu lista. Este es un centro de ecoturismo con más de undefined opiniones de visitantes y que ha sido de manera consistente calificado con hasta undefined estrellas, es por eso que aunque pueda tener algunas áreas de mejora, es sin duda uno de los mejores lugares para disfrutar de la naturaleza en la región. Así que no lo pienses mucho más y ¡a visitar undefined!&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Centro Ecoturístico Las Nubes"? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El parque de ecoturismo se ubica enEjido Las Nubes S/N, Las Nubes, 30180 Chis.. Para encontrar esta dirección, puedes apoyarte en tu app de navegación favorita o irte directo a la navegación de googleMaps por medio de este &lt;a href='https://www.google.com/maps/place/Centro+Ecotur%C3%ADstico+Las+Nubes/@16.1981879,-91.3302479,17z/data=!3m1!4b1!4m9!3m8!1s0x858ca2fdb0854683:0x3544133427ae03e9!5m2!4m1!1i2!8m2!3d16.1981879!4d-91.3302479!16s%2Fg%2F11c70hlp_j?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico,Centro Ecoturístico,Parque Ecoturístico,Sitio Ecoturístico,Parque Ecológico,Parque Ecoturístico,Parque Natural,Parque Ecoturístico,Centro de Ecoturismo,Parque de Ecoturismo Centro Ecoturístico Las Nubes&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecológico Centro Ecoturístico Las Nubes?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Parque Natural Centro Ecoturístico Las Nubes son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;+502 4972 0204&lt;/li&gt;
+                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;&lt;a href="http://www.lasnubeschiapas.com/"&gt;Web del place Centro Ecoturístico Las Nubes&lt;/a&gt;&lt;/li&gt;                                
+                            &lt;/ul&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque de ecoturismo Centro Ecoturístico Las Nubes?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del centro de ecoturismo Centro Ecoturístico Las Nubes son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Es importante verificar sus redes sociales o contactos digitales antes de ir, porque independientemente de estos horarios oficiales, siempre pueden existir cambios de último momento por situaciones extraordinarias de clima, temporada vacacional y demás&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="AA7" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturístico_Las_Nubes_5.jpg" alt="Centro Ecoturístico Las Nubes"&gt;                
                 </v>
       </c>
-      <c r="Z7" t="str">
-        <v>Añadir sitio web</v>
+      <c r="AB7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8" xml:space="preserve">
@@ -1183,114 +1191,115 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>Vivero Santos</v>
+        <v>Centro Ecoturístico Sierra Morena</v>
       </c>
       <c r="C8" t="str">
-        <v>Vivero Santos</v>
+        <v>Centro Ecoturístico Sierra Morena</v>
       </c>
       <c r="D8" t="str">
-        <v>vivero santos</v>
+        <v>centro ecoturístico sierra morena</v>
       </c>
       <c r="E8" t="str">
-        <v>Blvd. Luis Donaldo Colosio M. 109, La Forestal, 34217 Durango, Dgo.</v>
+        <v>30528 Chis.</v>
       </c>
       <c r="F8" t="str">
-        <v>618 107 2833</v>
+        <v>55 5150 1455</v>
       </c>
       <c r="G8" t="str">
-        <v>Web no disponible</v>
+        <v>http://www.turismochiapas.gob.mx/st/centro-turstico-sierra-morena</v>
       </c>
       <c r="I8" t="str">
-        <v>Durango</v>
+        <v>Sierra Morena, Chiapas</v>
       </c>
       <c r="J8" t="str">
-        <v>https://www.google.com.mx/maps/place/Vivero+Santos/@24.0385842,-104.657476,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb7d6349387f9:0x5f5970606c2c7ea8!8m2!3d24.0385842!4d-104.657476!16s%2Fg%2F11b6hvymy7?authuser=0&amp;hl=es</v>
+        <v>Chiapas</v>
       </c>
       <c r="K8" t="str">
-        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3643.7867452724445!2d-104.65747599999999!3d24.0385842!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb7d6349387f9%3A0x5f5970606c2c7ea8!2sVivero%20Santos!5e0!3m2!1ses!2smx!4v1678923724694!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+        <v>https://www.google.com/maps/place/Centro+Ecotur%C3%ADstico+Sierra+Morena/@16.152356,-93.58821,17z/data=!3m1!4b1!4m6!3m5!1s0x85935dbd8abbbe97:0x62080ae2becbabd3!8m2!3d16.152356!4d-93.58821!16s%2Fg%2F11lh671q82?authuser=0&amp;hl=es</v>
       </c>
       <c r="L8" t="str">
-        <v>28QV+C2 Durango</v>
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3832.321627458914!2d-93.58820999999999!3d16.152355999999997!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85935dbd8abbbe97%3A0x62080ae2becbabd3!2sCentro%20Ecotur%C3%ADstico%20Sierra%20Morena!5e0!3m2!1ses!2smx!4v1679084187148!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
       </c>
       <c r="M8" t="str">
-        <v>4.6</v>
+        <v>5C26+WP Sierra Morena, Chiapas</v>
       </c>
       <c r="N8" t="str">
-        <v>15</v>
+        <v>4.9</v>
       </c>
       <c r="O8" t="str">
-        <v>Mucho surtido excelente atención.  Bastante ayuda con la asesoría gratuita que me Proporcionaron.  en verdad te ayudan a hacer realidad tu proyecto de remodelación  de jardín.,Es un lugar muy lindo y el sr muy amable llama uno y le da informes,tienen muchas suculentas y cactus a buen precio</v>
+        <v>8</v>
       </c>
       <c r="P8" t="str">
-        <v>https://lh3.googleusercontent.com/gps-proxy/ALm4wwmluxnT4-3hTFMt5HW8tx4xXizFxuIooCm8vczVKYZHfbZQVrVlyK3A1YaDdDYJUVCXHzmI1rjkcNJAENjWiERPQ2glKQJAS6gcv7oixSR6XQLTo4mTEYcaINYgidWGZUsQ7ag_zot_oa4aILES0PJ6I7CltY4jp2yJ_KCSlhK3Fmca3F7C8Xy_hTbTgcdxbSF2_C4=w427-h240-k-no</v>
+        <v>Es hermoso! Les recomiendo mucho que vayan, increíble fauna y flora,Una experiencia maravillosa con la naturaleza, un lugar fenomenal!!!,Muy hermoso lugar . Se respira aire puro y rodeado de vegetación y ríos. El único problema es su acceso , su camino para llegar está en muy malas condiciones. Cómo que por ahí le está faltando al presidente mpal de villacorzo y el comisariado ejidal de la comunidad.</v>
       </c>
       <c r="Q8" t="str">
-        <v>wget --no-check-certificate https://lh3.googleusercontent.com/gps-proxy/ALm4wwmluxnT4-3hTFMt5HW8tx4xXizFxuIooCm8vczVKYZHfbZQVrVlyK3A1YaDdDYJUVCXHzmI1rjkcNJAENjWiERPQ2glKQJAS6gcv7oixSR6XQLTo4mTEYcaINYgidWGZUsQ7ag_zot_oa4aILES0PJ6I7CltY4jp2yJ_KCSlhK3Fmca3F7C8Xy_hTbTgcdxbSF2_C4=w427-h240-k-no</v>
+        <v>https://lh5.googleusercontent.com/p/AF1QipONo7XlCYn-e3Gb8qhIDvp5DJQKqJXmGXWF48sx=w408-h544-k-no</v>
       </c>
       <c r="R8" t="str">
-        <v>ALm4wwmluxnT4-3hTFMt5HW8tx4xXizFxuIooCm8vczVKYZHfbZQVrVlyK3A1YaDdDYJUVCXHzmI1rjkcNJAENjWiERPQ2glKQJAS6gcv7oixSR6XQLTo4mTEYcaINYgidWGZUsQ7ag_zot_oa4aILES0PJ6I7CltY4jp2yJ_KCSlhK3Fmca3F7C8Xy_hTbTgcdxbSF2_C4=w427-h240-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipONo7XlCYn-e3Gb8qhIDvp5DJQKqJXmGXWF48sx=w408-h544-k-no</v>
       </c>
       <c r="S8" t="str">
-        <v>Vivero_Santos_6</v>
+        <v>AF1QipONo7XlCYn-e3Gb8qhIDvp5DJQKqJXmGXWF48sx=w408-h544-k-no</v>
       </c>
       <c r="T8" t="str">
-        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Santos_6.jpg</v>
+        <v>Centro_Ecoturístico_Sierra_Morena_6</v>
       </c>
       <c r="U8" t="str">
-        <v>ren "ALm4wwmluxnT4-3hTFMt5HW8tx4xXizFxuIooCm8vczVKYZHfbZQVrVlyK3A1YaDdDYJUVCXHzmI1rjkcNJAENjWiERPQ2glKQJAS6gcv7oixSR6XQLTo4mTEYcaINYgidWGZUsQ7ag_zot_oa4aILES0PJ6I7CltY4jp2yJ_KCSlhK3Fmca3F7C8Xy_hTbTgcdxbSF2_C4=w427-h240-k-no" "Vivero_Santos_6.jpg"</v>
-      </c>
-      <c r="V8" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Natural que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecológico que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Parque Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="W8" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Natural que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecológico que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Parque Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="X8" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Vivero Santos&lt;/b&gt;&lt;/h2&gt;
-                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Santos_6.jpg" alt="Vivero Santos"&gt;   
-                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3643.7867452724445!2d-104.65747599999999!3d24.0385842!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb7d6349387f9%3A0x5f5970606c2c7ea8!2sVivero%20Santos!5e0!3m2!1ses!2smx!4v1678923724694!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+        <v>Centro_Ecoturístico_Sierra_Morena_6.jpg</v>
+      </c>
+      <c r="V8" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturístico_Sierra_Morena_6.jpg</v>
+      </c>
+      <c r="W8" t="str">
+        <v>ren "AF1QipONo7XlCYn-e3Gb8qhIDvp5DJQKqJXmGXWF48sx=w408-h544-k-no" "Centro_Ecoturístico_Sierra_Morena_6.jpg"</v>
+      </c>
+      <c r="X8" t="str">
+        <v>parques-ecoturismo-en-chiapas</v>
+      </c>
+      <c r="Y8" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en undefined? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parque natural que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parque ecológico que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en undefined durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los parque de ecoturismo mejor calificados en undefined en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en undefined!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="Z8" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Centro Ecoturístico Centro Ecoturístico Sierra Morena&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturístico_Sierra_Morena_6.jpg" alt="Centro Ecoturístico Sierra Morena"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3832.321627458914!2d-93.58820999999999!3d16.152355999999997!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85935dbd8abbbe97%3A0x62080ae2becbabd3!2sCentro%20Ecotur%C3%ADstico%20Sierra%20Morena!5e0!3m2!1ses!2smx!4v1679084187148!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
                         &lt;div&gt;&lt;/div&gt;
-                        &lt;p&gt;Este Parque Ecoturístico tiene 4.6 de calificación promedio, a partir de las más de 15 opiniones de sus visitantes... ¿nada mal no?. Es por eso que es parte de esta lista de los Parque Ecoturístico mejor calificados de Tabasco. Con este respaldo estamos más que seguras(os) que se trata  de un sitio que vas a disfrutar al Máximo. Así que ya sabes, si lo que buscas es naturaleza, el Parque Ecoturístico undefineden Tabasco, es sin duda una gran opción&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Vivero Santos"? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;El Parque Ecoturístico se ubica enBlvd. Luis Donaldo Colosio M. 109, La Forestal, 34217 Durango, Dgo.. Para llegar, puedes símplemente colocar esta dirección en el googleMaps o Waze o apoyarte en este &lt;a href='https://www.google.com.mx/maps/place/Vivero+Santos/@24.0385842,-104.657476,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb7d6349387f9:0x5f5970606c2c7ea8!8m2!3d24.0385842!4d-104.657476!16s%2Fg%2F11b6hvymy7?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Vivero Santos&lt;/a&gt;&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Parque Ecológico Vivero Santos?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Vivero Santos son: &lt;/p&gt;
-                            &lt;ul&gt;
-                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;618 107 2833&lt;/li&gt;
-                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
-                            &lt;/ul&gt;
-                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Parque Ecoturístico Vivero Santos?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los horarios oficiales del Centro de Ecoturismo Vivero Santos son los siguientes:&lt;/p&gt;                       
-                            &lt;ul&gt;
-                                &lt;li&gt;Lunes de 09:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Martes de 09:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Miércoles de 09:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Jueves de 09:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Viernes de 09:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Sábado de 09:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Domingo de 09:00 a 19:00&lt;/li&gt;
-                            &lt;/ul&gt;
-                            &lt;p&gt;A pesar de contar con horarios oficiales, te recomendamos siempre visitar sus sitios de contacto y redes oficiales antes de ir al lugar, así podrás identificar cualquier cambio extraordinario que hayan tenido.&lt;/p&gt;                 
-                    </v>
-      </c>
-      <c r="Y8" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Santos_6.jpg" alt="Vivero Santos"&gt;                
+                        &lt;p&gt;Si eres de los que disfrutan de los paisajes naturales, entonces tienes que visitar el parque ecológico undefined en undefined. Con más de undefined opiniones de visitantes y una calificación promedio de undefined estrellas, este lugar es uno de los más valorados en la región&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Centro Ecoturístico Sierra Morena"? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El centro ecoturístico se ubica en30528 Chis.. Para encontrar esta dirección, puedes apoyarte en tu app de navegación favorita o irte directo a la navegación de googleMaps por medio de este &lt;a href='https://www.google.com/maps/place/Centro+Ecotur%C3%ADstico+Sierra+Morena/@16.152356,-93.58821,17z/data=!3m1!4b1!4m6!3m5!1s0x85935dbd8abbbe97:0x62080ae2becbabd3!8m2!3d16.152356!4d-93.58821!16s%2Fg%2F11lh671q82?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico,Centro Ecoturístico,Parque Ecoturístico,Sitio Ecoturístico,Parque Ecológico,Parque Ecoturístico,Parque Natural,Parque Ecoturístico,Centro de Ecoturismo,Parque de Ecoturismo Centro Ecoturístico Sierra Morena&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecológico Centro Ecoturístico Sierra Morena?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Parque Natural Centro Ecoturístico Sierra Morena son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;55 5150 1455&lt;/li&gt;
+                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;&lt;a href="http://www.turismochiapas.gob.mx/st/centro-turstico-sierra-morena"&gt;Web del place Centro Ecoturístico Sierra Morena&lt;/a&gt;&lt;/li&gt;                                
+                            &lt;/ul&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Centro Ecoturístico Sierra Morena?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del parque natural Centro Ecoturístico Sierra Morena son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Es importante verificar sus redes sociales o contactos digitales antes de ir, porque independientemente de estos horarios oficiales, siempre pueden existir cambios de último momento por situaciones extraordinarias de clima, temporada vacacional y demás&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="AA8" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturístico_Sierra_Morena_6.jpg" alt="Centro Ecoturístico Sierra Morena"&gt;                
                 </v>
       </c>
-      <c r="Z8" t="str">
-        <v>Añadir sitio web</v>
+      <c r="AB8" t="str">
+        <v>Añadir horario</v>
       </c>
     </row>
     <row r="9" xml:space="preserve">
@@ -1298,16 +1307,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>Vivero Las Nubes</v>
+        <v>El Arcotete</v>
       </c>
       <c r="C9" t="str">
-        <v>Vivero Las Nubes</v>
+        <v>El Arcotete</v>
       </c>
       <c r="D9" t="str">
-        <v>vivero las nubes</v>
+        <v>el arcotete</v>
       </c>
       <c r="E9" t="str">
-        <v>Av Fidel Velázquez Sánchez, Nuevo Pedregal, Las Nubes, 34224 Durango, Dgo.</v>
+        <v>Carretera Rumbo aTenejapa km 8 Ejido Río, Del Arcotete N, Rìo Arcotete, 29200 San Cristóbal de las Casas, Chis.</v>
       </c>
       <c r="F9" t="str">
         <v>No cuenta con teléfono</v>
@@ -1316,95 +1325,96 @@
         <v>Web no disponible</v>
       </c>
       <c r="I9" t="str">
-        <v>Durango</v>
+        <v>San Cristóbal de las Casas, Chiapas</v>
       </c>
       <c r="J9" t="str">
-        <v>https://www.google.com.mx/maps/place/Vivero+Las+Nubes/@24.052367,-104.595552,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb71dcf83f9bb:0x30182ba89df601ac!8m2!3d24.052367!4d-104.595552!16s%2Fg%2F11b6h_sf8h?authuser=0&amp;hl=es</v>
+        <v>Chiapas</v>
       </c>
       <c r="K9" t="str">
-        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3643.395675164008!2d-104.595552!3d24.052367!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb71dcf83f9bb%3A0x30182ba89df601ac!2sVivero%20Las%20Nubes!5e0!3m2!1ses!2smx!4v1678923728659!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+        <v>https://www.google.com/maps/place/El+Arcotete/@16.7259686,-92.5843287,17z/data=!3m1!4b1!4m6!3m5!1s0x85ed5a56fe71d65b:0x175c16785c67943b!8m2!3d16.7259686!4d-92.5843287!16s%2Fg%2F1pyqp432s?authuser=0&amp;hl=es</v>
       </c>
       <c r="L9" t="str">
-        <v>3C23+WQ Durango</v>
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3821.017700820962!2d-92.5843287!3d16.725968599999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ed5a56fe71d65b%3A0x175c16785c67943b!2sEl%20Arcotete!5e0!3m2!1ses!2smx!4v1679084191732!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
       </c>
       <c r="M9" t="str">
-        <v>4.4</v>
+        <v>PCG8+97 San Cristóbal de las Casas, Chiapas</v>
       </c>
       <c r="N9" t="str">
-        <v>117</v>
+        <v>4.7</v>
       </c>
       <c r="O9" t="str">
-        <v>Gran vivero con muchas opciones hermosas de plantas a un buen precio, trato muy amable. Abren los domingos y eso también es una gran ventaja ya que es cuando mucha gente tiene tiempo libre y busca opciones para decorar su hogar. ¡Recomendado!,Siempre tiene plantas muy bonitas. Más el viernes en la tarde, excelente trato y te dan tips,Tienen una excelente variedad de plantas y el señor que atendió sabe mucho de plantas.</v>
+        <v>2.307</v>
       </c>
       <c r="P9" t="str">
-        <v>https://lh3.googleusercontent.com/gps-proxy/ALm4wwkZGuxyTtc6aVYPu0QeotjigUHGHPuQEBqbecHgRd_zG1gG7pyf6CPWbvH6jYLcF5500LRWlj62SqazeK-JbNXdgkSULdXS4ZZI7ZVk3OkLp_fpkztQ9wU0HoF1TyGQ2IZUYhFNrIlBhADwT_gyvvY6SuMbuc9J6MrH2fYBPZw9HOpDQraGTDvMt6Dx18W2amSWVg=w408-h726-k-no</v>
+        <v>Los escenarios que estas grutas te presentarán son excelentes para que tus recuerdos luzcan de manera impresionante. Sin duda alguna encontrarás muchos recovecos donde tomar tus fotografías y a la vez donde quedar impresionado con la…,Es un parque que está en medio del bosque, puedes vivir la experiencia de entrar a una gruta natural la cual es pequeña, pero es bonita e interesante. Además puedes disfrutar de una agradable caminata a lado del arrolló, en lo personal es…,Un lugar súper tranquilo y hermoso! La gruta está muy preciosa! ❤️🍃✨ La entrada es barata y la comida tiene un precio regular y es muy buena, la mejor es que está reserva natural está a 20 mn de San Cristóbal. Las fotografías no le hacen justicia a la belleza del lugar.…</v>
       </c>
       <c r="Q9" t="str">
-        <v>wget --no-check-certificate https://lh3.googleusercontent.com/gps-proxy/ALm4wwkZGuxyTtc6aVYPu0QeotjigUHGHPuQEBqbecHgRd_zG1gG7pyf6CPWbvH6jYLcF5500LRWlj62SqazeK-JbNXdgkSULdXS4ZZI7ZVk3OkLp_fpkztQ9wU0HoF1TyGQ2IZUYhFNrIlBhADwT_gyvvY6SuMbuc9J6MrH2fYBPZw9HOpDQraGTDvMt6Dx18W2amSWVg=w408-h726-k-no</v>
+        <v>https://lh5.googleusercontent.com/p/AF1QipO308vC9Ee_T7FQEoWnHY-Q9auyDyZBeZuK5ilR=w408-h271-k-no</v>
       </c>
       <c r="R9" t="str">
-        <v>ALm4wwkZGuxyTtc6aVYPu0QeotjigUHGHPuQEBqbecHgRd_zG1gG7pyf6CPWbvH6jYLcF5500LRWlj62SqazeK-JbNXdgkSULdXS4ZZI7ZVk3OkLp_fpkztQ9wU0HoF1TyGQ2IZUYhFNrIlBhADwT_gyvvY6SuMbuc9J6MrH2fYBPZw9HOpDQraGTDvMt6Dx18W2amSWVg=w408-h726-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipO308vC9Ee_T7FQEoWnHY-Q9auyDyZBeZuK5ilR=w408-h271-k-no</v>
       </c>
       <c r="S9" t="str">
-        <v>Vivero_Las_Nubes_7</v>
+        <v>AF1QipO308vC9Ee_T7FQEoWnHY-Q9auyDyZBeZuK5ilR=w408-h271-k-no</v>
       </c>
       <c r="T9" t="str">
-        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Las_Nubes_7.jpg</v>
+        <v>El_Arcotete_7</v>
       </c>
       <c r="U9" t="str">
-        <v>ren "ALm4wwkZGuxyTtc6aVYPu0QeotjigUHGHPuQEBqbecHgRd_zG1gG7pyf6CPWbvH6jYLcF5500LRWlj62SqazeK-JbNXdgkSULdXS4ZZI7ZVk3OkLp_fpkztQ9wU0HoF1TyGQ2IZUYhFNrIlBhADwT_gyvvY6SuMbuc9J6MrH2fYBPZw9HOpDQraGTDvMt6Dx18W2amSWVg=w408-h726-k-no" "Vivero_Las_Nubes_7.jpg"</v>
-      </c>
-      <c r="V9" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Sitio Ecoturístico que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Parque Ecológico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="W9" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Sitio Ecoturístico que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Parque Ecológico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="X9" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Vivero Las Nubes&lt;/b&gt;&lt;/h2&gt;
-                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Las_Nubes_7.jpg" alt="Vivero Las Nubes"&gt;   
-                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3643.395675164008!2d-104.595552!3d24.052367!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bb71dcf83f9bb%3A0x30182ba89df601ac!2sVivero%20Las%20Nubes!5e0!3m2!1ses!2smx!4v1678923728659!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+        <v>El_Arcotete_7.jpg</v>
+      </c>
+      <c r="V9" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/El_Arcotete_7.jpg</v>
+      </c>
+      <c r="W9" t="str">
+        <v>ren "AF1QipO308vC9Ee_T7FQEoWnHY-Q9auyDyZBeZuK5ilR=w408-h271-k-no" "El_Arcotete_7.jpg"</v>
+      </c>
+      <c r="X9" t="str">
+        <v>parques-ecoturismo-en-chiapas</v>
+      </c>
+      <c r="Y9" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en undefined? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  centro de ecoturismo que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parque natural que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en undefined durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los parque ecoturístico mejor calificados en undefined en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en undefined!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="Z9" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Centro Ecoturístico El Arcotete&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/El_Arcotete_7.jpg" alt="El Arcotete"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3821.017700820962!2d-92.5843287!3d16.725968599999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ed5a56fe71d65b%3A0x175c16785c67943b!2sEl%20Arcotete!5e0!3m2!1ses!2smx!4v1679084191732!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
                         &lt;div&gt;&lt;/div&gt;
-                        &lt;p&gt;Bueno pues si eres de quienes ama estar en contacto con la naturaleza y andas por Tabasco, entonces no puedes perderte la experiencia de visitar el Parque Ecoturístico undefined. Con una calificación promedio de 4.4 estrellas de más de Gran vivero con muchas opciones hermosas de plantas a un buen precio, trato muy amable. Abren los domingos y eso también es una gran ventaja ya que es cuando mucha gente tiene tiempo libre y busca opciones para decorar su hogar. ¡Recomendado!,Siempre tiene plantas muy bonitas. Más el viernes en la tarde, excelente trato y te dan tips,Tienen una excelente variedad de plantas y el señor que atendió sabe mucho de plantas. visitantes, no tenemos duda de que se trata de un favorito de esta región. Así que nada...prepárate para sumergirte y disfrutar a tope de los paisajes naturales de Tabasco&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Sitio Ecoturístico "Vivero Las Nubes"? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;El Parque Ecoturístico se ubica enAv Fidel Velázquez Sánchez, Nuevo Pedregal, Las Nubes, 34224 Durango, Dgo.. Para encontrar esta dirección, puedes usar un navegador como el waze o este &lt;a href='https://www.google.com.mx/maps/place/Vivero+Las+Nubes/@24.052367,-104.595552,17z/data=!3m1!4b1!4m6!3m5!1s0x869bb71dcf83f9bb:0x30182ba89df601ac!8m2!3d24.052367!4d-104.595552!16s%2Fg%2F11b6h_sf8h?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Vivero Las Nubes&lt;/a&gt;&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Parque Ecoturístico Vivero Las Nubes?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Vivero Las Nubes son: &lt;/p&gt;
+                        &lt;p&gt;Si estás en busca de un lugar para conectarte con la naturaleza, el parque ecoturístico undefined es una de tus mejores apuestas. Este sitio forma parte de esta lista de los mejores parques ecoturísticos de undefined gracias al respaldo y opiniones de más de undefined visitantes y que le han otorgado una calificación de más de undefined estrellas en promedio. Este lugar es sin duda uno de los mejores para disfrutar del entorno natural y paisajes de undefined y practicar el ecoturismo y la aventura en la región&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro de Ecoturismo "El Arcotete"? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El centro de ecoturismo se ubica enCarretera Rumbo aTenejapa km 8 Ejido Río, Del Arcotete N, Rìo Arcotete, 29200 San Cristóbal de las Casas, Chis.. Para llegar a este sitio, simplemente ingresa la dirección en una app de navegación o síguete este enlace al&lt;a href='https://www.google.com/maps/place/El+Arcotete/@16.7259686,-92.5843287,17z/data=!3m1!4b1!4m6!3m5!1s0x85ed5a56fe71d65b:0x175c16785c67943b!8m2!3d16.7259686!4d-92.5843287!16s%2Fg%2F1pyqp432s?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico,Centro Ecoturístico,Parque Ecoturístico,Sitio Ecoturístico,Parque Ecológico,Parque Ecoturístico,Parque Natural,Parque Ecoturístico,Centro de Ecoturismo,Parque de Ecoturismo El Arcotete&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico El Arcotete?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Parque Ecológico El Arcotete son: &lt;/p&gt;
                             &lt;ul&gt;
                                 &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;No cuenta con teléfono&lt;/li&gt;
                                 &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
                             &lt;/ul&gt;
-                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Centro de Ecoturismo Vivero Las Nubes?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los horarios oficiales del Centro de Ecoturismo Vivero Las Nubes son los siguientes:&lt;/p&gt;                       
-                            &lt;ul&gt;
-                                &lt;li&gt;Lunes de 09:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Martes de 09:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Miércoles de 09:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Jueves de 09:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Viernes de 09:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Sábado de 09:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Domingo de 09:30 a 16:00&lt;/li&gt;
-                            &lt;/ul&gt;
-                            &lt;p&gt;Siempre es importante -aún si cuentas con estos horarios oficiales-, revisar en sus redes sociales y medios de contacto antes de ir. Así podrás asegurarte de que no hayan tenido ningún cambio de horario o logístico de último momento.&lt;/p&gt;                 
-                    </v>
-      </c>
-      <c r="Y9" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Las_Nubes_7.jpg" alt="Vivero Las Nubes"&gt;                
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico El Arcotete?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del parque ecológico El Arcotete son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes de 08:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Martes de 08:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Miércoles de 08:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Jueves de 08:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Viernes de 08:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Sábado de 08:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Domingo de 08:00 a 18:00&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Aunque los horarios oficiales estén disponibles, es recomendable siempre verificar sus sitios de contacto y redes sociales antes de visitar el lugar, por cualquier cambio extraordinario que pudieran haber tenido&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="AA9" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/El_Arcotete_7.jpg" alt="El Arcotete"&gt;                
                 </v>
       </c>
-      <c r="Z9" t="str">
+      <c r="AB9" t="str">
         <v>Añadir número de teléfono del sitio,Añadir sitio web</v>
       </c>
     </row>
@@ -1413,114 +1423,115 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>Vivero El Milagro Suc Los Angeles</v>
+        <v>Centro Ecoturistico Cascadas el Chiflón</v>
       </c>
       <c r="C10" t="str">
-        <v>Vivero El Milagro Suc Los Angeles</v>
+        <v>Centro Ecoturistico Cascadas El Chiflón</v>
       </c>
       <c r="D10" t="str">
-        <v>vivero el milagro suc los angeles</v>
+        <v>centro ecoturistico cascadas el chiflón</v>
       </c>
       <c r="E10" t="str">
-        <v>C. Aquiles Serdan 1306, Los Ángeles, 34076 Durango, Dgo.</v>
+        <v>Ejido, San Cristobalito, 30100 Tzimol, Chis.</v>
       </c>
       <c r="F10" t="str">
-        <v>618 189 0754</v>
+        <v>963 112 8716</v>
       </c>
       <c r="G10" t="str">
         <v>Web no disponible</v>
       </c>
       <c r="I10" t="str">
-        <v>Durango</v>
+        <v>Tzimol, Chiapas</v>
       </c>
       <c r="J10" t="str">
-        <v>https://www.google.com.mx/maps/place/Vivero+El+Milagro+Suc+Los+Angeles/@24.0267101,-104.6794677,17z/data=!3m1!4b1!4m6!3m5!1s0x869bc83f03010ed1:0x1db0e10487ed912!8m2!3d24.0267101!4d-104.6794677!16s%2Fg%2F11b6j6cy2v?authuser=0&amp;hl=es</v>
+        <v>Chiapas</v>
       </c>
       <c r="K10" t="str">
-        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3644.123489275272!2d-104.67946769999999!3d24.0267101!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bc83f03010ed1%3A0x1db0e10487ed912!2sVivero%20El%20Milagro%20Suc%20Los%20Angeles!5e0!3m2!1ses!2smx!4v1678923732662!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+        <v>https://www.google.com/maps/place/Centro+Ecoturistico+Cascadas+el+Chifl%C3%B3n/@16.1896628,-92.2736767,17z/data=!3m1!4b1!4m6!3m5!1s0x858d43087ab41f3d:0x606e72e2a5676437!8m2!3d16.1896628!4d-92.2736767!16s%2Fg%2F11b7ywm7w3?authuser=0&amp;hl=es</v>
       </c>
       <c r="L10" t="str">
-        <v>28GC+M6 Durango</v>
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3831.5981054349945!2d-92.2736767!3d16.1896628!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x858d43087ab41f3d%3A0x606e72e2a5676437!2sCentro%20Ecoturistico%20Cascadas%20el%20Chifl%C3%B3n!5e0!3m2!1ses!2smx!4v1679084196634!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
       </c>
       <c r="M10" t="str">
-        <v>4.2</v>
+        <v>5PQG+VG Tzimol, Chiapas</v>
       </c>
       <c r="N10" t="str">
-        <v>11</v>
-      </c>
-      <c r="O10" t="str" xml:space="preserve">
-        <v xml:space="preserve">Muy bonito lugar, precios moderados,  buenas bebidas y snacks,La comida estuvo buena.
-El servicio a cliente es pésimo, las chicas son muy groseras e incómodan con su actitud. Problemas al tomar la orden.,Hay muy poca variedad de maceta floral</v>
-      </c>
-      <c r="P10" t="str">
-        <v>https://lh3.googleusercontent.com/gps-proxy/ALm4wwkFJ5zhXXw8mKUQd0UFqduT1xlKO01fx1sEiJmF2tvuaQJnD4xP5JlnR2bL73akRKPOwExYYWEY23YRpd9rh73Dg8lxbJNWhqi8wZr2SYBOP1IGNFDkRO9FgppjUzDVQcFYrBe7RD2wSwU1apcrVB-Ao_GEi4Ar11errnDcKzEbQ3n5g2zVqVdo6CAzv2Erw2rWvQ=w427-h240-k-no</v>
+        <v>4.8</v>
+      </c>
+      <c r="O10" t="str">
+        <v>10.664</v>
+      </c>
+      <c r="P10" t="str" xml:space="preserve">
+        <v xml:space="preserve">Un excelente lugar para pasar un rato con la familia y en contacto con la naturaleza,Hermoso lugar. 1000% Recomendado!
+Ojo, son muchos escalones para subir, no apto para niños muy pequeños o 3ra edad.…,Las cascadas más hermosas que he visto en todo México. Si visitas te recomiendo que lleves zapatos que no se resbalen por qué hay 400 y tantas escaleras y por estar alado de la cascada y el río están resbalosas. A mí me tocó ver cómo una…</v>
       </c>
       <c r="Q10" t="str">
-        <v>wget --no-check-certificate https://lh3.googleusercontent.com/gps-proxy/ALm4wwkFJ5zhXXw8mKUQd0UFqduT1xlKO01fx1sEiJmF2tvuaQJnD4xP5JlnR2bL73akRKPOwExYYWEY23YRpd9rh73Dg8lxbJNWhqi8wZr2SYBOP1IGNFDkRO9FgppjUzDVQcFYrBe7RD2wSwU1apcrVB-Ao_GEi4Ar11errnDcKzEbQ3n5g2zVqVdo6CAzv2Erw2rWvQ=w427-h240-k-no</v>
+        <v>https://lh5.googleusercontent.com/p/AF1QipPHYk-jS9Ilk3DRT3AJZ45vh0rm3B1rMvf-iLKg=w408-h544-k-no</v>
       </c>
       <c r="R10" t="str">
-        <v>ALm4wwkFJ5zhXXw8mKUQd0UFqduT1xlKO01fx1sEiJmF2tvuaQJnD4xP5JlnR2bL73akRKPOwExYYWEY23YRpd9rh73Dg8lxbJNWhqi8wZr2SYBOP1IGNFDkRO9FgppjUzDVQcFYrBe7RD2wSwU1apcrVB-Ao_GEi4Ar11errnDcKzEbQ3n5g2zVqVdo6CAzv2Erw2rWvQ=w427-h240-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPHYk-jS9Ilk3DRT3AJZ45vh0rm3B1rMvf-iLKg=w408-h544-k-no</v>
       </c>
       <c r="S10" t="str">
-        <v>Vivero_El_Milagro_Suc_Los_Angeles_8</v>
+        <v>AF1QipPHYk-jS9Ilk3DRT3AJZ45vh0rm3B1rMvf-iLKg=w408-h544-k-no</v>
       </c>
       <c r="T10" t="str">
-        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_El_Milagro_Suc_Los_Angeles_8.jpg</v>
+        <v>Centro_Ecoturistico_Cascadas_el_Chiflón_8</v>
       </c>
       <c r="U10" t="str">
-        <v>ren "ALm4wwkFJ5zhXXw8mKUQd0UFqduT1xlKO01fx1sEiJmF2tvuaQJnD4xP5JlnR2bL73akRKPOwExYYWEY23YRpd9rh73Dg8lxbJNWhqi8wZr2SYBOP1IGNFDkRO9FgppjUzDVQcFYrBe7RD2wSwU1apcrVB-Ao_GEi4Ar11errnDcKzEbQ3n5g2zVqVdo6CAzv2Erw2rWvQ=w427-h240-k-no" "Vivero_El_Milagro_Suc_Los_Angeles_8.jpg"</v>
-      </c>
-      <c r="V10" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Natural que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Natural que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Parque Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="W10" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Parque Natural que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Parque Natural que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Parque Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="X10" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Vivero El Milagro Suc Los Angeles&lt;/b&gt;&lt;/h2&gt;
-                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_El_Milagro_Suc_Los_Angeles_8.jpg" alt="Vivero El Milagro Suc Los Angeles"&gt;   
-                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3644.123489275272!2d-104.67946769999999!3d24.0267101!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bc83f03010ed1%3A0x1db0e10487ed912!2sVivero%20El%20Milagro%20Suc%20Los%20Angeles!5e0!3m2!1ses!2smx!4v1678923732662!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+        <v>Centro_Ecoturistico_Cascadas_el_Chiflón_8.jpg</v>
+      </c>
+      <c r="V10" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturistico_Cascadas_el_Chiflón_8.jpg</v>
+      </c>
+      <c r="W10" t="str">
+        <v>ren "AF1QipPHYk-jS9Ilk3DRT3AJZ45vh0rm3B1rMvf-iLKg=w408-h544-k-no" "Centro_Ecoturistico_Cascadas_el_Chiflón_8.jpg"</v>
+      </c>
+      <c r="X10" t="str">
+        <v>parques-ecoturismo-en-chiapas</v>
+      </c>
+      <c r="Y10" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en undefined? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parque ecoturístico que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parque natural que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en undefined durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los centro ecoturístico mejor calificados en undefined en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en undefined!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="Z10" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Centro Ecoturístico Centro Ecoturistico Cascadas El Chiflón&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturistico_Cascadas_el_Chiflón_8.jpg" alt="Centro Ecoturistico Cascadas el Chiflón"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3831.5981054349945!2d-92.2736767!3d16.1896628!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x858d43087ab41f3d%3A0x606e72e2a5676437!2sCentro%20Ecoturistico%20Cascadas%20el%20Chifl%C3%B3n!5e0!3m2!1ses!2smx!4v1679084196634!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
                         &lt;div&gt;&lt;/div&gt;
-                        &lt;p&gt;El Parque Ecoturístico undefined es una opción fantástica para tener una aventura natural en Tabasco. Su calificación promedio es de 4.2 respaldada por más de 11visitantes, así que no tenemos duda de que este lugar pertenece a la lista de los Parque Ecoturístico mejor rankeados de Tabasco y que se trata de uno de los principales atractivos naturales en la región. Así que ya sabes... ¿ganas de naturaleza?... pues el Parque Ecoturístico undefined es una grandísima opción.&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque de Ecoturismo "Vivero El Milagro Suc Los Angeles"? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;El Parque Ecoturístico se ubica enC. Aquiles Serdan 1306, Los Ángeles, 34076 Durango, Dgo.. Para ir a este parque, simplemente basta con colocar la dirección en una app de navegación o siguiendo este &lt;a href='https://www.google.com.mx/maps/place/Vivero+El+Milagro+Suc+Los+Angeles/@24.0267101,-104.6794677,17z/data=!3m1!4b1!4m6!3m5!1s0x869bc83f03010ed1:0x1db0e10487ed912!8m2!3d24.0267101!4d-104.6794677!16s%2Fg%2F11b6j6cy2v?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Vivero El Milagro Suc Los Angeles&lt;/a&gt;&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Parque Ecoturístico Vivero El Milagro Suc Los Angeles?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Vivero El Milagro Suc Los Angeles son: &lt;/p&gt;
-                            &lt;ul&gt;
-                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;618 189 0754&lt;/li&gt;
+                        &lt;p&gt;Si estás en undefined en búsqueda de algo de ecoturismo y aventura entonces el parque ecoturístico undefined no se te puede escapar. Hemos decidido incluir este parque ecoturístico en esta lista de los mejores de undefined gracias al respaldo y opiniones de más de undefined visitantes que lo han evaluado públicamente por lo menos con undefined estrellas de calificación (de las más altas para este estado del país). Así que chécate todos lo detalles necesarios para tu visita y ¡no se diga más! ¡a vivir el ecoturismo en undefined en undefined!&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque de Ecoturismo "Centro Ecoturistico Cascadas El Chiflón"? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El sitio ecoturístico se ubica enEjido, San Cristobalito, 30100 Tzimol, Chis.. Encontrar esta dirección es muy sencillo utilizando una herramienta de navegación como Waze o siguiendo directamente este &lt;a href='https://www.google.com/maps/place/Centro+Ecoturistico+Cascadas+el+Chifl%C3%B3n/@16.1896628,-92.2736767,17z/data=!3m1!4b1!4m6!3m5!1s0x858d43087ab41f3d:0x606e72e2a5676437!8m2!3d16.1896628!4d-92.2736767!16s%2Fg%2F11b7ywm7w3?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico,Centro Ecoturístico,Parque Ecoturístico,Sitio Ecoturístico,Parque Ecológico,Parque Ecoturístico,Parque Natural,Parque Ecoturístico,Centro de Ecoturismo,Parque de Ecoturismo Centro Ecoturistico Cascadas El Chiflón&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Centro Ecoturistico Cascadas El Chiflón?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Centro Ecoturistico Cascadas El Chiflón son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;963 112 8716&lt;/li&gt;
                                 &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
                             &lt;/ul&gt;
-                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Parque Natural Vivero El Milagro Suc Los Angeles?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los horarios oficiales del Parque Ecoturístico Vivero El Milagro Suc Los Angeles son los siguientes:&lt;/p&gt;                       
-                            &lt;ul&gt;
-                                &lt;li&gt;Lunes de 08:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Martes de 08:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Miércoles de 08:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Jueves de 08:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Viernes de 08:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Sábado de 08:00 a 23:00&lt;/li&gt;
-                                &lt;li&gt;Domingo de 08:00 a 23:00&lt;/li&gt;
-                            &lt;/ul&gt;
-                            &lt;p&gt;Aunque estos horarios están oficialmente vigentes, siempre es bueno consultar sus sitios de contacto y redes oficiales antes de visitarlos, por cualquier cambio extraordinario que pudieran tener.&lt;/p&gt;                 
-                    </v>
-      </c>
-      <c r="Y10" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_El_Milagro_Suc_Los_Angeles_8.jpg" alt="Vivero El Milagro Suc Los Angeles"&gt;                
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque natural Centro Ecoturistico Cascadas El Chiflón?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del parque ecoturístico Centro Ecoturistico Cascadas El Chiflón son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes de 08:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Martes de 08:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Miércoles de 08:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Jueves de 08:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Viernes de 08:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Sábado de 08:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Domingo de 08:00 a 17:00&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Siempre es importante -aún si cuentas con estos horarios oficiales-, revisar en sus redes sociales y medios de contacto antes de ir. Así podrás asegurarte de que no hayan tenido ningún cambio de horario o logístico de último momento.&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="AA10" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturistico_Cascadas_el_Chiflón_8.jpg" alt="Centro Ecoturistico Cascadas el Chiflón"&gt;                
                 </v>
       </c>
-      <c r="Z10" t="str">
+      <c r="AB10" t="str">
         <v>Añadir sitio web</v>
       </c>
     </row>
@@ -1529,119 +1540,1284 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>Vivero Victoria</v>
+        <v>Parque Ecoturístico Rancho Nuevo</v>
       </c>
       <c r="C11" t="str">
-        <v>Vivero Victoria</v>
+        <v>Parque Ecoturístico Rancho Nuevo</v>
       </c>
       <c r="D11" t="str">
-        <v>vivero victoria</v>
+        <v>parque ecoturístico rancho nuevo</v>
       </c>
       <c r="E11" t="str">
-        <v>Av. del Factor 906, Casa Redonda, 35158 Durango, Dgo.</v>
+        <v>Carretera Panamericana Km. 94, 29200 San Cristóbal de las Casas, Chis.</v>
       </c>
       <c r="F11" t="str">
+        <v>967 136 0995</v>
+      </c>
+      <c r="G11" t="str">
+        <v>http://sancristobal.gob.mx/</v>
+      </c>
+      <c r="I11" t="str">
+        <v>San Cristóbal de las Casas, Chiapas</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Chiapas</v>
+      </c>
+      <c r="K11" t="str">
+        <v>https://www.google.com/maps/place/Parque+Ecotur%C3%ADstico+Rancho+Nuevo/@16.670804,-92.584089,17z/data=!3m1!4b1!4m6!3m5!1s0x85ed5050caa093f1:0x38feb6e11482550a!8m2!3d16.670804!4d-92.584089!16s%2Fg%2F11bvqjrd4w?authuser=0&amp;hl=es</v>
+      </c>
+      <c r="L11" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3822.12146748368!2d-92.58408899999999!3d16.670804!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ed5050caa093f1%3A0x38feb6e11482550a!2sParque%20Ecotur%C3%ADstico%20Rancho%20Nuevo!5e0!3m2!1ses!2smx!4v1679084201278!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="M11" t="str">
+        <v>MCC8+89 San Cristóbal de las Casas, Chiapas</v>
+      </c>
+      <c r="N11" t="str">
+        <v>4.7</v>
+      </c>
+      <c r="O11" t="str">
+        <v>1.419</v>
+      </c>
+      <c r="P11" t="str" xml:space="preserve">
+        <v xml:space="preserve">Es un excelente lugar para la convivencia familiar, se puede respirar aire puro, el clima es muy agradable por la tarde; en la mañana y ya entrada la tarde -noche se torna un poco frío.…,Aquí abunda la naturaleza, ideal para convivir en familia, el aire es fresco y agradable.
+Tiene muchas actividades, vale la pena la tirolesa y el paseo a caballo. Las…,La gruta es increíble. El resto del parque es perfecto para disfrutar en familia. Me gusto mucho mucho aunque es pequeño. Mejor venir en familia o con amigos. Comida, tirolea, zona de juego para niños, cabañas para quedar dormir</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>https://lh5.googleusercontent.com/p/AF1QipPNVZZLwMAx8Xl5lYzHy1TnP7TqUdL9C69TG4O2=w408-h271-k-no</v>
+      </c>
+      <c r="R11" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPNVZZLwMAx8Xl5lYzHy1TnP7TqUdL9C69TG4O2=w408-h271-k-no</v>
+      </c>
+      <c r="S11" t="str">
+        <v>AF1QipPNVZZLwMAx8Xl5lYzHy1TnP7TqUdL9C69TG4O2=w408-h271-k-no</v>
+      </c>
+      <c r="T11" t="str">
+        <v>Parque_Ecoturístico_Rancho_Nuevo_9</v>
+      </c>
+      <c r="U11" t="str">
+        <v>Parque_Ecoturístico_Rancho_Nuevo_9.jpg</v>
+      </c>
+      <c r="V11" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Parque_Ecoturístico_Rancho_Nuevo_9.jpg</v>
+      </c>
+      <c r="W11" t="str">
+        <v>ren "AF1QipPNVZZLwMAx8Xl5lYzHy1TnP7TqUdL9C69TG4O2=w408-h271-k-no" "Parque_Ecoturístico_Rancho_Nuevo_9.jpg"</v>
+      </c>
+      <c r="X11" t="str">
+        <v>parques-ecoturismo-en-chiapas</v>
+      </c>
+      <c r="Y11" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en undefined? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parque natural que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los centro ecoturístico que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en undefined durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los parque ecoturístico mejor calificados en undefined en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en undefined!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="Z11" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Centro Ecoturístico Parque Ecoturístico Rancho Nuevo&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Parque_Ecoturístico_Rancho_Nuevo_9.jpg" alt="Parque Ecoturístico Rancho Nuevo"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3822.12146748368!2d-92.58408899999999!3d16.670804!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ed5050caa093f1%3A0x38feb6e11482550a!2sParque%20Ecotur%C3%ADstico%20Rancho%20Nuevo!5e0!3m2!1ses!2smx!4v1679084201278!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;/div&gt;
+                        &lt;p&gt;Bueno... pues ya que andas buscando salir de lo cotidiano... ¿Qué tal disfrutar de algunos de los paisajes más bonitos y naturales de undefined?. Pues eso es lo que centro de ecoturismo undefined te ofrece. Este sitio tiene una calificación promedio de undefined estrellas, a partir de opiniones de al menos undefined visitantes previos a ti, y es por eso que se considera uno de los top de este estado. Así que nada... sin excusas y ¡a vivir esta experiencia en la naturaleza!&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque de Ecoturismo "Parque Ecoturístico Rancho Nuevo"? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El parque ecoturístico se ubica enCarretera Panamericana Km. 94, 29200 San Cristóbal de las Casas, Chis.. Podrás llegar manejando sin ningún problema, símplemente usa la dirección en una app como waze o googleMaps, o usa este enlace al &lt;a href='https://www.google.com/maps/place/Parque+Ecotur%C3%ADstico+Rancho+Nuevo/@16.670804,-92.584089,17z/data=!3m1!4b1!4m6!3m5!1s0x85ed5050caa093f1:0x38feb6e11482550a!8m2!3d16.670804!4d-92.584089!16s%2Fg%2F11bvqjrd4w?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico,Centro Ecoturístico,Parque Ecoturístico,Sitio Ecoturístico,Parque Ecológico,Parque Ecoturístico,Parque Natural,Parque Ecoturístico,Centro de Ecoturismo,Parque de Ecoturismo Parque Ecoturístico Rancho Nuevo&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque de ecoturismo Parque Ecoturístico Rancho Nuevo?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Parque Ecoturístico Rancho Nuevo son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;967 136 0995&lt;/li&gt;
+                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;&lt;a href="http://sancristobal.gob.mx/"&gt;Web del place Parque Ecoturístico Rancho Nuevo&lt;/a&gt;&lt;/li&gt;                                
+                            &lt;/ul&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el sitio ecoturístico Parque Ecoturístico Rancho Nuevo?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del parque ecoturístico Parque Ecoturístico Rancho Nuevo son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes de 08:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Martes de 08:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Miércoles de 08:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Jueves de 08:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Viernes de 08:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Sábado de 08:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Domingo de 08:00 a 18:00&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Es importante verificar sus redes sociales o contactos digitales antes de ir, porque independientemente de estos horarios oficiales, siempre pueden existir cambios de último momento por situaciones extraordinarias de clima, temporada vacacional y demás&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="AA11" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Parque_Ecoturístico_Rancho_Nuevo_9.jpg" alt="Parque Ecoturístico Rancho Nuevo"&gt;                
+                </v>
+      </c>
+      <c r="AB11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Centro Ecoturístico Grutas Del Mamut, San Cristóbal de Las Casas</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Centro Ecoturístico Grutas Del Mamut, San Cristóbal De Las Casas</v>
+      </c>
+      <c r="D12" t="str">
+        <v>centro ecoturístico grutas del mamut, san cristóbal de las casas</v>
+      </c>
+      <c r="E12" t="str">
+        <v>México 190 S/N, Colonia Agua de Pajarito, 29200 San Cristóbal de las Casas, Chis.</v>
+      </c>
+      <c r="F12" t="str">
         <v>No cuenta con teléfono</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G12" t="str">
         <v>Web no disponible</v>
       </c>
-      <c r="I11" t="str">
-        <v>Durango</v>
-      </c>
-      <c r="J11" t="str">
-        <v>https://www.google.com.mx/maps/place/Vivero+Victoria/@24.0391699,-104.6661015,17z/data=!3m1!4b1!4m6!3m5!1s0x869bc82f1e35ef4b:0x28ac0bb71cd10463!8m2!3d24.0391699!4d-104.6661015!16s%2Fg%2F11b6j5hybg?authuser=0&amp;hl=es</v>
-      </c>
-      <c r="K11" t="str">
-        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3643.7701310402113!2d-104.6661015!3d24.039169899999997!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bc82f1e35ef4b%3A0x28ac0bb71cd10463!2sVivero%20Victoria!5e0!3m2!1ses!2smx!4v1678923736954!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
-      </c>
-      <c r="L11" t="str">
-        <v>28QM+MH Durango</v>
-      </c>
-      <c r="M11" t="str">
+      <c r="I12" t="str">
+        <v>San Cristóbal de las Casas, Chiapas</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Chiapas</v>
+      </c>
+      <c r="K12" t="str">
+        <v>https://www.google.com/maps/place/Centro+Ecotur%C3%ADstico+Grutas+Del+Mamut,+San+Crist%C3%B3bal+de+Las+Casas/@16.7397805,-92.5872749,17z/data=!3m1!4b1!4m6!3m5!1s0x85ed5bff702df8a9:0xe7b630a514898b40!8m2!3d16.7397805!4d-92.5872749!16s%2Fg%2F11mtdd8l83?authuser=0&amp;hl=es</v>
+      </c>
+      <c r="L12" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3820.7407894918224!2d-92.5872749!3d16.7397805!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ed5bff702df8a9%3A0xe7b630a514898b40!2sCentro%20Ecotur%C3%ADstico%20Grutas%20Del%20Mamut%2C%20San%20Crist%C3%B3bal%20de%20Las%20Casas!5e0!3m2!1ses!2smx!4v1679084205798!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="M12" t="str">
+        <v>PCQ7+W3 San Cristóbal de las Casas, Chiapas</v>
+      </c>
+      <c r="N12" t="str">
         <v>4.3</v>
       </c>
-      <c r="N11" t="str">
-        <v>7</v>
-      </c>
-      <c r="O11" t="str">
-        <v>Cuando fui no sabían que veriedad eran los árboles, aún que tenían de muchos tipos, los dan muy económicos.,Mucha variedad de plantas,Buen servicio</v>
-      </c>
-      <c r="P11" t="str">
-        <v>https://lh3.googleusercontent.com/gps-proxy/ALm4wwmAGm_hslDiF60fG4A-B0XbubwK7sURIt9PD5Mx_Uk5jj8S79OtXjKPHVaBCRF1p7A34jPqHigU471jZLm7NtmTDSis43wNn-IXA_SqiWhjDISaCFdHN0pX-PUN6rtEbvEmQvExW6dynGHOGRZhflBzO5hRHWcMGScElnVKtrZJYvpLFIfKesjs8Ud2FEHYZZ9lFJM=w427-h240-k-no</v>
-      </c>
-      <c r="Q11" t="str">
-        <v>wget --no-check-certificate https://lh3.googleusercontent.com/gps-proxy/ALm4wwmAGm_hslDiF60fG4A-B0XbubwK7sURIt9PD5Mx_Uk5jj8S79OtXjKPHVaBCRF1p7A34jPqHigU471jZLm7NtmTDSis43wNn-IXA_SqiWhjDISaCFdHN0pX-PUN6rtEbvEmQvExW6dynGHOGRZhflBzO5hRHWcMGScElnVKtrZJYvpLFIfKesjs8Ud2FEHYZZ9lFJM=w427-h240-k-no</v>
-      </c>
-      <c r="R11" t="str">
-        <v>ALm4wwmAGm_hslDiF60fG4A-B0XbubwK7sURIt9PD5Mx_Uk5jj8S79OtXjKPHVaBCRF1p7A34jPqHigU471jZLm7NtmTDSis43wNn-IXA_SqiWhjDISaCFdHN0pX-PUN6rtEbvEmQvExW6dynGHOGRZhflBzO5hRHWcMGScElnVKtrZJYvpLFIfKesjs8Ud2FEHYZZ9lFJM=w427-h240-k-no</v>
-      </c>
-      <c r="S11" t="str">
-        <v>Vivero_Victoria_9</v>
-      </c>
-      <c r="T11" t="str">
-        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Victoria_9.jpg</v>
-      </c>
-      <c r="U11" t="str">
-        <v>ren "ALm4wwmAGm_hslDiF60fG4A-B0XbubwK7sURIt9PD5Mx_Uk5jj8S79OtXjKPHVaBCRF1p7A34jPqHigU471jZLm7NtmTDSis43wNn-IXA_SqiWhjDISaCFdHN0pX-PUN6rtEbvEmQvExW6dynGHOGRZhflBzO5hRHWcMGScElnVKtrZJYvpLFIfKesjs8Ud2FEHYZZ9lFJM=w427-h240-k-no" "Vivero_Victoria_9.jpg"</v>
-      </c>
-      <c r="V11" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Centro Ecoturístico que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Centro Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Parque Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="W11" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores Parques Ecoturísticos en Tabasco? ¡Estás en el lugar correcto! Pues en este artículo vamos a presentarte cuáles son los  Centro Ecoturístico que han sido mejor evaluados en este estado. 
- Para esto, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso entrevistas para poder determinar cuáles son los  Centro Ecoturístico que mejor calificación han recibido en Tabasco durante los últimos años. 
- Con esta prueba social como respaldo, hoy te daremos los Parque Ecoturístico mejor calificados y te compartiremos su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos, junto con la calificación promedio con la que cuenta cada lugar. 
- Así que prepárate y ¡a disfrutar del ecoturismo en Tabasco!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="X11" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Vivero Victoria&lt;/b&gt;&lt;/h2&gt;
-                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Victoria_9.jpg" alt="Vivero Victoria"&gt;   
-                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3643.7701310402113!2d-104.6661015!3d24.039169899999997!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x869bc82f1e35ef4b%3A0x28ac0bb71cd10463!2sVivero%20Victoria!5e0!3m2!1ses!2smx!4v1678923736954!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+      <c r="O12" t="str">
+        <v>6</v>
+      </c>
+      <c r="P12" t="str">
+        <v>Muy bonito el lugar, lamentablemente no nos dieron ningún explicación o detalles de las formas encontradas, y no nos dejaron subir a la tirolesa por qué aún no estaba abierto. Fuera de eso, el lugar se merece 5 estrellas y es muy bonito y puedes subirte a unas canoas y estar un rato en el río.,Si vienes en grupo o en familia es mejor, ya que si es extenso el lugar, hay tirolesa, unas lanchas y campo para jugar fut de manera informal, además hay grutas que están relativamente bien. Un lugar para pasar un día en familia,Excelente lugar para disfrutar de una enorme cueva bajo los cerros de San Cristóbal de las Casas. También es ideal para pasear entre la natiraleza, tirarse de la tirolesa o simplemente para disfrutar de un picnic en las palapas o establecimiento del lugar.</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>https://lh5.googleusercontent.com/p/AF1QipNJEfVxexsZWbtzsaeF9LzDDbBnbeNFQmMOBEZ8=w437-h240-k-no</v>
+      </c>
+      <c r="R12" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipNJEfVxexsZWbtzsaeF9LzDDbBnbeNFQmMOBEZ8=w437-h240-k-no</v>
+      </c>
+      <c r="S12" t="str">
+        <v>AF1QipNJEfVxexsZWbtzsaeF9LzDDbBnbeNFQmMOBEZ8=w437-h240-k-no</v>
+      </c>
+      <c r="T12" t="str">
+        <v>Centro_Ecoturístico_Grutas_Del_Mamut,_San_Cristóbal_de_Las_Casas_10</v>
+      </c>
+      <c r="U12" t="str">
+        <v>Centro_Ecoturístico_Grutas_Del_Mamut,_San_Cristóbal_de_Las_Casas_10.jpg</v>
+      </c>
+      <c r="V12" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturístico_Grutas_Del_Mamut,_San_Cristóbal_de_Las_Casas_10.jpg</v>
+      </c>
+      <c r="W12" t="str">
+        <v>ren "AF1QipNJEfVxexsZWbtzsaeF9LzDDbBnbeNFQmMOBEZ8=w437-h240-k-no" "Centro_Ecoturístico_Grutas_Del_Mamut,_San_Cristóbal_de_Las_Casas_10.jpg"</v>
+      </c>
+      <c r="X12" t="str">
+        <v>parques-ecoturismo-en-chiapas</v>
+      </c>
+      <c r="Y12" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en undefined? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parque ecológico que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parque de ecoturismo que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en undefined durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los sitio ecoturístico mejor calificados en undefined en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en undefined!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="Z12" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Centro de Ecoturismo Centro Ecoturístico Grutas Del Mamut, San Cristóbal De Las Casas&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturístico_Grutas_Del_Mamut,_San_Cristóbal_de_Las_Casas_10.jpg" alt="Centro Ecoturístico Grutas Del Mamut, San Cristóbal de Las Casas"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3820.7407894918224!2d-92.5872749!3d16.7397805!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ed5bff702df8a9%3A0xe7b630a514898b40!2sCentro%20Ecotur%C3%ADstico%20Grutas%20Del%20Mamut%2C%20San%20Crist%C3%B3bal%20de%20Las%20Casas!5e0!3m2!1ses!2smx!4v1679084205798!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
                         &lt;div&gt;&lt;/div&gt;
-                        &lt;p&gt;El Parque Ecoturístico undefined es una opción fantástica para tener una aventura natural en Tabasco. Su calificación promedio es de 4.3 respaldada por más de 7visitantes, así que no tenemos duda de que este lugar pertenece a la lista de los Parque Ecoturístico mejor rankeados de Tabasco y que se trata de uno de los principales atractivos naturales en la región. Así que ya sabes... ¿ganas de naturaleza?... pues el Parque Ecoturístico undefined es una grandísima opción.&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque de Ecoturismo "Vivero Victoria"? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;El Centro de Ecoturismo se ubica enAv. del Factor 906, Casa Redonda, 35158 Durango, Dgo.. Puedes ir a este lugar sin problemas manejando, sólo coloca su dirección oficial en waze, google maps o equivalente, o guíate con este &lt;a href='https://www.google.com.mx/maps/place/Vivero+Victoria/@24.0391699,-104.6661015,17z/data=!3m1!4b1!4m6!3m5!1s0x869bc82f1e35ef4b:0x28ac0bb71cd10463!8m2!3d24.0391699!4d-104.6661015!16s%2Fg%2F11b6j5hybg?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Vivero Victoria&lt;/a&gt;&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del Parque Ecoturístico Vivero Victoria?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los contactos disponibles del Parque Natural Vivero Victoria son: &lt;/p&gt;
+                        &lt;p&gt;Bueno... pues ya que andas buscando salir de lo cotidiano... ¿Qué tal disfrutar de algunos de los paisajes más bonitos y naturales de undefined?. Pues eso es lo que centro de ecoturismo undefined te ofrece. Este sitio tiene una calificación promedio de undefined estrellas, a partir de opiniones de al menos undefined visitantes previos a ti, y es por eso que se considera uno de los top de este estado. Así que nada... sin excusas y ¡a vivir esta experiencia en la naturaleza!&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Centro Ecoturístico Grutas Del Mamut, San Cristóbal De Las Casas"? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El parque ecoturístico se ubica enMéxico 190 S/N, Colonia Agua de Pajarito, 29200 San Cristóbal de las Casas, Chis.. Puedes ir a este lugar sin problemas manejando, sólo coloca su dirección oficial en waze, google maps o equivalente, o guíate con este &lt;a href='https://www.google.com/maps/place/Centro+Ecotur%C3%ADstico+Grutas+Del+Mamut,+San+Crist%C3%B3bal+de+Las+Casas/@16.7397805,-92.5872749,17z/data=!3m1!4b1!4m6!3m5!1s0x85ed5bff702df8a9:0xe7b630a514898b40!8m2!3d16.7397805!4d-92.5872749!16s%2Fg%2F11mtdd8l83?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico,Centro Ecoturístico,Parque Ecoturístico,Sitio Ecoturístico,Parque Ecológico,Parque Ecoturístico,Parque Natural,Parque Ecoturístico,Centro de Ecoturismo,Parque de Ecoturismo Centro Ecoturístico Grutas Del Mamut, San Cristóbal De Las Casas&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecológico Centro Ecoturístico Grutas Del Mamut, San Cristóbal De Las Casas?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Parque Natural Centro Ecoturístico Grutas Del Mamut, San Cristóbal De Las Casas son: &lt;/p&gt;
                             &lt;ul&gt;
                                 &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;No cuenta con teléfono&lt;/li&gt;
                                 &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
                             &lt;/ul&gt;
-                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el Parque Ecoturístico Vivero Victoria?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los horarios oficiales del Sitio Ecoturístico Vivero Victoria son los siguientes:&lt;/p&gt;                       
-                            &lt;ul&gt;
-                                &lt;li&gt;Lunes de 09:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Martes de 09:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Miércoles de 09:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Jueves de 09:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Viernes de 09:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Sábado de 09:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Domingo de 09:00 a 19:00&lt;/li&gt;
-                            &lt;/ul&gt;
-                            &lt;p&gt;Aunque estos horarios sean oficialmente vigentes, nunca está de más que antes de lanzarte, revises en sus redes sociales o contactos digitales que no haya habido ningún cambio logístico extraordinario en sus horarios de apertura y cierre.&lt;/p&gt;                 
-                    </v>
-      </c>
-      <c r="Y11" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Vivero_Victoria_9.jpg" alt="Vivero Victoria"&gt;                
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Centro Ecoturístico Grutas Del Mamut, San Cristóbal De Las Casas?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del centro ecoturístico Centro Ecoturístico Grutas Del Mamut, San Cristóbal De Las Casas son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Martes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Miércoles Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Jueves Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Viernes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Sábado Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Domingo Abierto las 24 horas&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Aunque cuentes ya con los horarios oficiales de apertura de este lugar, siempre te recomendamos que antes de ir eches un ojito a sus redes sociales y vías de contacto, para asegurarte de que no hayan tenido algún cambio logístico de última hora&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="AA12" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturístico_Grutas_Del_Mamut,_San_Cristóbal_de_Las_Casas_10.jpg" alt="Centro Ecoturístico Grutas Del Mamut, San Cristóbal de Las Casas"&gt;                
                 </v>
       </c>
-      <c r="Z11" t="str">
+      <c r="AB12" t="str">
         <v>Añadir número de teléfono del sitio,Añadir sitio web</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Las Guacamayas, Centro Ecoturístico</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Las Guacamayas, Centro Ecoturístico</v>
+      </c>
+      <c r="D13" t="str">
+        <v>las guacamayas, centro ecoturístico</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Ejido Reforma Agraria sin numero, 29957 Marqués de Comillas, Chis.</v>
+      </c>
+      <c r="F13" t="str">
+        <v>963 151 4803</v>
+      </c>
+      <c r="G13" t="str">
+        <v>https://lasguacamayas.org.mx/</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Marqués de Comillas, Chiapas</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Chiapas</v>
+      </c>
+      <c r="K13" t="str">
+        <v>https://www.google.com/maps/place/Las+Guacamayas,+Centro+Ecotur%C3%ADstico/@16.2568991,-90.8614286,17z/data=!3m1!4b1!4m9!3m8!1s0x858b392dc3c12845:0xcb28b545166050e1!5m2!4m1!1i2!8m2!3d16.2568991!4d-90.8614286!16s%2Fg%2F1v3_2_yk?authuser=0&amp;hl=es</v>
+      </c>
+      <c r="L13" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3830.2900336760918!2d-90.8614286!3d16.2568991!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x858b392dc3c12845%3A0xcb28b545166050e1!2sLas%20Guacamayas%2C%20Centro%20Ecotur%C3%ADstico!5e0!3m2!1ses!2smx!4v1679084210261!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="M13" t="str">
+        <v>744Q+QC Marqués de Comillas, Chiapas</v>
+      </c>
+      <c r="N13" t="str">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="str">
+        <v>0</v>
+      </c>
+      <c r="P13" t="str">
+        <v>no hay opiniones</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>https://lh5.googleusercontent.com/p/AF1QipPuntpG2LT7XYCSrCEOsFu9XTvSfM5cDP6tAD0c=w408-h272-k-no</v>
+      </c>
+      <c r="R13" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPuntpG2LT7XYCSrCEOsFu9XTvSfM5cDP6tAD0c=w408-h272-k-no</v>
+      </c>
+      <c r="S13" t="str">
+        <v>AF1QipPuntpG2LT7XYCSrCEOsFu9XTvSfM5cDP6tAD0c=w408-h272-k-no</v>
+      </c>
+      <c r="T13" t="str">
+        <v>Las_Guacamayas,_Centro_Ecoturístico_11</v>
+      </c>
+      <c r="U13" t="str">
+        <v>Las_Guacamayas,_Centro_Ecoturístico_11.jpg</v>
+      </c>
+      <c r="V13" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Las_Guacamayas,_Centro_Ecoturístico_11.jpg</v>
+      </c>
+      <c r="W13" t="str">
+        <v>ren "AF1QipPuntpG2LT7XYCSrCEOsFu9XTvSfM5cDP6tAD0c=w408-h272-k-no" "Las_Guacamayas,_Centro_Ecoturístico_11.jpg"</v>
+      </c>
+      <c r="X13" t="str">
+        <v>parques-ecoturismo-en-chiapas</v>
+      </c>
+      <c r="Y13" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en undefined? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parque ecoturístico que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parque ecoturístico que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en undefined durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los centro ecoturístico mejor calificados en undefined en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en undefined!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="Z13" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Centro Ecoturístico Las Guacamayas, Centro Ecoturístico&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Las_Guacamayas,_Centro_Ecoturístico_11.jpg" alt="Las Guacamayas, Centro Ecoturístico"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3830.2900336760918!2d-90.8614286!3d16.2568991!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x858b392dc3c12845%3A0xcb28b545166050e1!2sLas%20Guacamayas%2C%20Centro%20Ecotur%C3%ADstico!5e0!3m2!1ses!2smx!4v1679084210261!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;/div&gt;
+                        &lt;p&gt;Si eres de los que disfrutan de los paisajes naturales, entonces tienes que visitar el parque ecoturístico undefined en undefined. Con más de undefined opiniones de visitantes y una calificación promedio de undefined estrellas, este lugar es uno de los más valorados en la región&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Las Guacamayas, Centro Ecoturístico"? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El parque de ecoturismo se ubica enEjido Reforma Agraria sin numero, 29957 Marqués de Comillas, Chis.. Para ir a este sitio, coloca esta dirección en una herramienta de navegación o apóyate con este &lt;a href='https://www.google.com/maps/place/Las+Guacamayas,+Centro+Ecotur%C3%ADstico/@16.2568991,-90.8614286,17z/data=!3m1!4b1!4m9!3m8!1s0x858b392dc3c12845:0xcb28b545166050e1!5m2!4m1!1i2!8m2!3d16.2568991!4d-90.8614286!16s%2Fg%2F1v3_2_yk?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico,Centro Ecoturístico,Parque Ecoturístico,Sitio Ecoturístico,Parque Ecológico,Parque Ecoturístico,Parque Natural,Parque Ecoturístico,Centro de Ecoturismo,Parque de Ecoturismo Las Guacamayas, Centro Ecoturístico&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro ecoturístico Las Guacamayas, Centro Ecoturístico?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Las Guacamayas, Centro Ecoturístico son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;963 151 4803&lt;/li&gt;
+                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;&lt;a href="https://lasguacamayas.org.mx/"&gt;Web del place Las Guacamayas, Centro Ecoturístico&lt;/a&gt;&lt;/li&gt;                                
+                            &lt;/ul&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Las Guacamayas, Centro Ecoturístico?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del sitio ecoturístico Las Guacamayas, Centro Ecoturístico son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Te recomendamos  igual siempre revisar sus redes sociales y contactos digitales antes de ir, pues aunque este horario es oficial, pueden haber cambios en fechas especiales, épocas vacacionales y demás&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="AA13" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Las_Guacamayas,_Centro_Ecoturístico_11.jpg" alt="Las Guacamayas, Centro Ecoturístico"&gt;                
+                </v>
+      </c>
+      <c r="AB13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>centro ecoturístico el Chichonal</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Centro Ecoturístico El Chichonal</v>
+      </c>
+      <c r="D14" t="str">
+        <v>centro ecoturístico el chichonal</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Volcán Chichonal, Chis.</v>
+      </c>
+      <c r="F14" t="str">
+        <v>facebook.com</v>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v>3757</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Chiapas</v>
+      </c>
+      <c r="K14" t="str">
+        <v>https://www.google.com/maps/place/centro+ecotur%C3%ADstico+el+Chichonal/@17.3654867,-93.1892645,17z/data=!3m1!4b1!4m6!3m5!1s0x85ec511c4b7d83c3:0x1e36d86aa8303a42!8m2!3d17.3654867!4d-93.1892645!16s%2Fg%2F11sp504jmk?authuser=0&amp;hl=es</v>
+      </c>
+      <c r="L14" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3807.9635535600987!2d-93.1892645!3d17.365486699999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ec511c4b7d83c3%3A0x1e36d86aa8303a42!2scentro%20ecotur%C3%ADstico%20el%20Chichonal!5e0!3m2!1ses!2smx!4v1679084214846!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="M14" t="str">
+        <v>961 184 3757</v>
+      </c>
+      <c r="N14" t="str">
+        <v>4.4</v>
+      </c>
+      <c r="O14" t="str">
+        <v>5</v>
+      </c>
+      <c r="P14" t="str">
+        <v>Un lugar interesante e importante para hacer turismo con conciencia pues además de caminar por senderos salvajes a la falda del Volcán Chichonal uno aprende a tomar conciencia sobre la manera de estar preparados para cualquier emergencia y…,,</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>https://lh5.googleusercontent.com/p/AF1QipMX0Gx-66CnHIw5uiH4s43Ed_7wY7jq7q79efW5=w426-h240-k-no</v>
+      </c>
+      <c r="R14" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMX0Gx-66CnHIw5uiH4s43Ed_7wY7jq7q79efW5=w426-h240-k-no</v>
+      </c>
+      <c r="S14" t="str">
+        <v>AF1QipMX0Gx-66CnHIw5uiH4s43Ed_7wY7jq7q79efW5=w426-h240-k-no</v>
+      </c>
+      <c r="T14" t="str">
+        <v>centro_ecoturístico_el_Chichonal_12</v>
+      </c>
+      <c r="U14" t="str">
+        <v>centro_ecoturístico_el_Chichonal_12.jpg</v>
+      </c>
+      <c r="V14" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/centro_ecoturístico_el_Chichonal_12.jpg</v>
+      </c>
+      <c r="W14" t="str">
+        <v>ren "AF1QipMX0Gx-66CnHIw5uiH4s43Ed_7wY7jq7q79efW5=w426-h240-k-no" "centro_ecoturístico_el_Chichonal_12.jpg"</v>
+      </c>
+      <c r="X14" t="str">
+        <v>parques-ecoturismo-en-chiapas</v>
+      </c>
+      <c r="Y14" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en undefined? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parque ecoturístico que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parque ecológico que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en undefined durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los centro de ecoturismo mejor calificados en undefined en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en undefined!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="Z14" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Centro Ecoturístico El Chichonal&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/centro_ecoturístico_el_Chichonal_12.jpg" alt="centro ecoturístico el Chichonal"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3807.9635535600987!2d-93.1892645!3d17.365486699999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ec511c4b7d83c3%3A0x1e36d86aa8303a42!2scentro%20ecotur%C3%ADstico%20el%20Chichonal!5e0!3m2!1ses!2smx!4v1679084214846!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;/div&gt;
+                        &lt;p&gt;Si se trata de explorar la belleza natural de undefined, entonces el parque natural undefined es lo que llamamos un "must". Este centro ecoturístico está recomendado por más de undefined opiniones de visitantes que lo han evaluado hasta con undefined estrellas. Se trata de uno de los espacios naturales más amenos de la región y por eso una alternativa que no debes dejar de visitar si andas por undefined buscando algo natural&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Centro Ecoturístico El Chichonal"? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El parque ecoturístico se ubica enVolcán Chichonal, Chis.. Puedes llegar a este centro facilmente manejando apoyándote en una aplicación de navegación (ej. maps) o consultando este &lt;a href='https://www.google.com/maps/place/centro+ecotur%C3%ADstico+el+Chichonal/@17.3654867,-93.1892645,17z/data=!3m1!4b1!4m6!3m5!1s0x85ec511c4b7d83c3:0x1e36d86aa8303a42!8m2!3d17.3654867!4d-93.1892645!16s%2Fg%2F11sp504jmk?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico,Centro Ecoturístico,Parque Ecoturístico,Sitio Ecoturístico,Parque Ecológico,Parque Ecoturístico,Parque Natural,Parque Ecoturístico,Centro de Ecoturismo,Parque de Ecoturismo Centro Ecoturístico El Chichonal&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque de ecoturismo Centro Ecoturístico El Chichonal?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Parque Natural Centro Ecoturístico El Chichonal son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;facebook.com&lt;/li&gt;
+                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;&lt;a href=""&gt;Web del place centro ecoturístico el Chichonal&lt;/a&gt;&lt;/li&gt;                                
+                            &lt;/ul&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque natural Centro Ecoturístico El Chichonal?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del parque ecoturístico Centro Ecoturístico El Chichonal son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Martes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Miércoles Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Jueves Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Viernes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Sábado Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Domingo Abierto las 24 horas&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Te recomendamos  igual siempre revisar sus redes sociales y contactos digitales antes de ir, pues aunque este horario es oficial, pueden haber cambios en fechas especiales, épocas vacacionales y demás&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="AA14" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/centro_ecoturístico_el_Chichonal_12.jpg" alt="centro ecoturístico el Chichonal"&gt;                
+                </v>
+      </c>
+      <c r="AB14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Centro Ecoturístico Mitzit'já</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Centro Ecoturístico Mitzit'já</v>
+      </c>
+      <c r="D15" t="str">
+        <v>centro ecoturístico mitzit'já</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Antes de llegar al ejido, 29960 La Cascada, Chis.</v>
+      </c>
+      <c r="F15" t="str">
+        <v>No cuenta con teléfono</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Web no disponible</v>
+      </c>
+      <c r="I15" t="str">
+        <v>La Cascada, Chiapas</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Chiapas</v>
+      </c>
+      <c r="K15" t="str">
+        <v>https://www.google.com/maps/place/Centro+Ecotur%C3%ADstico+Mitzit'j%C3%A1/@17.3844977,-91.8078671,17z/data=!3m1!4b1!4m6!3m5!1s0x85f3ac97af40f41b:0x392f4bfd8343483a!8m2!3d17.3844977!4d-91.8078671!16s%2Fg%2F11gbzcjw7d?authuser=0&amp;hl=es</v>
+      </c>
+      <c r="L15" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3807.5682228561263!2d-91.8078671!3d17.3844977!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85f3ac97af40f41b%3A0x392f4bfd8343483a!2sCentro%20Ecotur%C3%ADstico%20Mitzit&amp;#39;j%C3%A1!5e0!3m2!1ses!2smx!4v1679084219095!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="M15" t="str">
+        <v>95MR+QV La Cascada, Chiapas</v>
+      </c>
+      <c r="N15" t="str">
+        <v>4.9</v>
+      </c>
+      <c r="O15" t="str">
+        <v>10</v>
+      </c>
+      <c r="P15" t="str">
+        <v>Mitzit’já es un centro ecoturístico ubicado en la comunidad de La Cascada, perteneciente al municipio de Palenque, Chiapas.…,Es un lugar muy bonito, aunque sus señalamientos no son tan visibles,Naturaleza bello lugar solo faltan algunas cosas para estar al cien</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>https://lh5.googleusercontent.com/p/AF1QipOqOQ6OGN9AmksEUhUW1qQS4ndxhoa0_cpRfuiK=w408-h306-k-no</v>
+      </c>
+      <c r="R15" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipOqOQ6OGN9AmksEUhUW1qQS4ndxhoa0_cpRfuiK=w408-h306-k-no</v>
+      </c>
+      <c r="S15" t="str">
+        <v>AF1QipOqOQ6OGN9AmksEUhUW1qQS4ndxhoa0_cpRfuiK=w408-h306-k-no</v>
+      </c>
+      <c r="T15" t="str">
+        <v>Centro_Ecoturístico_Mitzit'já_13</v>
+      </c>
+      <c r="U15" t="str">
+        <v>Centro_Ecoturístico_Mitzit'já_13.jpg</v>
+      </c>
+      <c r="V15" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturístico_Mitzit'já_13.jpg</v>
+      </c>
+      <c r="W15" t="str">
+        <v>ren "AF1QipOqOQ6OGN9AmksEUhUW1qQS4ndxhoa0_cpRfuiK=w408-h306-k-no" "Centro_Ecoturístico_Mitzit'já_13.jpg"</v>
+      </c>
+      <c r="X15" t="str">
+        <v>parques-ecoturismo-en-chiapas</v>
+      </c>
+      <c r="Y15" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en undefined? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  centro de ecoturismo que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los centro de ecoturismo que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en undefined durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los sitio ecoturístico mejor calificados en undefined en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en undefined!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="Z15" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Centro Ecoturístico Centro Ecoturístico Mitzit'já&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturístico_Mitzit'já_13.jpg" alt="Centro Ecoturístico Mitzit'já"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3807.5682228561263!2d-91.8078671!3d17.3844977!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85f3ac97af40f41b%3A0x392f4bfd8343483a!2sCentro%20Ecotur%C3%ADstico%20Mitzit&amp;#39;j%C3%A1!5e0!3m2!1ses!2smx!4v1679084219095!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;/div&gt;
+                        &lt;p&gt;Bueno... pues ya que andas buscando salir de lo cotidiano... ¿Qué tal disfrutar de algunos de los paisajes más bonitos y naturales de undefined?. Pues eso es lo que parque ecoturístico undefined te ofrece. Este sitio tiene una calificación promedio de undefined estrellas, a partir de opiniones de al menos undefined visitantes previos a ti, y es por eso que se considera uno de los top de este estado. Así que nada... sin excusas y ¡a vivir esta experiencia en la naturaleza!&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Centro Ecoturístico Mitzit'já"? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El parque ecoturístico se ubica enAntes de llegar al ejido, 29960 La Cascada, Chis.. Para llegar a este lugar, simplemente ingresa la dirección en una app de navegación o utiliza este enlace al&lt;a href='https://www.google.com/maps/place/Centro+Ecotur%C3%ADstico+Mitzit'j%C3%A1/@17.3844977,-91.8078671,17z/data=!3m1!4b1!4m6!3m5!1s0x85f3ac97af40f41b:0x392f4bfd8343483a!8m2!3d17.3844977!4d-91.8078671!16s%2Fg%2F11gbzcjw7d?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico,Centro Ecoturístico,Parque Ecoturístico,Sitio Ecoturístico,Parque Ecológico,Parque Ecoturístico,Parque Natural,Parque Ecoturístico,Centro de Ecoturismo,Parque de Ecoturismo Centro Ecoturístico Mitzit'já&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro ecoturístico Centro Ecoturístico Mitzit'já?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Centro Ecoturístico Mitzit'já son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;No cuenta con teléfono&lt;/li&gt;
+                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
+                            &lt;/ul&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Centro Ecoturístico Mitzit'já?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del sitio ecoturístico Centro Ecoturístico Mitzit'já son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Martes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Miércoles Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Jueves Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Viernes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Sábado Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Domingo Abierto las 24 horas&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;A pesar de contar con horarios oficiales, te recomendamos siempre visitar sus sitios de contacto y redes oficiales antes de ir al lugar, así podrás identificar cualquier cambio extraordinario que hayan tenido.&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="AA15" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturístico_Mitzit'já_13.jpg" alt="Centro Ecoturístico Mitzit'já"&gt;                
+                </v>
+      </c>
+      <c r="AB15" t="str">
+        <v>Añadir número de teléfono del sitio,Añadir sitio web</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Cabañas camino real tziscao</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Cabañas Camino Real Tziscao</v>
+      </c>
+      <c r="D16" t="str">
+        <v>cabañas camino real tziscao</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Parque nacional lagunas de monte bello, 30160, Av. del Lago de Tziscao, 30160 Chis.</v>
+      </c>
+      <c r="F16" t="str">
+        <v>+502 4669 5813</v>
+      </c>
+      <c r="G16" t="str">
+        <v>http://www.ecotziscao.com/</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Laguna de Montebello, Chiapas</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Chiapas</v>
+      </c>
+      <c r="K16" t="str">
+        <v>https://www.google.com/maps/place/Caba%C3%B1as+camino+real+tziscao/@16.0767945,-91.6775632,17z/data=!3m1!4b1!4m6!3m5!1s0x858ce6281f83931f:0x4302ac58262f4319!8m2!3d16.0767945!4d-91.6775632!16s%2Fg%2F1pzv4y060?authuser=0&amp;hl=es</v>
+      </c>
+      <c r="L16" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3833.782076555282!2d-91.6775632!3d16.0767945!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x858ce6281f83931f%3A0x4302ac58262f4319!2sCaba%C3%B1as%20camino%20real%20tziscao!5e0!3m2!1ses!2smx!4v1679084224073!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="M16" t="str">
+        <v>38GC+PX Laguna de Montebello, Chiapas</v>
+      </c>
+      <c r="N16" t="str">
+        <v>4.7</v>
+      </c>
+      <c r="O16" t="str">
+        <v>2.402</v>
+      </c>
+      <c r="P16" t="str">
+        <v>Sin duda una gran estancia en la cabaña frente al lago tziscao, el servicio y la hospitalidad del staff, agradecimiento especial a Alessandro, gran ubicacion y vista, cabaña con chimenea y agua caliente, tv, wifi, leña disponible para fogata , la comida del restaurante excelente. Muchas gracias volveremos pronto.,Es un lugar hermoso, al que volveré sin duda y muy pronto. Cabe destacar la belleza y claridad del agua, el cuidado que los pobladores y comerciantes de la zona tienen. Permite que el manejo sostenible a nivel comunitario sea una realidad.…,Un maravilloso lugar, lleno de magia y belleza. La gente es muy amable y cuida mucho el lugar ,así que hay que cooperar no tirando basura y cuidando todo el entorno. Les recomiendo que contraten un guía para que visiten muchos lugares, ellos están a la entrada del lugar y es cooperación voluntaria.</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>https://lh5.googleusercontent.com/p/AF1QipOLKo0l3_hH-8rYRIFeIR2hMPMsv03D5akIssgT=w408-h306-k-no</v>
+      </c>
+      <c r="R16" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipOLKo0l3_hH-8rYRIFeIR2hMPMsv03D5akIssgT=w408-h306-k-no</v>
+      </c>
+      <c r="S16" t="str">
+        <v>AF1QipOLKo0l3_hH-8rYRIFeIR2hMPMsv03D5akIssgT=w408-h306-k-no</v>
+      </c>
+      <c r="T16" t="str">
+        <v>Cabañas_camino_real_tziscao_14</v>
+      </c>
+      <c r="U16" t="str">
+        <v>Cabañas_camino_real_tziscao_14.jpg</v>
+      </c>
+      <c r="V16" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Cabañas_camino_real_tziscao_14.jpg</v>
+      </c>
+      <c r="W16" t="str">
+        <v>ren "AF1QipOLKo0l3_hH-8rYRIFeIR2hMPMsv03D5akIssgT=w408-h306-k-no" "Cabañas_camino_real_tziscao_14.jpg"</v>
+      </c>
+      <c r="X16" t="str">
+        <v>parques-ecoturismo-en-chiapas</v>
+      </c>
+      <c r="Y16" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en undefined? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parque natural que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parque de ecoturismo que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en undefined durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los centro de ecoturismo mejor calificados en undefined en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en undefined!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="Z16" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Parque Ecológico Cabañas Camino Real Tziscao&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Cabañas_camino_real_tziscao_14.jpg" alt="Cabañas camino real tziscao"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3833.782076555282!2d-91.6775632!3d16.0767945!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x858ce6281f83931f%3A0x4302ac58262f4319!2sCaba%C3%B1as%20camino%20real%20tziscao!5e0!3m2!1ses!2smx!4v1679084224073!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;/div&gt;
+                        &lt;p&gt;¿Quieres vivir un paseo increible en contacto con la naturaleza? entonces no puedes dejar de considerar una visita al parque de ecoturismo undefined en undefined. Con una calificación promedio de undefined estrellas y más de undefined opiniones de visitantes, este lugar es una de las mejores opciones para los amantes del ecoturismo en esta región. Así es que ¡toma nota  de todo lo requerido para tu visita a continuación!&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Cabañas Camino Real Tziscao"? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El parque ecológico se ubica enParque nacional lagunas de monte bello, 30160, Av. del Lago de Tziscao, 30160 Chis.. Para llegar a este parque, simplemente sigue las indicaciones de tu aplicación de navegación preferida o utiliza este link al &lt;a href='https://www.google.com/maps/place/Caba%C3%B1as+camino+real+tziscao/@16.0767945,-91.6775632,17z/data=!3m1!4b1!4m6!3m5!1s0x858ce6281f83931f:0x4302ac58262f4319!8m2!3d16.0767945!4d-91.6775632!16s%2Fg%2F1pzv4y060?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico,Centro Ecoturístico,Parque Ecoturístico,Sitio Ecoturístico,Parque Ecológico,Parque Ecoturístico,Parque Natural,Parque Ecoturístico,Centro de Ecoturismo,Parque de Ecoturismo Cabañas Camino Real Tziscao&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque natural Cabañas Camino Real Tziscao?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Centro Ecoturístico Cabañas Camino Real Tziscao son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;+502 4669 5813&lt;/li&gt;
+                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;&lt;a href="http://www.ecotziscao.com/"&gt;Web del place Cabañas camino real tziscao&lt;/a&gt;&lt;/li&gt;                                
+                            &lt;/ul&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Cabañas Camino Real Tziscao?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del parque ecoturístico Cabañas Camino Real Tziscao son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes de 07:00 a 22:30&lt;/li&gt;
+                                &lt;li&gt;Martes de 07:00 a 10:00&lt;/li&gt;
+                                &lt;li&gt;Miércoles de 07:00 a 22:30&lt;/li&gt;
+                                &lt;li&gt;Jueves de 07:00 a 22:00&lt;/li&gt;
+                                &lt;li&gt;Viernes de 07:00 a 21:30&lt;/li&gt;
+                                &lt;li&gt;Sábado de 07:00 a 22:30&lt;/li&gt;
+                                &lt;li&gt;Domingo Abierto las 24 horas&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Aunque los horarios estén oficialmente vigentes, es bueno que cheques en sus redes y canales digitales el estátus del centro o parque antes de ir. Así te aseguras de que no ha habido cambios especiales o cierres extraordinarios por feriados o holidays especiales&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="AA16" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Cabañas_camino_real_tziscao_14.jpg" alt="Cabañas camino real tziscao"&gt;                
+                </v>
+      </c>
+      <c r="AB16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>SIMA DE LAS COTORRAS-ECO PARQUE</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Sima De Las Cotorras-eco Parque</v>
+      </c>
+      <c r="D17" t="str">
+        <v>sima de las cotorras-eco parque</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Unnamed Road, 29140 Piedra Parada, Chis.</v>
+      </c>
+      <c r="F17" t="str">
+        <v>967 678 3909</v>
+      </c>
+      <c r="G17" t="str">
+        <v>https://www.simadelascotorras.com/</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Piedra Parada, Chiapas</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Chiapas</v>
+      </c>
+      <c r="K17" t="str">
+        <v>https://www.google.com/maps/place/SIMA+DE+LAS+COTORRAS-ECO+PARQUE/@16.8077278,-93.4750132,17z/data=!3m1!4b1!4m9!3m8!1s0x85ecc6f1fcb1842f:0x4673937a8b7f8d13!5m2!4m1!1i2!8m2!3d16.8077278!4d-93.4750132!16s%2Fg%2F1pxxnt3zf?authuser=0&amp;hl=es</v>
+      </c>
+      <c r="L17" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3819.3752985551187!2d-93.47501319999999!3d16.8077278!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ecc6f1fcb1842f%3A0x4673937a8b7f8d13!2sSIMA%20DE%20LAS%20COTORRAS-ECO%20PARQUE!5e0!3m2!1ses!2smx!4v1679084228346!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="M17" t="str">
+        <v>RG5F+3X Piedra Parada, Chiapas</v>
+      </c>
+      <c r="N17" t="str">
+        <v>0.0</v>
+      </c>
+      <c r="O17" t="str">
+        <v>0</v>
+      </c>
+      <c r="P17" t="str">
+        <v>no hay opiniones</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>https://lh5.googleusercontent.com/p/AF1QipOYrxwF_GaAQC6BaOu5CqcxWBMeWcEuZDloXBdX=w408-h272-k-no</v>
+      </c>
+      <c r="R17" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipOYrxwF_GaAQC6BaOu5CqcxWBMeWcEuZDloXBdX=w408-h272-k-no</v>
+      </c>
+      <c r="S17" t="str">
+        <v>AF1QipOYrxwF_GaAQC6BaOu5CqcxWBMeWcEuZDloXBdX=w408-h272-k-no</v>
+      </c>
+      <c r="T17" t="str">
+        <v>SIMA_DE_LAS_COTORRAS-ECO_PARQUE_15</v>
+      </c>
+      <c r="U17" t="str">
+        <v>SIMA_DE_LAS_COTORRAS-ECO_PARQUE_15.jpg</v>
+      </c>
+      <c r="V17" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/SIMA_DE_LAS_COTORRAS-ECO_PARQUE_15.jpg</v>
+      </c>
+      <c r="W17" t="str">
+        <v>ren "AF1QipOYrxwF_GaAQC6BaOu5CqcxWBMeWcEuZDloXBdX=w408-h272-k-no" "SIMA_DE_LAS_COTORRAS-ECO_PARQUE_15.jpg"</v>
+      </c>
+      <c r="X17" t="str">
+        <v>parques-ecoturismo-en-chiapas</v>
+      </c>
+      <c r="Y17" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en undefined? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  sitio ecoturístico que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parque ecoturístico que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en undefined durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los parque de ecoturismo mejor calificados en undefined en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en undefined!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="Z17" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Sitio Ecoturístico Sima De Las Cotorras-eco Parque&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/SIMA_DE_LAS_COTORRAS-ECO_PARQUE_15.jpg" alt="SIMA DE LAS COTORRAS-ECO PARQUE"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3819.3752985551187!2d-93.47501319999999!3d16.8077278!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ecc6f1fcb1842f%3A0x4673937a8b7f8d13!2sSIMA%20DE%20LAS%20COTORRAS-ECO%20PARQUE!5e0!3m2!1ses!2smx!4v1679084228346!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;/div&gt;
+                        &lt;p&gt;Bueno... pues ya que andas buscando salir de lo cotidiano... ¿Qué tal disfrutar de algunos de los paisajes más bonitos y naturales de undefined?. Pues eso es lo que centro de ecoturismo undefined te ofrece. Este sitio tiene una calificación promedio de undefined estrellas, a partir de opiniones de al menos undefined visitantes previos a ti, y es por eso que se considera uno de los top de este estado. Así que nada... sin excusas y ¡a vivir esta experiencia en la naturaleza!&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Sima De Las Cotorras-eco Parque"? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El parque natural se ubica enUnnamed Road, 29140 Piedra Parada, Chis.. Para encontrar el lugar, símplemente apóyate de una app de navegación (ej. GoogleMaps) ingresando esta dirección, o utiliza este enlace al&lt;a href='https://www.google.com/maps/place/SIMA+DE+LAS+COTORRAS-ECO+PARQUE/@16.8077278,-93.4750132,17z/data=!3m1!4b1!4m9!3m8!1s0x85ecc6f1fcb1842f:0x4673937a8b7f8d13!5m2!4m1!1i2!8m2!3d16.8077278!4d-93.4750132!16s%2Fg%2F1pxxnt3zf?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico,Centro Ecoturístico,Parque Ecoturístico,Sitio Ecoturístico,Parque Ecológico,Parque Ecoturístico,Parque Natural,Parque Ecoturístico,Centro de Ecoturismo,Parque de Ecoturismo Sima De Las Cotorras-eco Parque&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque natural Sima De Las Cotorras-eco Parque?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Sima De Las Cotorras-eco Parque son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;967 678 3909&lt;/li&gt;
+                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;&lt;a href="https://www.simadelascotorras.com/"&gt;Web del place SIMA DE LAS COTORRAS-ECO PARQUE&lt;/a&gt;&lt;/li&gt;                                
+                            &lt;/ul&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecológico Sima De Las Cotorras-eco Parque?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del parque ecoturístico Sima De Las Cotorras-eco Parque son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Te sugerimos verificar siempre sus canales digitales y redes sociales antes de ir al parque pues incluso si cuentas con los horarios oficiales, pudiera haber cambios especiales por feriados, vacaciones o situaciones inesperadas&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="AA17" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/SIMA_DE_LAS_COTORRAS-ECO_PARQUE_15.jpg" alt="SIMA DE LAS COTORRAS-ECO PARQUE"&gt;                
+                </v>
+      </c>
+      <c r="AB17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Parque Ecoturistico "La Changa"</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Parque Ecoturistico "la Changa"</v>
+      </c>
+      <c r="D18" t="str">
+        <v>parque ecoturistico "la changa"</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Unnamed Road, Chiapas</v>
+      </c>
+      <c r="F18" t="str">
+        <v>No cuenta con teléfono</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Web no disponible</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Teotihuacán del Valle, Chiapas</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Chiapas</v>
+      </c>
+      <c r="K18" t="str">
+        <v>https://www.google.com/maps/place/Parque+Ecoturistico+%22La+Changa%22/@15.0007147,-92.2347734,17z/data=!3m1!4b1!4m6!3m5!1s0x858e09ed0b48a507:0x4d66673427178ee4!8m2!3d15.0007147!4d-92.2347734!16s%2Fg%2F11gblc0qlj?authuser=0&amp;hl=es</v>
+      </c>
+      <c r="L18" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3853.8556764936!2d-92.2347734!3d15.000714699999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x858e09ed0b48a507%3A0x4d66673427178ee4!2sParque%20Ecoturistico%20%22La%20Changa%22!5e0!3m2!1ses!2smx!4v1679084232995!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="M18" t="str">
+        <v>2Q28+73 Teotihuacán del Valle, Chiapas</v>
+      </c>
+      <c r="N18" t="str">
+        <v>4.4</v>
+      </c>
+      <c r="O18" t="str">
+        <v>107</v>
+      </c>
+      <c r="P18" t="str" xml:space="preserve">
+        <v xml:space="preserve">Tristemente hace falta personal para atender la pequeña demanda que experimentan.
+No hay encargados a la vista o si los hay, no aparecen.
+Meseros enojados ( no todos ),Maravilloso lugar para ir con la familia y amigxs 💕 actividades con respeto a la naturaleza, cerca de la ciudad para ir en auto o bici 💜🥰…,Un lugar muy bonito, buena ubicación alejado de la ciudad y el bullicio. El contra es que lo tienen bastante descuidado.…</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>https://lh5.googleusercontent.com/p/AF1QipO3Avv_fUTd_OS8M6t4JLVSMhOGInbIjKbVoKf1=w408-h306-k-no</v>
+      </c>
+      <c r="R18" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipO3Avv_fUTd_OS8M6t4JLVSMhOGInbIjKbVoKf1=w408-h306-k-no</v>
+      </c>
+      <c r="S18" t="str">
+        <v>AF1QipO3Avv_fUTd_OS8M6t4JLVSMhOGInbIjKbVoKf1=w408-h306-k-no</v>
+      </c>
+      <c r="T18" t="str">
+        <v>Parque_Ecoturistico_"La_Changa"_16</v>
+      </c>
+      <c r="U18" t="str">
+        <v>Parque_Ecoturistico_"La_Changa"_16.jpg</v>
+      </c>
+      <c r="V18" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Parque_Ecoturistico_"La_Changa"_16.jpg</v>
+      </c>
+      <c r="W18" t="str">
+        <v>ren "AF1QipO3Avv_fUTd_OS8M6t4JLVSMhOGInbIjKbVoKf1=w408-h306-k-no" "Parque_Ecoturistico_"La_Changa"_16.jpg"</v>
+      </c>
+      <c r="X18" t="str">
+        <v>parques-ecoturismo-en-chiapas</v>
+      </c>
+      <c r="Y18" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en undefined? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  centro ecoturístico que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los centro de ecoturismo que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en undefined durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los centro ecoturístico mejor calificados en undefined en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en undefined!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="Z18" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Parque Natural Parque Ecoturistico "la Changa"&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Parque_Ecoturistico_"La_Changa"_16.jpg" alt="Parque Ecoturistico "La Changa""&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3853.8556764936!2d-92.2347734!3d15.000714699999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x858e09ed0b48a507%3A0x4d66673427178ee4!2sParque%20Ecoturistico%20%22La%20Changa%22!5e0!3m2!1ses!2smx!4v1679084232995!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;/div&gt;
+                        &lt;p&gt;¿Quieres vivir un paseo increible en contacto con la naturaleza? entonces no puedes dejar de considerar una visita al parque ecoturístico undefined en undefined. Con una calificación promedio de undefined estrellas y más de undefined opiniones de visitantes, este lugar es una de las mejores opciones para los amantes del ecoturismo en esta región. Así es que ¡toma nota  de todo lo requerido para tu visita a continuación!&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro de Ecoturismo "Parque Ecoturistico "la Changa""? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El parque ecoturístico se ubica enUnnamed Road, Chiapas. Para encontrar esta dirección, puedes apoyarte en tu app de navegación favorita o irte directo a la navegación de googleMaps por medio de este &lt;a href='https://www.google.com/maps/place/Parque+Ecoturistico+%22La+Changa%22/@15.0007147,-92.2347734,17z/data=!3m1!4b1!4m6!3m5!1s0x858e09ed0b48a507:0x4d66673427178ee4!8m2!3d15.0007147!4d-92.2347734!16s%2Fg%2F11gblc0qlj?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico,Centro Ecoturístico,Parque Ecoturístico,Sitio Ecoturístico,Parque Ecológico,Parque Ecoturístico,Parque Natural,Parque Ecoturístico,Centro de Ecoturismo,Parque de Ecoturismo Parque Ecoturistico "la Changa"&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque natural Parque Ecoturistico "la Changa"?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Centro Ecoturístico Parque Ecoturistico "la Changa" son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;No cuenta con teléfono&lt;/li&gt;
+                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
+                            &lt;/ul&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro ecoturístico Parque Ecoturistico "la Changa"?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del parque natural Parque Ecoturistico "la Changa" son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes de 10:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Martes de 10:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Miércoles de 10:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Jueves de 10:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Viernes de 10:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Sábado de 10:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Domingo de 10:00 a 18:00&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Aunque estos horarios están oficialmente vigentes, siempre es bueno consultar sus sitios de contacto y redes oficiales antes de visitarlos, por cualquier cambio extraordinario que pudieran tener.&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="AA18" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Parque_Ecoturistico_"La_Changa"_16.jpg" alt="Parque Ecoturistico "La Changa""&gt;                
+                </v>
+      </c>
+      <c r="AB18" t="str">
+        <v>Añadir número de teléfono del sitio,Añadir sitio web</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>PARQUE ECOTURISTICO LA MONTAÑITA</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Parque Ecoturistico La Montañita</v>
+      </c>
+      <c r="D19" t="str">
+        <v>parque ecoturistico la montañita</v>
+      </c>
+      <c r="E19" t="str">
+        <v>30530 Jericó, Chis.</v>
+      </c>
+      <c r="F19" t="str">
+        <v>No cuenta con teléfono</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Web no disponible</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Jericó, Chiapas</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Chiapas</v>
+      </c>
+      <c r="K19" t="str">
+        <v>https://www.google.com/maps/place/PARQUE+ECOTURISTICO+LA+MONTA%C3%91ITA/@16.2865097,-92.9640792,17z/data=!3m1!4b1!4m6!3m5!1s0x8592db175bd419c1:0x7a187559abb3782c!8m2!3d16.2865097!4d-92.9640792!16s%2Fg%2F11gmyt2t0g?authuser=0&amp;hl=es</v>
+      </c>
+      <c r="L19" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3829.712290977394!2d-92.9640792!3d16.2865097!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8592db175bd419c1%3A0x7a187559abb3782c!2sPARQUE%20ECOTURISTICO%20LA%20MONTA%C3%91ITA!5e0!3m2!1ses!2smx!4v1679084237503!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="M19" t="str">
+        <v>72PP+J9 Jericó, Chiapas</v>
+      </c>
+      <c r="N19" t="str">
+        <v>4.3</v>
+      </c>
+      <c r="O19" t="str">
+        <v>12</v>
+      </c>
+      <c r="P19" t="str">
+        <v>es un parque lleno de viva  con arboles grandes y viejos   animales insectos, un lugar perfecto para salir en familia,El lugar es muy bonito lo que lo echa a perder es los teporochos que están ahí,Muy buen lugar para relajarse</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>https://lh5.googleusercontent.com/p/AF1QipOy1-ih7R62l754V6ZM592ZXIJTJ1E15p6DvNsC=w408-h545-k-no</v>
+      </c>
+      <c r="R19" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipOy1-ih7R62l754V6ZM592ZXIJTJ1E15p6DvNsC=w408-h545-k-no</v>
+      </c>
+      <c r="S19" t="str">
+        <v>AF1QipOy1-ih7R62l754V6ZM592ZXIJTJ1E15p6DvNsC=w408-h545-k-no</v>
+      </c>
+      <c r="T19" t="str">
+        <v>PARQUE_ECOTURISTICO_LA_MONTAÑITA_17</v>
+      </c>
+      <c r="U19" t="str">
+        <v>PARQUE_ECOTURISTICO_LA_MONTAÑITA_17.jpg</v>
+      </c>
+      <c r="V19" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/PARQUE_ECOTURISTICO_LA_MONTAÑITA_17.jpg</v>
+      </c>
+      <c r="W19" t="str">
+        <v>ren "AF1QipOy1-ih7R62l754V6ZM592ZXIJTJ1E15p6DvNsC=w408-h545-k-no" "PARQUE_ECOTURISTICO_LA_MONTAÑITA_17.jpg"</v>
+      </c>
+      <c r="X19" t="str">
+        <v>parques-ecoturismo-en-chiapas</v>
+      </c>
+      <c r="Y19" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en undefined? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  sitio ecoturístico que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los sitio ecoturístico que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en undefined durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los parque ecoturístico mejor calificados en undefined en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en undefined!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="Z19" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Centro de Ecoturismo Parque Ecoturistico La Montañita&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/PARQUE_ECOTURISTICO_LA_MONTAÑITA_17.jpg" alt="PARQUE ECOTURISTICO LA MONTAÑITA"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3829.712290977394!2d-92.9640792!3d16.2865097!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8592db175bd419c1%3A0x7a187559abb3782c!2sPARQUE%20ECOTURISTICO%20LA%20MONTA%C3%91ITA!5e0!3m2!1ses!2smx!4v1679084237503!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;/div&gt;
+                        &lt;p&gt;El parque ecoturístico undefined es una opción fantástica para tener una aventura natural en undefined. Su calificación promedio es de undefined estrellas respaldada por más de undefined visitantes, así que no tenemos duda de que este lugar pertenece a la lista de los parques naturales mejor rankeados de de undefined y que se trata de uno de los principales atractivos naturales en la región. Así que ya sabes... ¿ganas de naturaleza?... pues entonces el parque ecoturístico undefined es una grandísima opción&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecológico "Parque Ecoturistico La Montañita"? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El sitio ecoturístico se ubica en30530 Jericó, Chis.. Para ir llegar a este lugar sólo necesitas poner la dirección en una app tipo googleMaps o irte siguiendo este link del &lt;a href='https://www.google.com/maps/place/PARQUE+ECOTURISTICO+LA+MONTA%C3%91ITA/@16.2865097,-92.9640792,17z/data=!3m1!4b1!4m6!3m5!1s0x8592db175bd419c1:0x7a187559abb3782c!8m2!3d16.2865097!4d-92.9640792!16s%2Fg%2F11gmyt2t0g?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico,Centro Ecoturístico,Parque Ecoturístico,Sitio Ecoturístico,Parque Ecológico,Parque Ecoturístico,Parque Natural,Parque Ecoturístico,Centro de Ecoturismo,Parque de Ecoturismo Parque Ecoturistico La Montañita&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Parque Ecoturistico La Montañita?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Centro Ecoturístico Parque Ecoturistico La Montañita son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;No cuenta con teléfono&lt;/li&gt;
+                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
+                            &lt;/ul&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro de ecoturismo Parque Ecoturistico La Montañita?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del parque de ecoturismo Parque Ecoturistico La Montañita son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Antes de visitar el lugar, es una buena idea verificar sus sitios de contacto digitales y redes sociales, aún si ya cuentas con los horarios oficiales, para evitar cualquier cambio inesperado o sorpresas ya que estés ahí (por ej. cambio por días feriados)&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="AA19" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/PARQUE_ECOTURISTICO_LA_MONTAÑITA_17.jpg" alt="PARQUE ECOTURISTICO LA MONTAÑITA"&gt;                
+                </v>
+      </c>
+      <c r="AB19" t="str">
+        <v>Añadir número de teléfono del sitio,Añadir horario,Añadir sitio web</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Centro ecoturístico Yibtón</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Centro Ecoturístico Yibtón</v>
+      </c>
+      <c r="D20" t="str">
+        <v>centro ecoturístico yibtón</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Cantón el Tarral Ejido, Aquiles Serdán, 30640 Huixtla, Chis.</v>
+      </c>
+      <c r="F20" t="str">
+        <v>962 116 0427</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Web no disponible</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Huixtla, Chiapas</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Chiapas</v>
+      </c>
+      <c r="K20" t="str">
+        <v>https://www.google.com/maps/place/Centro+ecotur%C3%ADstico+Yibt%C3%B3n/@15.1862961,-92.4936655,17z/data=!3m1!4b1!4m6!3m5!1s0x8592075648310647:0x7ab72cbdf6ff574a!8m2!3d15.1862961!4d-92.4936655!16s%2Fg%2F11frcbwscx?authuser=0&amp;hl=es</v>
+      </c>
+      <c r="L20" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3850.490580172732!2d-92.49366549999999!3d15.186296100000002!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8592075648310647%3A0x7ab72cbdf6ff574a!2sCentro%20ecotur%C3%ADstico%20Yibt%C3%B3n!5e0!3m2!1ses!2smx!4v1679084242121!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="M20" t="str">
+        <v>5GP4+GG Huixtla, Chiapas</v>
+      </c>
+      <c r="N20" t="str">
+        <v>4.3</v>
+      </c>
+      <c r="O20" t="str">
+        <v>4</v>
+      </c>
+      <c r="P20" t="str" xml:space="preserve">
+        <v xml:space="preserve">Desafortunadamente este Centro no está en funcionamiento, al parecer solamente en diciembre.
+El camino requiere de un vehículo alto y de buena potencia porque en gran parte…,Bien,</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>https://lh5.googleusercontent.com/p/AF1QipNY0BExcPvq1mFpJCYra10Fl9MTc-HvPsyCE6kk=w408-h306-k-no</v>
+      </c>
+      <c r="R20" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipNY0BExcPvq1mFpJCYra10Fl9MTc-HvPsyCE6kk=w408-h306-k-no</v>
+      </c>
+      <c r="S20" t="str">
+        <v>AF1QipNY0BExcPvq1mFpJCYra10Fl9MTc-HvPsyCE6kk=w408-h306-k-no</v>
+      </c>
+      <c r="T20" t="str">
+        <v>Centro_ecoturístico_Yibtón_18</v>
+      </c>
+      <c r="U20" t="str">
+        <v>Centro_ecoturístico_Yibtón_18.jpg</v>
+      </c>
+      <c r="V20" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_ecoturístico_Yibtón_18.jpg</v>
+      </c>
+      <c r="W20" t="str">
+        <v>ren "AF1QipNY0BExcPvq1mFpJCYra10Fl9MTc-HvPsyCE6kk=w408-h306-k-no" "Centro_ecoturístico_Yibtón_18.jpg"</v>
+      </c>
+      <c r="X20" t="str">
+        <v>parques-ecoturismo-en-chiapas</v>
+      </c>
+      <c r="Y20" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en undefined? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parque ecoturístico que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parque ecoturístico que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en undefined durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los parque natural mejor calificados en undefined en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en undefined!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="Z20" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Centro Ecoturístico Yibtón&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_ecoturístico_Yibtón_18.jpg" alt="Centro ecoturístico Yibtón"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3850.490580172732!2d-92.49366549999999!3d15.186296100000002!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8592075648310647%3A0x7ab72cbdf6ff574a!2sCentro%20ecotur%C3%ADstico%20Yibt%C3%B3n!5e0!3m2!1ses!2smx!4v1679084242121!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;/div&gt;
+                        &lt;p&gt;¿Te gusta el ecoturismo o andas en undefined buscando algo de aventura natural? Entonces pon ya mismo en tu lista al parque ecoturístico undefined. Este es un lugar ideal para encontrarte con la naturaleza y disfrutar de paisajes lindos. Es un parque ecológico que ha sido evaluado por más de undefined personas y tiene un promedio de undefined estrellas de calificación. Aunque puede que haya algunos detallitos que es posible mejorar, la realidad es que undefined es un paso obligado si lo que estás buscando es ecoturismo y naturaleza en undefined&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque de Ecoturismo "Centro Ecoturístico Yibtón"? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El parque ecoturístico se ubica enCantón el Tarral Ejido, Aquiles Serdán, 30640 Huixtla, Chis.. Para llegar a este parque puedes poner colocar la dirección en una herramienta de navegación tipo waze o irte por medio de este enlace &lt;a href='https://www.google.com/maps/place/Centro+ecotur%C3%ADstico+Yibt%C3%B3n/@15.1862961,-92.4936655,17z/data=!3m1!4b1!4m6!3m5!1s0x8592075648310647:0x7ab72cbdf6ff574a!8m2!3d15.1862961!4d-92.4936655!16s%2Fg%2F11frcbwscx?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico,Centro Ecoturístico,Parque Ecoturístico,Sitio Ecoturístico,Parque Ecológico,Parque Ecoturístico,Parque Natural,Parque Ecoturístico,Centro de Ecoturismo,Parque de Ecoturismo Centro Ecoturístico Yibtón&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque natural Centro Ecoturístico Yibtón?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Sitio Ecoturístico Centro Ecoturístico Yibtón son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;962 116 0427&lt;/li&gt;
+                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
+                            &lt;/ul&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque natural Centro Ecoturístico Yibtón?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del parque de ecoturismo Centro Ecoturístico Yibtón son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Te sugerimos verificar siempre sus canales digitales y redes sociales antes de ir al parque pues incluso si cuentas con los horarios oficiales, pudiera haber cambios especiales por feriados, vacaciones o situaciones inesperadas&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="AA20" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_ecoturístico_Yibtón_18.jpg" alt="Centro ecoturístico Yibtón"&gt;                
+                </v>
+      </c>
+      <c r="AB20" t="str">
+        <v>Añadir sitio web</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Naha Ecoturismo</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Naha Ecoturismo</v>
+      </c>
+      <c r="D21" t="str">
+        <v>naha ecoturismo</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Comunidad de Nahá s/n, Lomas Verdes, 29950 Ocosingo, Chis.</v>
+      </c>
+      <c r="F21" t="str">
+        <v>55 5150 5953</v>
+      </c>
+      <c r="G21" t="str">
+        <v>http://www.nahaecoturismo.com/</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Lacandón, Chiapas</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Chiapas</v>
+      </c>
+      <c r="K21" t="str">
+        <v>https://www.google.com/maps/place/Naha+Ecoturismo/@16.9792672,-91.5850782,17z/data=!3m1!4b1!4m6!3m5!1s0x85f314165d5e01d5:0xf383526b819e9f10!8m2!3d16.9792672!4d-91.5850782!16s%2Fg%2F12qh6kjzv?authuser=0&amp;hl=es</v>
+      </c>
+      <c r="L21" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3815.9040935618677!2d-91.5850782!3d16.9792672!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85f314165d5e01d5%3A0xf383526b819e9f10!2sNaha%20Ecoturismo!5e0!3m2!1ses!2smx!4v1679084246537!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="M21" t="str">
+        <v>XCH7+PX Lacandón, Chiapas</v>
+      </c>
+      <c r="N21" t="str">
+        <v>4.6</v>
+      </c>
+      <c r="O21" t="str">
+        <v>108</v>
+      </c>
+      <c r="P21" t="str">
+        <v>La carretera está en muy malas condiciones, más de la mitad es terracería y al llegar al lugar no es lo que esperas, no es tan agradable y es poco atractivo, no hay mucho que ver y no puedes nadar, es un lugar muy solitario, no hay turistas,Amables y hasta cariñosos. Profesionales en su servicio. Son la mejor opción de hospedaje cómodo en la zona de Naha y Metzabok. Es el acceso a la mejor vista del poderoso y bello lago.,Si piensas olvidarte de la ciudad, éste es el lugar correcto. Hay mucha paz y tranquilidad. Estás en medio de la naturaleza, cerca hay un lago donde puedes dar un paseo con un guía Lacandon. Practicar kayak, hacer tu propio arco y flechas o…</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>https://lh5.googleusercontent.com/p/AF1QipP4CSErU6zcHhojloL6Z3zL64Nx-LN3GxmaEkXI=w426-h240-k-no</v>
+      </c>
+      <c r="R21" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipP4CSErU6zcHhojloL6Z3zL64Nx-LN3GxmaEkXI=w426-h240-k-no</v>
+      </c>
+      <c r="S21" t="str">
+        <v>AF1QipP4CSErU6zcHhojloL6Z3zL64Nx-LN3GxmaEkXI=w426-h240-k-no</v>
+      </c>
+      <c r="T21" t="str">
+        <v>Naha_Ecoturismo_19</v>
+      </c>
+      <c r="U21" t="str">
+        <v>Naha_Ecoturismo_19.jpg</v>
+      </c>
+      <c r="V21" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Naha_Ecoturismo_19.jpg</v>
+      </c>
+      <c r="W21" t="str">
+        <v>ren "AF1QipP4CSErU6zcHhojloL6Z3zL64Nx-LN3GxmaEkXI=w426-h240-k-no" "Naha_Ecoturismo_19.jpg"</v>
+      </c>
+      <c r="X21" t="str">
+        <v>parques-ecoturismo-en-chiapas</v>
+      </c>
+      <c r="Y21" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en undefined? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parque de ecoturismo que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los sitio ecoturístico que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en undefined durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los parque ecoturístico mejor calificados en undefined en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en undefined!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="Z21" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Parque Natural Naha Ecoturismo&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Naha_Ecoturismo_19.jpg" alt="Naha Ecoturismo"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3815.9040935618677!2d-91.5850782!3d16.9792672!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85f314165d5e01d5%3A0xf383526b819e9f10!2sNaha%20Ecoturismo!5e0!3m2!1ses!2smx!4v1679084246537!5m2!1ses!2smx" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;/div&gt;
+                        &lt;p&gt;Bueno... pues ya que andas buscando salir de lo cotidiano... ¿Qué tal disfrutar de algunos de los paisajes más bonitos y naturales de undefined?. Pues eso es lo que parque de ecoturismo undefined te ofrece. Este sitio tiene una calificación promedio de undefined estrellas, a partir de opiniones de al menos undefined visitantes previos a ti, y es por eso que se considera uno de los top de este estado. Así que nada... sin excusas y ¡a vivir esta experiencia en la naturaleza!&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Naha Ecoturismo"? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;El parque ecológico se ubica enComunidad de Nahá s/n, Lomas Verdes, 29950 Ocosingo, Chis.. Para llegar a este sitio, simplemente ingresa la dirección en una app de navegación o síguete este enlace al&lt;a href='https://www.google.com/maps/place/Naha+Ecoturismo/@16.9792672,-91.5850782,17z/data=!3m1!4b1!4m6!3m5!1s0x85f314165d5e01d5:0xf383526b819e9f10!8m2!3d16.9792672!4d-91.5850782!16s%2Fg%2F12qh6kjzv?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico,Centro Ecoturístico,Parque Ecoturístico,Sitio Ecoturístico,Parque Ecológico,Parque Ecoturístico,Parque Natural,Parque Ecoturístico,Centro de Ecoturismo,Parque de Ecoturismo Naha Ecoturismo&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del sitio ecoturístico Naha Ecoturismo?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Sitio Ecoturístico Naha Ecoturismo son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;55 5150 5953&lt;/li&gt;
+                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;&lt;a href="http://www.nahaecoturismo.com/"&gt;Web del place Naha Ecoturismo&lt;/a&gt;&lt;/li&gt;                                
+                            &lt;/ul&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Naha Ecoturismo?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del parque ecológico Naha Ecoturismo son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes de 00:00 a 23:30&lt;/li&gt;
+                                &lt;li&gt;Martes de 00:00 a 23:30&lt;/li&gt;
+                                &lt;li&gt;Miércoles de 00:00 a 23:30&lt;/li&gt;
+                                &lt;li&gt;Jueves de 00:00 a 23:30&lt;/li&gt;
+                                &lt;li&gt;Viernes de 00:00 a 23:30&lt;/li&gt;
+                                &lt;li&gt;Sábado de 00:00 a 23:30&lt;/li&gt;
+                                &lt;li&gt;Domingo de 00:00 a 23:30&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;A pesar de contar con horarios oficiales, te recomendamos siempre visitar sus sitios de contacto y redes oficiales antes de ir al lugar, así podrás identificar cualquier cambio extraordinario que hayan tenido.&lt;/p&gt;                 
+                    </v>
+      </c>
+      <c r="AA21" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Naha_Ecoturismo_19.jpg" alt="Naha Ecoturismo"&gt;                
+                </v>
+      </c>
+      <c r="AB21" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Z11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AB21"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testingAllImports.xlsx
+++ b/testingAllImports.xlsx
@@ -520,7 +520,7 @@
         <v>https://www.google.com/maps/place/Centro+Ecoturistico+El+Nuevo+Mundo+-+Estoracon/@16.8505798,-93.7933739,17z/data=!3m1!4b1!4m6!3m5!1s0x85eca6200d7617bb:0x7498371825377da6!8m2!3d16.8505798!4d-93.7933739!16s%2Fg%2F11dxpchfty?authuser=0&amp;hl=es</v>
       </c>
       <c r="L2" t="str">
-        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3818.5113687598837!2d-93.79337389999999!3d16.8505798!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85eca6200d7617bb%3A0x7498371825377da6!2sCentro%20Ecoturistico%20El%20Nuevo%20Mundo%20-%20Estoracon!5e0!3m2!1ses!2smx!4v1679086801983!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3818.5113687598837!2d-93.79337389999999!3d16.8505798!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85eca6200d7617bb%3A0x7498371825377da6!2sCentro%20Ecoturistico%20El%20Nuevo%20Mundo%20-%20Estoracon!5e0!3m2!1ses!2smx!4v1679155875054!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
       </c>
       <c r="M2" t="str">
         <v>V624+6M Estoracón, Chiapas</v>
@@ -560,29 +560,30 @@
       </c>
       <c r="Y2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en undefined? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parque ecoturístico que han sido mejor evaluados en este estado. 
- Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parque natural que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en undefined durante los últimos años. 
- Con esta prueba social como respaldo, hoy te compartimos la lista de los parque ecológico mejor calificados en undefined en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
- Prepárate con esto y ¡a disfrutar del ecoturismo en undefined!&lt;/p&gt;                    
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en Chiapas? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parques ecoturísticos que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parques de ecoturismo que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en Chiapas durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los parque ecológico mejor calificados en Chiapas en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en Chiapas!&lt;/p&gt;                    
                     </v>
       </c>
       <c r="Z2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-                    &lt;h2&gt;&lt;b&gt;Centro Ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon&lt;/b&gt;&lt;/h2&gt;
+                    &lt;h2&gt;&lt;b&gt;Sitio Ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon&lt;/b&gt;&lt;/h2&gt;
                         &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturistico_El_Nuevo_Mundo_-_Estoracon_0.jpg" alt="Centro Ecoturistico El Nuevo Mundo - Estoracon"&gt;   
-                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3818.5113687598837!2d-93.79337389999999!3d16.8505798!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85eca6200d7617bb%3A0x7498371825377da6!2sCentro%20Ecoturistico%20El%20Nuevo%20Mundo%20-%20Estoracon!5e0!3m2!1ses!2smx!4v1679086801983!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3818.5113687598837!2d-93.79337389999999!3d16.8505798!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85eca6200d7617bb%3A0x7498371825377da6!2sCentro%20Ecoturistico%20El%20Nuevo%20Mundo%20-%20Estoracon!5e0!3m2!1ses!2smx!4v1679155875054!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
                         &lt;div&gt;&lt;/div&gt;
-                        &lt;p&gt;Si andas en búsca de experiencias únicas en la naturaleza, entonces el parque natural undefined en undefined tiene que ser parte de tu lista. Este es un parque ecoturístico con más de undefined opiniones de visitantes y que ha sido de manera consistente calificado con hasta undefined estrellas, es por eso que aunque pueda tener algunas áreas de mejora, es sin duda uno de los mejores lugares para disfrutar de la naturaleza en la región. Así que no lo pienses mucho más y ¡a visitar undefined!&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecológico "Centro Ecoturistico El Nuevo Mundo - Estoracon"? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;El parque de ecoturismo se ubica enCarretera Sayula S/N, Francisco I. Madero, 30400 Cintalapa, Chis.. Si necesitas llegar a este destino, basta con que ingreses la dirección en una app de navegación o sigas este&lt;a href='https://www.google.com/maps/place/Centro+Ecoturistico+El+Nuevo+Mundo+-+Estoracon/@16.8505798,-93.7933739,17z/data=!3m1!4b1!4m6!3m5!1s0x85eca6200d7617bb:0x7498371825377da6!8m2!3d16.8505798!4d-93.7933739!16s%2Fg%2F11dxpchfty?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico,Centro Ecoturístico,Parque Ecoturístico,Sitio Ecoturístico,Parque Ecológico,Parque Ecoturístico,Parque Natural,Parque Ecoturístico,Centro de Ecoturismo,Parque de Ecoturismo Centro Ecoturistico El Nuevo Mundo - Estoracon&lt;/a&gt;&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los contactos disponibles del Parque Ecológico Centro Ecoturistico El Nuevo Mundo - Estoracon son: &lt;/p&gt;
+                        &lt;p&gt;Bueno... pues ya que andas buscando salir de lo cotidiano... ¿Qué tal disfrutar de algunos de los paisajes más bonitos y naturales de undefined?. Pues eso es lo que centro de ecoturismo undefined te ofrece. Este sitio tiene una calificación promedio de undefined estrellas, a partir de opiniones de al menos undefined visitantes previos a ti, y es por eso que se considera uno de los top de este estado. Así que nada... sin excusas y ¡a vivir esta experiencia en la naturaleza!&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro de Ecoturismo "Centro Ecoturistico El Nuevo Mundo - Estoracon"? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Este parque natural se ubica en Carretera Sayula S/N, Francisco I. Madero, 30400 Cintalapa, Chis.
+ Puedes llegar a este centro facilmente manejando apoyándote en una aplicación de navegación (ej. maps) o consultando este &lt;a href='https://www.google.com/maps/place/Centro+Ecoturistico+El+Nuevo+Mundo+-+Estoracon/@16.8505798,-93.7933739,17z/data=!3m1!4b1!4m6!3m5!1s0x85eca6200d7617bb:0x7498371825377da6!8m2!3d16.8505798!4d-93.7933739!16s%2Fg%2F11dxpchfty?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Centro Ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon son: &lt;/p&gt;
                             &lt;ul&gt;
                                 &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;961 284 4705&lt;/li&gt;
                                 &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
                             &lt;/ul&gt;
-                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el sitio ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los horarios oficiales del parque ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon son los siguientes:&lt;/p&gt;                       
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del centro de ecoturismo Centro Ecoturistico El Nuevo Mundo - Estoracon son los siguientes:&lt;/p&gt;                       
                             &lt;ul&gt;
                                 &lt;li&gt;Lunes de 10:00 a 19:00&lt;/li&gt;
                                 &lt;li&gt;Martes de 10:00 a 19:00&lt;/li&gt;
@@ -592,7 +593,7 @@
                                 &lt;li&gt;Sábado de 10:00 a 19:00&lt;/li&gt;
                                 &lt;li&gt;Domingo de 10:00 a 19:00&lt;/li&gt;
                             &lt;/ul&gt;
-                            &lt;p&gt;A pesar de contar con horarios oficiales, te recomendamos siempre visitar sus sitios de contacto y redes oficiales antes de ir al lugar, así podrás identificar cualquier cambio extraordinario que hayan tenido.&lt;/p&gt;                 
+                            &lt;p&gt;Antes de visitar el lugar, es una buena idea verificar sus sitios de contacto digitales y redes sociales, aún si ya cuentas con los horarios oficiales, para evitar cualquier cambio inesperado o sorpresas ya que estés ahí (por ej. cambio por días feriados)&lt;/p&gt;                 
                     </v>
       </c>
       <c r="AA2" t="str" xml:space="preserve">
@@ -636,7 +637,7 @@
         <v>https://www.google.com/maps/place/Siempre+Verde+Chiapas,+Centro+Ecotur%C3%ADstico/@17.143827,-92.888084,17z/data=!3m1!4b1!4m6!3m5!1s0x85ed0ee58c29248b:0xcdab59d265c14ddf!8m2!3d17.143827!4d-92.888084!16s%2Fg%2F11bvv4whms?authuser=0&amp;hl=es</v>
       </c>
       <c r="L3" t="str">
-        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3812.5419796816677!2d-92.88808399999999!3d17.143826999999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ed0ee58c29248b%3A0xcdab59d265c14ddf!2sSiempre%20Verde%20Chiapas%2C%20Centro%20Ecotur%C3%ADstico!5e0!3m2!1ses!2smx!4v1679086807159!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3812.5419796816677!2d-92.88808399999999!3d17.143826999999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ed0ee58c29248b%3A0xcdab59d265c14ddf!2sSiempre%20Verde%20Chiapas%2C%20Centro%20Ecotur%C3%ADstico!5e0!3m2!1ses!2smx!4v1679155880397!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
       </c>
       <c r="M3" t="str">
         <v>44V6+GQ Jitotol, Chiapas</v>
@@ -676,22 +677,23 @@
       </c>
       <c r="Y3" t="str" xml:space="preserve">
         <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en undefined? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  sitio ecoturístico que han sido mejor evaluados en este estado. 
- Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parque ecoturístico que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en undefined durante los últimos años. 
- Con esta prueba social como respaldo, hoy te compartimos la lista de los parque ecoturístico mejor calificados en undefined en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
- Prepárate con esto y ¡a disfrutar del ecoturismo en undefined!&lt;/p&gt;                    
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en Chiapas? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parques ecoturísticos que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parques de ecoturismo que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en Chiapas durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los parque ecológico mejor calificados en Chiapas en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en Chiapas!&lt;/p&gt;                    
                     </v>
       </c>
       <c r="Z3" t="str" xml:space="preserve">
         <v xml:space="preserve">
-                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Siempre Verde Chiapas, Centro Ecoturístico&lt;/b&gt;&lt;/h2&gt;
+                    &lt;h2&gt;&lt;b&gt;Parque de Ecoturismo Siempre Verde Chiapas, Centro Ecoturístico&lt;/b&gt;&lt;/h2&gt;
                         &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Siempre_Verde_Chiapas,_Centro_Ecoturístico_1.jpg" alt="Siempre Verde Chiapas, Centro Ecoturístico"&gt;   
-                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3812.5419796816677!2d-92.88808399999999!3d17.143826999999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ed0ee58c29248b%3A0xcdab59d265c14ddf!2sSiempre%20Verde%20Chiapas%2C%20Centro%20Ecotur%C3%ADstico!5e0!3m2!1ses!2smx!4v1679086807159!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3812.5419796816677!2d-92.88808399999999!3d17.143826999999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ed0ee58c29248b%3A0xcdab59d265c14ddf!2sSiempre%20Verde%20Chiapas%2C%20Centro%20Ecotur%C3%ADstico!5e0!3m2!1ses!2smx!4v1679155880397!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
                         &lt;div&gt;&lt;/div&gt;
-                        &lt;p&gt;Si estás en busca de un lugar para conectarte con la naturaleza, el parque ecoturístico undefined es una de tus mejores apuestas. Este sitio forma parte de esta lista de los mejores parques ecoturísticos de undefined gracias al respaldo y opiniones de más de undefined visitantes y que le han otorgado una calificación de más de undefined estrellas en promedio. Este lugar es sin duda uno de los mejores para disfrutar del entorno natural y paisajes de undefined y practicar el ecoturismo y la aventura en la región&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Natural "Siempre Verde Chiapas, Centro Ecoturístico"? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;El parque ecoturístico se ubica enCarretera Escopetazo Pichucalco Kilometro 81 S/N, El Campanario, 29760 Jitotol, Chis.. Si ya estás con todo listo para irte a este lugar entonces ¡no se diga más!, puedes ir siguiendo directamente la ruta de googleMaps mediante este &lt;a href='https://www.google.com/maps/place/Siempre+Verde+Chiapas,+Centro+Ecotur%C3%ADstico/@17.143827,-92.888084,17z/data=!3m1!4b1!4m6!3m5!1s0x85ed0ee58c29248b:0xcdab59d265c14ddf!8m2!3d17.143827!4d-92.888084!16s%2Fg%2F11bvv4whms?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico,Centro Ecoturístico,Parque Ecoturístico,Sitio Ecoturístico,Parque Ecológico,Parque Ecoturístico,Parque Natural,Parque Ecoturístico,Centro de Ecoturismo,Parque de Ecoturismo Siempre Verde Chiapas, Centro Ecoturístico&lt;/a&gt;&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecológico Siempre Verde Chiapas, Centro Ecoturístico?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Si te apasiona la naturaleza y andas en busca de aventuras ¡pues no se diga más! porque sin duda el parque ecoturístico undefined es una opción en undefined que no debes dejar pasar. Este parque ecoturístico tiene una calificación promedio de undefined estrellas, basada en las opiniones de más de undefined visitantes, motivo por el que forma parte de este rank. Así es que... siendo uno de los parques ecoturísticos mejores calificados en undefined  ¿qué esperas para visitarlo?&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro Ecoturístico "Siempre Verde Chiapas, Centro Ecoturístico"? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Este parque de ecoturismo se ubica en Carretera Escopetazo Pichucalco Kilometro 81 S/N, El Campanario, 29760 Jitotol, Chis.
+ Si necesitas ir a este sitio manejando puedes apoyarte poniendo la dirección en un navegador tipo waze o googleMaps o siguiendo directamente este &lt;a href='https://www.google.com/maps/place/Siempre+Verde+Chiapas,+Centro+Ecotur%C3%ADstico/@17.143827,-92.888084,17z/data=!3m1!4b1!4m6!3m5!1s0x85ed0ee58c29248b:0xcdab59d265c14ddf!8m2!3d17.143827!4d-92.888084!16s%2Fg%2F11bvv4whms?authuser=0&amp;hl=es'&gt;Mapa del Parque Natural Siempre Verde Chiapas, Centro Ecoturístico&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque de ecoturismo Siempre Verde Chiapas, Centro Ecoturístico?&lt;/b&gt;&lt;/h3&gt;
                             &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Siempre Verde Chiapas, Centro Ecoturístico son: &lt;/p&gt;
                             &lt;ul&gt;
                                 &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;919 104 9970&lt;/li&gt;
@@ -708,7 +710,7 @@
                                 &lt;li&gt;undefined&lt;/li&gt;
                                 &lt;li&gt;undefined&lt;/li&gt;
                             &lt;/ul&gt;
-                            &lt;p&gt;Antes de visitar el lugar, es importante revisar sus sitios digitales y redes sociales, así te aseguras de detectar cualquier cambio que hayan tenido de última hora por cuestiones de fechas especiales, vacaciones, temporadas altas, etc&lt;/p&gt;                 
+                            &lt;p&gt;A pesar de contar con horarios oficiales, te recomendamos siempre visitar sus sitios de contacto y redes oficiales antes de ir al lugar, así podrás identificar cualquier cambio extraordinario que hayan tenido.&lt;/p&gt;                 
                     </v>
       </c>
       <c r="AA3" t="str" xml:space="preserve">
@@ -725,116 +727,116 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>Centro Ecoturístico "El Aguacero"</v>
+        <v>Parque Ecoturistico Tzimbac</v>
       </c>
       <c r="C4" t="str">
-        <v>Centro Ecoturístico "el Aguacero"</v>
+        <v>Parque Ecoturistico Tzimbac</v>
       </c>
       <c r="D4" t="str">
-        <v>centro ecoturístico "el aguacero"</v>
+        <v>parque ecoturistico tzimbac</v>
       </c>
       <c r="E4" t="str">
-        <v>Unnamed Road, Chis.</v>
+        <v>Carretera a Monterrey Km. 2.2, Villarreal, 29125 Chis.</v>
       </c>
       <c r="F4" t="str">
-        <v>968 106 9019</v>
+        <v>961 286 8575</v>
       </c>
       <c r="G4" t="str">
-        <v>http://www.cascadaelaguacero.com/</v>
+        <v>Web no disponible</v>
       </c>
       <c r="I4" t="str">
-        <v>El Recuerdo, Chiapas</v>
+        <v>Santa Rita, Chiapas</v>
       </c>
       <c r="J4" t="str">
         <v>Chiapas</v>
       </c>
       <c r="K4" t="str">
-        <v>https://www.google.com/maps/place/Centro+Ecotur%C3%ADstico+%22El+Aguacero%22/@16.7591291,-93.5246499,17z/data=!3m1!4b1!4m6!3m5!1s0x85ecbbbeb75d1b1f:0x70f4450b76c6d0b!8m2!3d16.7591291!4d-93.5246499!16s%2Fg%2F11g6mr_n7p?authuser=0&amp;hl=es</v>
+        <v>https://www.google.com/maps/place/Parque+Ecoturistico+Tzimbac/@16.8998672,-93.2289146,17z/data=!3m1!4b1!4m6!3m5!1s0x85ece790120fdba7:0xf3cf8d4d73cd7595!8m2!3d16.8998672!4d-93.2289146!16s%2Fg%2F12hm176_z?authuser=0&amp;hl=es</v>
       </c>
       <c r="L4" t="str">
-        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3820.352500879553!2d-93.5246499!3d16.7591291!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ecbbbeb75d1b1f%3A0x70f4450b76c6d0b!2sCentro%20Ecotur%C3%ADstico%20%22El%20Aguacero%22!5e0!3m2!1ses!2smx!4v1679086811873!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3817.515055110652!2d-93.2289146!3d16.8998672!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ece790120fdba7%3A0xf3cf8d4d73cd7595!2sParque%20Ecoturistico%20Tzimbac!5e0!3m2!1ses!2smx!4v1679155885639!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
       </c>
       <c r="M4" t="str">
-        <v>QF5G+M4 El Recuerdo, Chiapas</v>
+        <v>VQXC+WC Santa Rita, Chiapas</v>
       </c>
       <c r="N4" t="str">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="O4" t="str">
-        <v>318</v>
-      </c>
-      <c r="P4" t="str" xml:space="preserve">
-        <v xml:space="preserve">Un lugar maravilloso para visitar, te exige mucha condición (ir preparados con calzado para escalar o senderismo) y llevar ropa cómoda.
-La comida del restaurante es excelente y con un sazón único!…,Increible lugar, antes de ir necesitas saber que para llegar a la cascada hay que caminar 30 minutos aproximadamente, escaleras hacia abajo, son más de 700 escalones más una caminata de unos 200 metros sobre el río. No hay partes ondas y hay mucho lugar para montar un picnic.,Es un lugar increíble!! Si no tienes coche el acceso esta algo complicado pero vale la pena, es mas para pasar el día llevar de comer o incluso acampar, la altura del río es pequeña así que no es tanto para nadar pero bastante agradable, cobran una entrada de aproximadamente 60 pesos</v>
+        <v>46</v>
+      </c>
+      <c r="P4" t="str">
+        <v>Si te gusta la naturaleza visítalo, si esperas muchas comodidades no es un sitio para ti. No hay señal, los baños están módicamente cómodos (si vas a la naturaleza no esperes lujos), hay área para acampar, muy limpio. Fuimos y nos tocó…,Buen lugar para descansar y rejarte un rato, sin embargo podría mejorar en muchos detalles, porque en época de lluvia es imposible disfrutar de la naturaleza, tener más sanitarios o en áreas más comunes.,Exelente lugar para ir con la familia y amigos. Podras acampar, explorar, senderismo, rappel, tirolesa, montar a caballo. Todo esto rodeo de magia y naturaleza respirando aire puro, fuera de la cantaminacion de la ciudad; puedes realozar…</v>
       </c>
       <c r="Q4" t="str">
-        <v>https://lh5.googleusercontent.com/p/AF1QipPtbKPypMyq7Ne_R7EO2WsnKqRywG7IpYIsf5Im=w408-h544-k-no</v>
+        <v>https://lh5.googleusercontent.com/p/AF1QipNYYHKIZRIqOhYXADcr3o_zu4-ho3SpnynhRZrw=w408-h306-k-no</v>
       </c>
       <c r="R4" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPtbKPypMyq7Ne_R7EO2WsnKqRywG7IpYIsf5Im=w408-h544-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipNYYHKIZRIqOhYXADcr3o_zu4-ho3SpnynhRZrw=w408-h306-k-no</v>
       </c>
       <c r="S4" t="str">
-        <v>AF1QipPtbKPypMyq7Ne_R7EO2WsnKqRywG7IpYIsf5Im=w408-h544-k-no</v>
+        <v>AF1QipNYYHKIZRIqOhYXADcr3o_zu4-ho3SpnynhRZrw=w408-h306-k-no</v>
       </c>
       <c r="T4" t="str">
-        <v>Centro_Ecoturístico_"El_Aguacero"_2</v>
+        <v>Parque_Ecoturistico_Tzimbac_2</v>
       </c>
       <c r="U4" t="str">
-        <v>Centro_Ecoturístico_"El_Aguacero"_2.jpg</v>
+        <v>Parque_Ecoturistico_Tzimbac_2.jpg</v>
       </c>
       <c r="V4" t="str">
-        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturístico_"El_Aguacero"_2.jpg</v>
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Parque_Ecoturistico_Tzimbac_2.jpg</v>
       </c>
       <c r="W4" t="str">
-        <v>ren "AF1QipPtbKPypMyq7Ne_R7EO2WsnKqRywG7IpYIsf5Im=w408-h544-k-no" "Centro_Ecoturístico_"El_Aguacero"_2.jpg"</v>
+        <v>ren "AF1QipNYYHKIZRIqOhYXADcr3o_zu4-ho3SpnynhRZrw=w408-h306-k-no" "Parque_Ecoturistico_Tzimbac_2.jpg"</v>
       </c>
       <c r="X4" t="str">
         <v>parques-ecoturismo-en-chiapas</v>
       </c>
       <c r="Y4" t="str" xml:space="preserve">
         <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en undefined? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parque ecoturístico que han sido mejor evaluados en este estado. 
- Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los centro ecoturístico que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en undefined durante los últimos años. 
- Con esta prueba social como respaldo, hoy te compartimos la lista de los parque ecoturístico mejor calificados en undefined en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
- Prepárate con esto y ¡a disfrutar del ecoturismo en undefined!&lt;/p&gt;                    
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en Chiapas? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parques ecoturísticos que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parques ecoturísticos que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en Chiapas durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los centro ecoturístico mejor calificados en Chiapas en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en Chiapas!&lt;/p&gt;                    
                     </v>
       </c>
       <c r="Z4" t="str" xml:space="preserve">
         <v xml:space="preserve">
-                    &lt;h2&gt;&lt;b&gt;Parque Natural Centro Ecoturístico "el Aguacero"&lt;/b&gt;&lt;/h2&gt;
-                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturístico_"El_Aguacero"_2.jpg" alt="Centro Ecoturístico "El Aguacero""&gt;   
-                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3820.352500879553!2d-93.5246499!3d16.7591291!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ecbbbeb75d1b1f%3A0x70f4450b76c6d0b!2sCentro%20Ecotur%C3%ADstico%20%22El%20Aguacero%22!5e0!3m2!1ses!2smx!4v1679086811873!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                    &lt;h2&gt;&lt;b&gt;Centro Ecoturístico Parque Ecoturistico Tzimbac&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Parque_Ecoturistico_Tzimbac_2.jpg" alt="Parque Ecoturistico Tzimbac"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3817.515055110652!2d-93.2289146!3d16.8998672!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ece790120fdba7%3A0xf3cf8d4d73cd7595!2sParque%20Ecoturistico%20Tzimbac!5e0!3m2!1ses!2smx!4v1679155885639!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
                         &lt;div&gt;&lt;/div&gt;
-                        &lt;p&gt;Uno de los sitios naturales más memorables de undefined es sin duda alguna el parque ecoturístico undefined. Este lugar está respaldado por un montón de visitantes previos y más de undefined evaluaciones promedio que rondan las undefined estrellas, lo que lo hace un favorito de esta región. Es por eso que forma parte de esta lista de los mejores centros ecoturísticos de undefined, y es por eso también que nos parece una recomendación imperdible para ti.&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Centro Ecoturístico "el Aguacero""? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;El parque de ecoturismo se ubica enUnnamed Road, Chis.. Para llegar a este lugar, simplemente ingresa la dirección en una app de navegación o utiliza este enlace al&lt;a href='https://www.google.com/maps/place/Centro+Ecotur%C3%ADstico+%22El+Aguacero%22/@16.7591291,-93.5246499,17z/data=!3m1!4b1!4m6!3m5!1s0x85ecbbbeb75d1b1f:0x70f4450b76c6d0b!8m2!3d16.7591291!4d-93.5246499!16s%2Fg%2F11g6mr_n7p?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico,Centro Ecoturístico,Parque Ecoturístico,Sitio Ecoturístico,Parque Ecológico,Parque Ecoturístico,Parque Natural,Parque Ecoturístico,Centro de Ecoturismo,Parque de Ecoturismo Centro Ecoturístico "el Aguacero"&lt;/a&gt;&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro ecoturístico Centro Ecoturístico "el Aguacero"?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los contactos disponibles del Parque Ecológico Centro Ecoturístico "el Aguacero" son: &lt;/p&gt;
+                        &lt;p&gt;Este sitio ecoturístico tiene undefined estrellas de calificación promedio, a partir de las más de undefined opiniones de sus visitantes... ¿nada mal no?. Es por esto que undefined es parte de esta lista de los parques naturales mejor calificados de undefined. Con este respaldo estamos más que seguras(os) que se trata  de un sitio que vas a disfrutar al Máximo. Así que ya sabes, si lo que buscas es naturaleza, el parque ecoturístico undefined en undefined es sin duda una gran opción&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro Ecoturístico "Parque Ecoturistico Tzimbac"? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Este centro ecoturístico se ubica en Carretera a Monterrey Km. 2.2, Villarreal, 29125 Chis.
+ Para llegar a este lugar, simplemente ingresa la dirección en una app de navegación o utiliza este enlace al&lt;a href='https://www.google.com/maps/place/Parque+Ecoturistico+Tzimbac/@16.8998672,-93.2289146,17z/data=!3m1!4b1!4m6!3m5!1s0x85ece790120fdba7:0xf3cf8d4d73cd7595!8m2!3d16.8998672!4d-93.2289146!16s%2Fg%2F12hm176_z?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Parque Ecoturistico Tzimbac&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro de ecoturismo Parque Ecoturistico Tzimbac?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Centro Ecoturístico Parque Ecoturistico Tzimbac son: &lt;/p&gt;
                             &lt;ul&gt;
-                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;968 106 9019&lt;/li&gt;
-                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;&lt;a href="http://www.cascadaelaguacero.com/"&gt;Web del place Centro Ecoturístico "El Aguacero"&lt;/a&gt;&lt;/li&gt;                                
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;961 286 8575&lt;/li&gt;
+                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
                             &lt;/ul&gt;
-                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro de ecoturismo Centro Ecoturístico "el Aguacero"?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los horarios oficiales del parque ecoturístico Centro Ecoturístico "el Aguacero" son los siguientes:&lt;/p&gt;                       
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el sitio ecoturístico Parque Ecoturistico Tzimbac?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los horarios oficiales del centro de ecoturismo Parque Ecoturistico Tzimbac son los siguientes:&lt;/p&gt;                       
                             &lt;ul&gt;
-                                &lt;li&gt;Lunes de 07:00 a 17:00&lt;/li&gt;
-                                &lt;li&gt;Martes de 07:00 a 17:00&lt;/li&gt;
-                                &lt;li&gt;Miércoles de 07:00 a 17:00&lt;/li&gt;
-                                &lt;li&gt;Jueves de 07:00 a 17:00&lt;/li&gt;
-                                &lt;li&gt;Viernes de 07:00 a 17:00&lt;/li&gt;
-                                &lt;li&gt;Sábado de 07:00 a 17:00&lt;/li&gt;
-                                &lt;li&gt;Domingo de 07:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
+                                &lt;li&gt;undefined&lt;/li&gt;
                             &lt;/ul&gt;
-                            &lt;p&gt;Te recomendamos  igual siempre revisar sus redes sociales y contactos digitales antes de ir, pues aunque este horario es oficial, pueden haber cambios en fechas especiales, épocas vacacionales y demás&lt;/p&gt;                 
+                            &lt;p&gt;A pesar de que los horarios sean oficiales, es buena idea que antes ir, revises siempre cómo están las cosas en sus redes sociales y contactos digitales, esto te permitirá asegurarte de que no haya cambios de horario o logística antes de tu arribo al lugar&lt;/p&gt;                 
                     </v>
       </c>
       <c r="AA4" t="str" xml:space="preserve">
         <v xml:space="preserve">
-                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturístico_"El_Aguacero"_2.jpg" alt="Centro Ecoturístico "El Aguacero""&gt;                
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Parque_Ecoturistico_Tzimbac_2.jpg" alt="Parque Ecoturistico Tzimbac"&gt;                
                 </v>
       </c>
       <c r="AB4" t="str">
-        <v/>
+        <v>Añadir sitio web</v>
       </c>
     </row>
   </sheetData>

--- a/testingAllImports.xlsx
+++ b/testingAllImports.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -428,63 +428,66 @@
         <v>horario</v>
       </c>
       <c r="I1" t="str">
+        <v>horarioText</v>
+      </c>
+      <c r="J1" t="str">
         <v>cityClean</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>state</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>urlgMaps</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>iframeMap</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>city</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>stars</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <v>cantidadResenas</v>
       </c>
-      <c r="P1" t="str">
+      <c r="Q1" t="str">
         <v>opiniones</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="R1" t="str">
         <v>photoOriginalURL</v>
       </c>
-      <c r="R1" t="str">
+      <c r="S1" t="str">
         <v>photoDownloadScript</v>
       </c>
-      <c r="S1" t="str">
+      <c r="T1" t="str">
         <v>photoFileName</v>
       </c>
-      <c r="T1" t="str">
+      <c r="U1" t="str">
         <v>photoNewName</v>
       </c>
-      <c r="U1" t="str">
+      <c r="V1" t="str">
         <v>photoNewFullFileName</v>
       </c>
-      <c r="V1" t="str">
+      <c r="W1" t="str">
         <v>photoNewURL</v>
       </c>
-      <c r="W1" t="str">
+      <c r="X1" t="str">
         <v>fileNameConversionScript</v>
       </c>
-      <c r="X1" t="str">
+      <c r="Y1" t="str">
         <v>slug</v>
       </c>
-      <c r="Y1" t="str">
+      <c r="Z1" t="str">
         <v>articleIntro</v>
       </c>
-      <c r="Z1" t="str">
+      <c r="AA1" t="str">
         <v>structuredData</v>
       </c>
-      <c r="AA1" t="str">
+      <c r="AB1" t="str">
         <v>photoLocal</v>
       </c>
-      <c r="AB1" t="str">
+      <c r="AC1" t="str">
         <v>missingData</v>
       </c>
     </row>
@@ -511,79 +514,82 @@
         <v>Web no disponible</v>
       </c>
       <c r="I2" t="str">
+        <v>Sábado de 10:00 a 19:00,Domingo de 10:00 a 19:00,Lunes de 10:00 a 19:00,Martes de 10:00 a 19:00,Miércoles de 10:00 a 19:00,Jueves de 10:00 a 19:00,Viernes de 10:00 a 19:00</v>
+      </c>
+      <c r="J2" t="str">
         <v>Estoracón, Chiapas</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <v>Chiapas</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <v>https://www.google.com/maps/place/Centro+Ecoturistico+El+Nuevo+Mundo+-+Estoracon/@16.8505798,-93.7933739,17z/data=!3m1!4b1!4m6!3m5!1s0x85eca6200d7617bb:0x7498371825377da6!8m2!3d16.8505798!4d-93.7933739!16s%2Fg%2F11dxpchfty?authuser=0&amp;hl=es</v>
       </c>
-      <c r="L2" t="str">
-        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3818.5113687598837!2d-93.79337389999999!3d16.8505798!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85eca6200d7617bb%3A0x7498371825377da6!2sCentro%20Ecoturistico%20El%20Nuevo%20Mundo%20-%20Estoracon!5e0!3m2!1ses!2smx!4v1679155875054!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
-      </c>
       <c r="M2" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3818.5113687598837!2d-93.79337389999999!3d16.8505798!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85eca6200d7617bb%3A0x7498371825377da6!2sCentro%20Ecoturistico%20El%20Nuevo%20Mundo%20-%20Estoracon!5e0!3m2!1ses!2smx!4v1679160007861!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="N2" t="str">
         <v>V624+6M Estoracón, Chiapas</v>
       </c>
-      <c r="N2" t="str">
+      <c r="O2" t="str">
         <v>4.5</v>
       </c>
-      <c r="O2" t="str">
+      <c r="P2" t="str">
         <v>31</v>
       </c>
-      <c r="P2" t="str">
+      <c r="Q2" t="str">
         <v>Hermoso día de excursión en familia a este sitio remoto con 4 cascadas en plena naturaleza con piscina y una comida riquísima con buena atención, los Tucanes con muchi acercamiento, salimos de Cintalapa Chiapas,Muy bonita reserva recomendable,Se puede acampar ($180 por tienda de campaña), hay cabañas (sencilla $400, doble $800), rentan hamacas, tienda de campaña, venden refrescos, cervezas, sabritas, buena comida(camarones empanizado, en ensalada , mojarras, carne asada, pollo,…</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="R2" t="str">
         <v>https://lh5.googleusercontent.com/p/AF1QipPOgfBL_SMdx6bZCZHeZCe150jGe-GqwXaX7lE=w408-h306-k-no</v>
       </c>
-      <c r="R2" t="str">
+      <c r="S2" t="str">
         <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPOgfBL_SMdx6bZCZHeZCe150jGe-GqwXaX7lE=w408-h306-k-no</v>
       </c>
-      <c r="S2" t="str">
+      <c r="T2" t="str">
         <v>AF1QipPOgfBL_SMdx6bZCZHeZCe150jGe-GqwXaX7lE=w408-h306-k-no</v>
       </c>
-      <c r="T2" t="str">
+      <c r="U2" t="str">
         <v>Centro_Ecoturistico_El_Nuevo_Mundo_-_Estoracon_0</v>
       </c>
-      <c r="U2" t="str">
+      <c r="V2" t="str">
         <v>Centro_Ecoturistico_El_Nuevo_Mundo_-_Estoracon_0.jpg</v>
       </c>
-      <c r="V2" t="str">
+      <c r="W2" t="str">
         <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturistico_El_Nuevo_Mundo_-_Estoracon_0.jpg</v>
       </c>
-      <c r="W2" t="str">
+      <c r="X2" t="str">
         <v>ren "AF1QipPOgfBL_SMdx6bZCZHeZCe150jGe-GqwXaX7lE=w408-h306-k-no" "Centro_Ecoturistico_El_Nuevo_Mundo_-_Estoracon_0.jpg"</v>
       </c>
-      <c r="X2" t="str">
+      <c r="Y2" t="str">
         <v>parques-ecoturismo-en-chiapas</v>
       </c>
-      <c r="Y2" t="str" xml:space="preserve">
+      <c r="Z2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en Chiapas? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parques ecoturísticos que han sido mejor evaluados en este estado. 
- Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parques de ecoturismo que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en Chiapas durante los últimos años. 
- Con esta prueba social como respaldo, hoy te compartimos la lista de los parque ecológico mejor calificados en Chiapas en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en Chiapas? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  centros de ecoturismo que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los centros ecoturísticos que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en Chiapas durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los parque natural mejor calificados en Chiapas en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
  Prepárate con esto y ¡a disfrutar del ecoturismo en Chiapas!&lt;/p&gt;                    
                     </v>
       </c>
-      <c r="Z2" t="str" xml:space="preserve">
+      <c r="AA2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-                    &lt;h2&gt;&lt;b&gt;Sitio Ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon&lt;/b&gt;&lt;/h2&gt;
+                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon&lt;/b&gt;&lt;/h2&gt;
                         &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturistico_El_Nuevo_Mundo_-_Estoracon_0.jpg" alt="Centro Ecoturistico El Nuevo Mundo - Estoracon"&gt;   
-                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3818.5113687598837!2d-93.79337389999999!3d16.8505798!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85eca6200d7617bb%3A0x7498371825377da6!2sCentro%20Ecoturistico%20El%20Nuevo%20Mundo%20-%20Estoracon!5e0!3m2!1ses!2smx!4v1679155875054!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3818.5113687598837!2d-93.79337389999999!3d16.8505798!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85eca6200d7617bb%3A0x7498371825377da6!2sCentro%20Ecoturistico%20El%20Nuevo%20Mundo%20-%20Estoracon!5e0!3m2!1ses!2smx!4v1679160007861!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
                         &lt;div&gt;&lt;/div&gt;
-                        &lt;p&gt;Bueno... pues ya que andas buscando salir de lo cotidiano... ¿Qué tal disfrutar de algunos de los paisajes más bonitos y naturales de undefined?. Pues eso es lo que centro de ecoturismo undefined te ofrece. Este sitio tiene una calificación promedio de undefined estrellas, a partir de opiniones de al menos undefined visitantes previos a ti, y es por eso que se considera uno de los top de este estado. Así que nada... sin excusas y ¡a vivir esta experiencia en la naturaleza!&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro de Ecoturismo "Centro Ecoturistico El Nuevo Mundo - Estoracon"? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Este parque natural se ubica en Carretera Sayula S/N, Francisco I. Madero, 30400 Cintalapa, Chis.
- Puedes llegar a este centro facilmente manejando apoyándote en una aplicación de navegación (ej. maps) o consultando este &lt;a href='https://www.google.com/maps/place/Centro+Ecoturistico+El+Nuevo+Mundo+-+Estoracon/@16.8505798,-93.7933739,17z/data=!3m1!4b1!4m6!3m5!1s0x85eca6200d7617bb:0x7498371825377da6!8m2!3d16.8505798!4d-93.7933739!16s%2Fg%2F11dxpchfty?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon&lt;/a&gt;&lt;/p&gt;
+                        &lt;p&gt;¿Quieres vivir un paseo increible en contacto con la naturaleza? entonces no puedes dejar de considerar una visita al centro de ecoturismo undefined en undefined. Con una calificación promedio de undefined estrellas y más de undefined opiniones de visitantes, este lugar es una de las mejores opciones para los amantes del ecoturismo en esta región. Así es que ¡toma nota  de todo lo requerido para tu visita a continuación!&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Natural "Centro Ecoturistico El Nuevo Mundo - Estoracon"? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Este parque ecoturístico se ubica en Carretera Sayula S/N, Francisco I. Madero, 30400 Cintalapa, Chis.
+ La verdad es que llegar a este Centro no tiene gran dificultad. Puedes encontrar la dirección de un lugar siguiendo cualquier aplicación de navegación que se te facilite o siguiendo esta liga al &lt;a href='https://www.google.com/maps/place/Centro+Ecoturistico+El+Nuevo+Mundo+-+Estoracon/@16.8505798,-93.7933739,17z/data=!3m1!4b1!4m6!3m5!1s0x85eca6200d7617bb:0x7498371825377da6!8m2!3d16.8505798!4d-93.7933739!16s%2Fg%2F11dxpchfty?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon&lt;/a&gt;&lt;/p&gt;
                         &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los contactos disponibles del Centro Ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon son: &lt;/p&gt;
+                            &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Centro Ecoturistico El Nuevo Mundo - Estoracon son: &lt;/p&gt;
                             &lt;ul&gt;
                                 &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;961 284 4705&lt;/li&gt;
                                 &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
                             &lt;/ul&gt;
-                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los horarios oficiales del centro de ecoturismo Centro Ecoturistico El Nuevo Mundo - Estoracon son los siguientes:&lt;/p&gt;                       
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los horarios oficiales del parque ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon son los siguientes:&lt;/p&gt;                       
                             &lt;ul&gt;
                                 &lt;li&gt;Lunes de 10:00 a 19:00&lt;/li&gt;
                                 &lt;li&gt;Martes de 10:00 a 19:00&lt;/li&gt;
@@ -593,15 +599,14 @@
                                 &lt;li&gt;Sábado de 10:00 a 19:00&lt;/li&gt;
                                 &lt;li&gt;Domingo de 10:00 a 19:00&lt;/li&gt;
                             &lt;/ul&gt;
-                            &lt;p&gt;Antes de visitar el lugar, es una buena idea verificar sus sitios de contacto digitales y redes sociales, aún si ya cuentas con los horarios oficiales, para evitar cualquier cambio inesperado o sorpresas ya que estés ahí (por ej. cambio por días feriados)&lt;/p&gt;                 
-                    </v>
-      </c>
-      <c r="AA2" t="str" xml:space="preserve">
+                            &lt;p&gt;Antes de visitar el lugar, es importante revisar sus sitios digitales y redes sociales, así te aseguras de detectar cualquier cambio que hayan tenido de última hora por cuestiones de fechas especiales, vacaciones, temporadas altas, etc&lt;/p&gt;</v>
+      </c>
+      <c r="AB2" t="str" xml:space="preserve">
         <v xml:space="preserve">
                     &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturistico_El_Nuevo_Mundo_-_Estoracon_0.jpg" alt="Centro Ecoturistico El Nuevo Mundo - Estoracon"&gt;                
                 </v>
       </c>
-      <c r="AB2" t="str">
+      <c r="AC2" t="str">
         <v>Añadir sitio web</v>
       </c>
     </row>
@@ -627,172 +632,61 @@
       <c r="G3" t="str">
         <v>Web no disponible</v>
       </c>
+      <c r="H3" t="str">
+        <v>No se cuenta con horario oficial</v>
+      </c>
       <c r="I3" t="str">
+        <v>No se cuenta con horario oficial</v>
+      </c>
+      <c r="J3" t="str">
         <v>Jitotol, Chiapas</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <v>Chiapas</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <v>https://www.google.com/maps/place/Siempre+Verde+Chiapas,+Centro+Ecotur%C3%ADstico/@17.143827,-92.888084,17z/data=!3m1!4b1!4m6!3m5!1s0x85ed0ee58c29248b:0xcdab59d265c14ddf!8m2!3d17.143827!4d-92.888084!16s%2Fg%2F11bvv4whms?authuser=0&amp;hl=es</v>
       </c>
-      <c r="L3" t="str">
-        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3812.5419796816677!2d-92.88808399999999!3d17.143826999999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ed0ee58c29248b%3A0xcdab59d265c14ddf!2sSiempre%20Verde%20Chiapas%2C%20Centro%20Ecotur%C3%ADstico!5e0!3m2!1ses!2smx!4v1679155880397!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
-      </c>
       <c r="M3" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3812.5419796816677!2d-92.88808399999999!3d17.143826999999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ed0ee58c29248b%3A0xcdab59d265c14ddf!2sSiempre%20Verde%20Chiapas%2C%20Centro%20Ecotur%C3%ADstico!5e0!3m2!1ses!2smx!4v1679160012658!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="N3" t="str">
         <v>44V6+GQ Jitotol, Chiapas</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <v>4.4</v>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <v>555</v>
       </c>
-      <c r="P3" t="str">
+      <c r="Q3" t="str">
         <v>Hermoso lugar para realizar senderismo, manejar cuatrimotos y para pasar unos días de relajamiento, todo el lugar es magnifico, las cabañas con chimeneas y balcones enormes desde donde puedes admirar el bosque, el lugar cuenta con…,El lugar es espectacular para estar alejado de la ciudad. Descansar, delicioso clima. Cómodo y limpio. No esperes un lugar de lujo pero si un lugar acogedor.,Un lugar muy bello para pasar un fin de semana en familia, el clima súper agradable y la vegetación maravillosa. Amo mi chiapas</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="R3" t="str">
         <v>https://lh5.googleusercontent.com/p/AF1QipPeHN3i2PWxhWxToRs-k5bKZZRwHphpyIy-yf-L=w426-h240-k-no</v>
       </c>
-      <c r="R3" t="str">
+      <c r="S3" t="str">
         <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPeHN3i2PWxhWxToRs-k5bKZZRwHphpyIy-yf-L=w426-h240-k-no</v>
       </c>
-      <c r="S3" t="str">
+      <c r="T3" t="str">
         <v>AF1QipPeHN3i2PWxhWxToRs-k5bKZZRwHphpyIy-yf-L=w426-h240-k-no</v>
       </c>
-      <c r="T3" t="str">
+      <c r="U3" t="str">
         <v>Siempre_Verde_Chiapas,_Centro_Ecoturístico_1</v>
       </c>
-      <c r="U3" t="str">
+      <c r="V3" t="str">
         <v>Siempre_Verde_Chiapas,_Centro_Ecoturístico_1.jpg</v>
       </c>
-      <c r="V3" t="str">
+      <c r="W3" t="str">
         <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Siempre_Verde_Chiapas,_Centro_Ecoturístico_1.jpg</v>
       </c>
-      <c r="W3" t="str">
+      <c r="X3" t="str">
         <v>ren "AF1QipPeHN3i2PWxhWxToRs-k5bKZZRwHphpyIy-yf-L=w426-h240-k-no" "Siempre_Verde_Chiapas,_Centro_Ecoturístico_1.jpg"</v>
       </c>
-      <c r="X3" t="str">
+      <c r="Y3" t="str">
         <v>parques-ecoturismo-en-chiapas</v>
       </c>
-      <c r="Y3" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en Chiapas? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parques ecoturísticos que han sido mejor evaluados en este estado. 
- Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parques de ecoturismo que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en Chiapas durante los últimos años. 
- Con esta prueba social como respaldo, hoy te compartimos la lista de los parque ecológico mejor calificados en Chiapas en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
- Prepárate con esto y ¡a disfrutar del ecoturismo en Chiapas!&lt;/p&gt;                    
-                    </v>
-      </c>
       <c r="Z3" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;h2&gt;&lt;b&gt;Parque de Ecoturismo Siempre Verde Chiapas, Centro Ecoturístico&lt;/b&gt;&lt;/h2&gt;
-                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Siempre_Verde_Chiapas,_Centro_Ecoturístico_1.jpg" alt="Siempre Verde Chiapas, Centro Ecoturístico"&gt;   
-                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3812.5419796816677!2d-92.88808399999999!3d17.143826999999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ed0ee58c29248b%3A0xcdab59d265c14ddf!2sSiempre%20Verde%20Chiapas%2C%20Centro%20Ecotur%C3%ADstico!5e0!3m2!1ses!2smx!4v1679155880397!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
-                        &lt;div&gt;&lt;/div&gt;
-                        &lt;p&gt;Si te apasiona la naturaleza y andas en busca de aventuras ¡pues no se diga más! porque sin duda el parque ecoturístico undefined es una opción en undefined que no debes dejar pasar. Este parque ecoturístico tiene una calificación promedio de undefined estrellas, basada en las opiniones de más de undefined visitantes, motivo por el que forma parte de este rank. Así es que... siendo uno de los parques ecoturísticos mejores calificados en undefined  ¿qué esperas para visitarlo?&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro Ecoturístico "Siempre Verde Chiapas, Centro Ecoturístico"? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Este parque de ecoturismo se ubica en Carretera Escopetazo Pichucalco Kilometro 81 S/N, El Campanario, 29760 Jitotol, Chis.
- Si necesitas ir a este sitio manejando puedes apoyarte poniendo la dirección en un navegador tipo waze o googleMaps o siguiendo directamente este &lt;a href='https://www.google.com/maps/place/Siempre+Verde+Chiapas,+Centro+Ecotur%C3%ADstico/@17.143827,-92.888084,17z/data=!3m1!4b1!4m6!3m5!1s0x85ed0ee58c29248b:0xcdab59d265c14ddf!8m2!3d17.143827!4d-92.888084!16s%2Fg%2F11bvv4whms?authuser=0&amp;hl=es'&gt;Mapa del Parque Natural Siempre Verde Chiapas, Centro Ecoturístico&lt;/a&gt;&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque de ecoturismo Siempre Verde Chiapas, Centro Ecoturístico?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Siempre Verde Chiapas, Centro Ecoturístico son: &lt;/p&gt;
-                            &lt;ul&gt;
-                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;919 104 9970&lt;/li&gt;
-                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
-                            &lt;/ul&gt;
-                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Siempre Verde Chiapas, Centro Ecoturístico?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los horarios oficiales del parque ecoturístico Siempre Verde Chiapas, Centro Ecoturístico son los siguientes:&lt;/p&gt;                       
-                            &lt;ul&gt;
-                                &lt;li&gt;undefined&lt;/li&gt;
-                                &lt;li&gt;undefined&lt;/li&gt;
-                                &lt;li&gt;undefined&lt;/li&gt;
-                                &lt;li&gt;undefined&lt;/li&gt;
-                                &lt;li&gt;undefined&lt;/li&gt;
-                                &lt;li&gt;undefined&lt;/li&gt;
-                                &lt;li&gt;undefined&lt;/li&gt;
-                            &lt;/ul&gt;
-                            &lt;p&gt;A pesar de contar con horarios oficiales, te recomendamos siempre visitar sus sitios de contacto y redes oficiales antes de ir al lugar, así podrás identificar cualquier cambio extraordinario que hayan tenido.&lt;/p&gt;                 
-                    </v>
-      </c>
-      <c r="AA3" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Siempre_Verde_Chiapas,_Centro_Ecoturístico_1.jpg" alt="Siempre Verde Chiapas, Centro Ecoturístico"&gt;                
-                </v>
-      </c>
-      <c r="AB3" t="str">
-        <v>Añadir sitio web</v>
-      </c>
-    </row>
-    <row r="4" xml:space="preserve">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Parque Ecoturistico Tzimbac</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Parque Ecoturistico Tzimbac</v>
-      </c>
-      <c r="D4" t="str">
-        <v>parque ecoturistico tzimbac</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Carretera a Monterrey Km. 2.2, Villarreal, 29125 Chis.</v>
-      </c>
-      <c r="F4" t="str">
-        <v>961 286 8575</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Web no disponible</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Santa Rita, Chiapas</v>
-      </c>
-      <c r="J4" t="str">
-        <v>Chiapas</v>
-      </c>
-      <c r="K4" t="str">
-        <v>https://www.google.com/maps/place/Parque+Ecoturistico+Tzimbac/@16.8998672,-93.2289146,17z/data=!3m1!4b1!4m6!3m5!1s0x85ece790120fdba7:0xf3cf8d4d73cd7595!8m2!3d16.8998672!4d-93.2289146!16s%2Fg%2F12hm176_z?authuser=0&amp;hl=es</v>
-      </c>
-      <c r="L4" t="str">
-        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3817.515055110652!2d-93.2289146!3d16.8998672!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ece790120fdba7%3A0xf3cf8d4d73cd7595!2sParque%20Ecoturistico%20Tzimbac!5e0!3m2!1ses!2smx!4v1679155885639!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
-      </c>
-      <c r="M4" t="str">
-        <v>VQXC+WC Santa Rita, Chiapas</v>
-      </c>
-      <c r="N4" t="str">
-        <v>4.2</v>
-      </c>
-      <c r="O4" t="str">
-        <v>46</v>
-      </c>
-      <c r="P4" t="str">
-        <v>Si te gusta la naturaleza visítalo, si esperas muchas comodidades no es un sitio para ti. No hay señal, los baños están módicamente cómodos (si vas a la naturaleza no esperes lujos), hay área para acampar, muy limpio. Fuimos y nos tocó…,Buen lugar para descansar y rejarte un rato, sin embargo podría mejorar en muchos detalles, porque en época de lluvia es imposible disfrutar de la naturaleza, tener más sanitarios o en áreas más comunes.,Exelente lugar para ir con la familia y amigos. Podras acampar, explorar, senderismo, rappel, tirolesa, montar a caballo. Todo esto rodeo de magia y naturaleza respirando aire puro, fuera de la cantaminacion de la ciudad; puedes realozar…</v>
-      </c>
-      <c r="Q4" t="str">
-        <v>https://lh5.googleusercontent.com/p/AF1QipNYYHKIZRIqOhYXADcr3o_zu4-ho3SpnynhRZrw=w408-h306-k-no</v>
-      </c>
-      <c r="R4" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipNYYHKIZRIqOhYXADcr3o_zu4-ho3SpnynhRZrw=w408-h306-k-no</v>
-      </c>
-      <c r="S4" t="str">
-        <v>AF1QipNYYHKIZRIqOhYXADcr3o_zu4-ho3SpnynhRZrw=w408-h306-k-no</v>
-      </c>
-      <c r="T4" t="str">
-        <v>Parque_Ecoturistico_Tzimbac_2</v>
-      </c>
-      <c r="U4" t="str">
-        <v>Parque_Ecoturistico_Tzimbac_2.jpg</v>
-      </c>
-      <c r="V4" t="str">
-        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Parque_Ecoturistico_Tzimbac_2.jpg</v>
-      </c>
-      <c r="W4" t="str">
-        <v>ren "AF1QipNYYHKIZRIqOhYXADcr3o_zu4-ho3SpnynhRZrw=w408-h306-k-no" "Parque_Ecoturistico_Tzimbac_2.jpg"</v>
-      </c>
-      <c r="X4" t="str">
-        <v>parques-ecoturismo-en-chiapas</v>
-      </c>
-      <c r="Y4" t="str" xml:space="preserve">
         <v xml:space="preserve">
                     &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en Chiapas? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parques ecoturísticos que han sido mejor evaluados en este estado. 
  Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parques ecoturísticos que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en Chiapas durante los últimos años. 
@@ -800,48 +694,151 @@
  Prepárate con esto y ¡a disfrutar del ecoturismo en Chiapas!&lt;/p&gt;                    
                     </v>
       </c>
+      <c r="AA3" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Centro de Ecoturismo Siempre Verde Chiapas, Centro Ecoturístico&lt;/b&gt;&lt;/h2&gt;
+                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Siempre_Verde_Chiapas,_Centro_Ecoturístico_1.jpg" alt="Siempre Verde Chiapas, Centro Ecoturístico"&gt;   
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3812.5419796816677!2d-92.88808399999999!3d17.143826999999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ed0ee58c29248b%3A0xcdab59d265c14ddf!2sSiempre%20Verde%20Chiapas%2C%20Centro%20Ecotur%C3%ADstico!5e0!3m2!1ses!2smx!4v1679160012658!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;/div&gt;
+                        &lt;p&gt;El parque ecoturístico undefined es una opción fantástica para tener una aventura natural en undefined. Su calificación promedio es de undefined estrellas respaldada por más de undefined visitantes, así que no tenemos duda de que este lugar pertenece a la lista de los parques ecoturísticos mejor rankeados de de undefined y que se trata de uno de los principales atractivos naturales en la región. Así que ya sabes... ¿ganas de naturaleza?... pues entonces el parque natural undefined es una grandísima opción&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Sitio Ecoturístico "Siempre Verde Chiapas, Centro Ecoturístico"? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Este parque natural se ubica en Carretera Escopetazo Pichucalco Kilometro 81 S/N, El Campanario, 29760 Jitotol, Chis.
+ Si necesitas ir a este sitio manejando puedes apoyarte poniendo la dirección en un navegador tipo waze o googleMaps o siguiendo directamente este &lt;a href='https://www.google.com/maps/place/Siempre+Verde+Chiapas,+Centro+Ecotur%C3%ADstico/@17.143827,-92.888084,17z/data=!3m1!4b1!4m6!3m5!1s0x85ed0ee58c29248b:0xcdab59d265c14ddf!8m2!3d17.143827!4d-92.888084!16s%2Fg%2F11bvv4whms?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Siempre Verde Chiapas, Centro Ecoturístico&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque de ecoturismo Siempre Verde Chiapas, Centro Ecoturístico?&lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Los contactos disponibles del Centro Ecoturístico Siempre Verde Chiapas, Centro Ecoturístico son: &lt;/p&gt;
+                            &lt;ul&gt;
+                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;919 104 9970&lt;/li&gt;
+                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
+                            &lt;/ul&gt;
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro ecoturístico Siempre Verde Chiapas, Centro Ecoturístico?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente debido a que existen variaciones frecuentes en sus horarios de operación. 
+ Por este motivo, te recomendamos consultar sus sitios oficiales en una fecha cercana a tu visita o contactarlos directamente para pedir la actualización más reciente de sus días y horas de operación.</v>
+      </c>
+      <c r="AB3" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Siempre_Verde_Chiapas,_Centro_Ecoturístico_1.jpg" alt="Siempre Verde Chiapas, Centro Ecoturístico"&gt;                
+                </v>
+      </c>
+      <c r="AC3" t="str">
+        <v>Añadir sitio web</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Parque Ecoturistico Tzimbac</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Parque Ecoturistico Tzimbac</v>
+      </c>
+      <c r="D4" t="str">
+        <v>parque ecoturistico tzimbac</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Carretera a Monterrey Km. 2.2, Villarreal, 29125 Chis.</v>
+      </c>
+      <c r="F4" t="str">
+        <v>961 286 8575</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Web no disponible</v>
+      </c>
+      <c r="H4" t="str">
+        <v>No se cuenta con horario oficial</v>
+      </c>
+      <c r="I4" t="str">
+        <v>No se cuenta con horario oficial</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Santa Rita, Chiapas</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Chiapas</v>
+      </c>
+      <c r="L4" t="str">
+        <v>https://www.google.com/maps/place/Parque+Ecoturistico+Tzimbac/@16.8998672,-93.2289146,17z/data=!3m1!4b1!4m6!3m5!1s0x85ece790120fdba7:0xf3cf8d4d73cd7595!8m2!3d16.8998672!4d-93.2289146!16s%2Fg%2F12hm176_z?authuser=0&amp;hl=es</v>
+      </c>
+      <c r="M4" t="str">
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3817.515055110652!2d-93.2289146!3d16.8998672!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ece790120fdba7%3A0xf3cf8d4d73cd7595!2sParque%20Ecoturistico%20Tzimbac!5e0!3m2!1ses!2smx!4v1679160017598!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+      </c>
+      <c r="N4" t="str">
+        <v>VQXC+WC Santa Rita, Chiapas</v>
+      </c>
+      <c r="O4" t="str">
+        <v>4.2</v>
+      </c>
+      <c r="P4" t="str">
+        <v>46</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>Si te gusta la naturaleza visítalo, si esperas muchas comodidades no es un sitio para ti. No hay señal, los baños están módicamente cómodos (si vas a la naturaleza no esperes lujos), hay área para acampar, muy limpio. Fuimos y nos tocó…,Buen lugar para descansar y rejarte un rato, sin embargo podría mejorar en muchos detalles, porque en época de lluvia es imposible disfrutar de la naturaleza, tener más sanitarios o en áreas más comunes.,Exelente lugar para ir con la familia y amigos. Podras acampar, explorar, senderismo, rappel, tirolesa, montar a caballo. Todo esto rodeo de magia y naturaleza respirando aire puro, fuera de la cantaminacion de la ciudad; puedes realozar…</v>
+      </c>
+      <c r="R4" t="str">
+        <v>https://lh5.googleusercontent.com/p/AF1QipNYYHKIZRIqOhYXADcr3o_zu4-ho3SpnynhRZrw=w408-h306-k-no</v>
+      </c>
+      <c r="S4" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipNYYHKIZRIqOhYXADcr3o_zu4-ho3SpnynhRZrw=w408-h306-k-no</v>
+      </c>
+      <c r="T4" t="str">
+        <v>AF1QipNYYHKIZRIqOhYXADcr3o_zu4-ho3SpnynhRZrw=w408-h306-k-no</v>
+      </c>
+      <c r="U4" t="str">
+        <v>Parque_Ecoturistico_Tzimbac_2</v>
+      </c>
+      <c r="V4" t="str">
+        <v>Parque_Ecoturistico_Tzimbac_2.jpg</v>
+      </c>
+      <c r="W4" t="str">
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Parque_Ecoturistico_Tzimbac_2.jpg</v>
+      </c>
+      <c r="X4" t="str">
+        <v>ren "AF1QipNYYHKIZRIqOhYXADcr3o_zu4-ho3SpnynhRZrw=w408-h306-k-no" "Parque_Ecoturistico_Tzimbac_2.jpg"</v>
+      </c>
+      <c r="Y4" t="str">
+        <v>parques-ecoturismo-en-chiapas</v>
+      </c>
       <c r="Z4" t="str" xml:space="preserve">
         <v xml:space="preserve">
-                    &lt;h2&gt;&lt;b&gt;Centro Ecoturístico Parque Ecoturistico Tzimbac&lt;/b&gt;&lt;/h2&gt;
+                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en Chiapas? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parques ecológicos que han sido mejor evaluados en este estado. 
+ Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parques naturales que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en Chiapas durante los últimos años. 
+ Con esta prueba social como respaldo, hoy te compartimos la lista de los parque ecoturístico mejor calificados en Chiapas en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
+ Prepárate con esto y ¡a disfrutar del ecoturismo en Chiapas!&lt;/p&gt;                    
+                    </v>
+      </c>
+      <c r="AA4" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Parque Ecoturistico Tzimbac&lt;/b&gt;&lt;/h2&gt;
                         &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Parque_Ecoturistico_Tzimbac_2.jpg" alt="Parque Ecoturistico Tzimbac"&gt;   
-                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3817.515055110652!2d-93.2289146!3d16.8998672!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ece790120fdba7%3A0xf3cf8d4d73cd7595!2sParque%20Ecoturistico%20Tzimbac!5e0!3m2!1ses!2smx!4v1679155885639!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
+                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3817.515055110652!2d-93.2289146!3d16.8998672!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ece790120fdba7%3A0xf3cf8d4d73cd7595!2sParque%20Ecoturistico%20Tzimbac!5e0!3m2!1ses!2smx!4v1679160017598!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
                         &lt;div&gt;&lt;/div&gt;
-                        &lt;p&gt;Este sitio ecoturístico tiene undefined estrellas de calificación promedio, a partir de las más de undefined opiniones de sus visitantes... ¿nada mal no?. Es por esto que undefined es parte de esta lista de los parques naturales mejor calificados de undefined. Con este respaldo estamos más que seguras(os) que se trata  de un sitio que vas a disfrutar al Máximo. Así que ya sabes, si lo que buscas es naturaleza, el parque ecoturístico undefined en undefined es sin duda una gran opción&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro Ecoturístico "Parque Ecoturistico Tzimbac"? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Este centro ecoturístico se ubica en Carretera a Monterrey Km. 2.2, Villarreal, 29125 Chis.
- Para llegar a este lugar, simplemente ingresa la dirección en una app de navegación o utiliza este enlace al&lt;a href='https://www.google.com/maps/place/Parque+Ecoturistico+Tzimbac/@16.8998672,-93.2289146,17z/data=!3m1!4b1!4m6!3m5!1s0x85ece790120fdba7:0xf3cf8d4d73cd7595!8m2!3d16.8998672!4d-93.2289146!16s%2Fg%2F12hm176_z?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Parque Ecoturistico Tzimbac&lt;/a&gt;&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro de ecoturismo Parque Ecoturistico Tzimbac?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Si estás en undefined en búsqueda de algo de ecoturismo y aventura entonces el parque ecoturístico undefined no se te puede escapar. Hemos decidido incluir este parque ecoturístico en esta lista de los mejores de undefined gracias al respaldo y opiniones de más de undefined visitantes que lo han evaluado públicamente por lo menos con undefined estrellas de calificación (de las más altas para este estado del país). Así que chécate todos lo detalles necesarios para tu visita y ¡no se diga más! ¡a vivir el ecoturismo en undefined en undefined!&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Parque Ecoturistico Tzimbac"? &lt;/b&gt;&lt;/h3&gt;
+                            &lt;p&gt;Este sitio ecoturístico se ubica en Carretera a Monterrey Km. 2.2, Villarreal, 29125 Chis.
+ Para llegar a este parque, simplemente sigue las indicaciones de tu aplicación de navegación preferida o utiliza este link al &lt;a href='https://www.google.com/maps/place/Parque+Ecoturistico+Tzimbac/@16.8998672,-93.2289146,17z/data=!3m1!4b1!4m6!3m5!1s0x85ece790120fdba7:0xf3cf8d4d73cd7595!8m2!3d16.8998672!4d-93.2289146!16s%2Fg%2F12hm176_z?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Parque Ecoturistico Tzimbac&lt;/a&gt;&lt;/p&gt;
+                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Parque Ecoturistico Tzimbac?&lt;/b&gt;&lt;/h3&gt;
                             &lt;p&gt;Los contactos disponibles del Centro Ecoturístico Parque Ecoturistico Tzimbac son: &lt;/p&gt;
                             &lt;ul&gt;
                                 &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;961 286 8575&lt;/li&gt;
                                 &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
                             &lt;/ul&gt;
-                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el sitio ecoturístico Parque Ecoturistico Tzimbac?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los horarios oficiales del centro de ecoturismo Parque Ecoturistico Tzimbac son los siguientes:&lt;/p&gt;                       
-                            &lt;ul&gt;
-                                &lt;li&gt;undefined&lt;/li&gt;
-                                &lt;li&gt;undefined&lt;/li&gt;
-                                &lt;li&gt;undefined&lt;/li&gt;
-                                &lt;li&gt;undefined&lt;/li&gt;
-                                &lt;li&gt;undefined&lt;/li&gt;
-                                &lt;li&gt;undefined&lt;/li&gt;
-                                &lt;li&gt;undefined&lt;/li&gt;
-                            &lt;/ul&gt;
-                            &lt;p&gt;A pesar de que los horarios sean oficiales, es buena idea que antes ir, revises siempre cómo están las cosas en sus redes sociales y contactos digitales, esto te permitirá asegurarte de que no haya cambios de horario o logística antes de tu arribo al lugar&lt;/p&gt;                 
-                    </v>
-      </c>
-      <c r="AA4" t="str" xml:space="preserve">
+                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque natural Parque Ecoturistico Tzimbac?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente debido a que existen variaciones frecuentes en sus horarios de operación. 
+ Por este motivo, te recomendamos consultar sus sitios oficiales en una fecha cercana a tu visita o contactarlos directamente para pedir la actualización más reciente de sus días y horas de operación.</v>
+      </c>
+      <c r="AB4" t="str" xml:space="preserve">
         <v xml:space="preserve">
                     &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Parque_Ecoturistico_Tzimbac_2.jpg" alt="Parque Ecoturistico Tzimbac"&gt;                
                 </v>
       </c>
-      <c r="AB4" t="str">
+      <c r="AC4" t="str">
         <v>Añadir sitio web</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AB4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testingAllImports.xlsx
+++ b/testingAllImports.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -479,158 +479,131 @@
         <v>slug</v>
       </c>
       <c r="Z1" t="str">
-        <v>articleIntro</v>
+        <v>missingData</v>
       </c>
       <c r="AA1" t="str">
-        <v>structuredData</v>
+        <v>horarioLunes</v>
       </c>
       <c r="AB1" t="str">
-        <v>photoLocal</v>
+        <v>horarioMartes</v>
       </c>
       <c r="AC1" t="str">
-        <v>missingData</v>
+        <v>horarioMiercoles</v>
+      </c>
+      <c r="AD1" t="str">
+        <v>horarioJueves</v>
+      </c>
+      <c r="AE1" t="str">
+        <v>horarioViernes</v>
+      </c>
+      <c r="AF1" t="str">
+        <v>horarioSabado</v>
+      </c>
+      <c r="AG1" t="str">
+        <v>horarioDomingo</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>Centro Ecoturistico El Nuevo Mundo - Estoracon</v>
+        <v>Cissus Hotel Boutique</v>
       </c>
       <c r="C2" t="str">
-        <v>Centro Ecoturistico El Nuevo Mundo - Estoracon</v>
+        <v>Cissus Hotel Boutique</v>
       </c>
       <c r="D2" t="str">
-        <v>centro ecoturistico el nuevo mundo - estoracon</v>
+        <v>cissus hotel boutique</v>
       </c>
       <c r="E2" t="str">
-        <v>Carretera Sayula S/N, Francisco I. Madero, 30400 Cintalapa, Chis.</v>
+        <v>6a Calle Poniente 41, Antigua Guatemala 03001, Guatemala</v>
       </c>
       <c r="F2" t="str">
-        <v>961 284 4705</v>
+        <v>+502 7832 7938</v>
       </c>
       <c r="G2" t="str">
-        <v>Web no disponible</v>
+        <v>http://cissushotel.com/contact.htm</v>
+      </c>
+      <c r="H2" t="str">
+        <v>No se cuenta con horario oficial</v>
       </c>
       <c r="I2" t="str">
-        <v>Sábado de 10:00 a 19:00,Domingo de 10:00 a 19:00,Lunes de 10:00 a 19:00,Martes de 10:00 a 19:00,Miércoles de 10:00 a 19:00,Jueves de 10:00 a 19:00,Viernes de 10:00 a 19:00</v>
+        <v>No se cuenta con horario oficial</v>
       </c>
       <c r="J2" t="str">
-        <v>Estoracón, Chiapas</v>
+        <v>Antigua Guatemala, Guatemala</v>
       </c>
       <c r="K2" t="str">
         <v>Chiapas</v>
       </c>
       <c r="L2" t="str">
-        <v>https://www.google.com/maps/place/Centro+Ecoturistico+El+Nuevo+Mundo+-+Estoracon/@16.8505798,-93.7933739,17z/data=!3m1!4b1!4m6!3m5!1s0x85eca6200d7617bb:0x7498371825377da6!8m2!3d16.8505798!4d-93.7933739!16s%2Fg%2F11dxpchfty?authuser=0&amp;hl=es</v>
+        <v>https://www.google.com/maps/place/Cissus+Hotel+Boutique/@14.5550625,-90.7367743,17z/data=!3m1!4b1!4m9!3m8!1s0x85890e0da9ac8f23:0xfa13c2f77ffda111!5m2!4m1!1i2!8m2!3d14.5550625!4d-90.7367743!16s%2Fg%2F1x5qt333?authuser=0&amp;hl=es</v>
       </c>
       <c r="M2" t="str">
-        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3818.5113687598837!2d-93.79337389999999!3d16.8505798!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85eca6200d7617bb%3A0x7498371825377da6!2sCentro%20Ecoturistico%20El%20Nuevo%20Mundo%20-%20Estoracon!5e0!3m2!1ses!2smx!4v1679160007861!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3861.7713760208194!2d-90.7367743!3d14.5550625!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85890e0da9ac8f23%3A0xfa13c2f77ffda111!2sCissus%20Hotel%20Boutique!5e0!3m2!1ses!2smx!4v1679356385475!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
       </c>
       <c r="N2" t="str">
-        <v>V624+6M Estoracón, Chiapas</v>
+        <v>H747+27 Antigua Guatemala, Guatemala</v>
       </c>
       <c r="O2" t="str">
-        <v>4.5</v>
+        <v>0.0</v>
       </c>
       <c r="P2" t="str">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="str">
-        <v>Hermoso día de excursión en familia a este sitio remoto con 4 cascadas en plena naturaleza con piscina y una comida riquísima con buena atención, los Tucanes con muchi acercamiento, salimos de Cintalapa Chiapas,Muy bonita reserva recomendable,Se puede acampar ($180 por tienda de campaña), hay cabañas (sencilla $400, doble $800), rentan hamacas, tienda de campaña, venden refrescos, cervezas, sabritas, buena comida(camarones empanizado, en ensalada , mojarras, carne asada, pollo,…</v>
+        <v>no hay opiniones</v>
       </c>
       <c r="R2" t="str">
-        <v>https://lh5.googleusercontent.com/p/AF1QipPOgfBL_SMdx6bZCZHeZCe150jGe-GqwXaX7lE=w408-h306-k-no</v>
+        <v>https://lh3.googleusercontent.com/gps-proxy/ALm4wwk3xkUshr8k33AOb87SS2U8vY-xgum2k-aTyRpdHOZ86C2pvPVGUC1IDtcfUFT5iemKTdvVyI5bhNQDs9ZlL6OXC5XkEa1HlEWst2JOZOJ1qOw__lmzs9lvJp-jHdrIJK2RLDghJOmcCy-t-boSoU26t7tW8tfDJGyG9ZCa_U8-9wedBh1pN0kd=w437-h240-k-no</v>
       </c>
       <c r="S2" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPOgfBL_SMdx6bZCZHeZCe150jGe-GqwXaX7lE=w408-h306-k-no</v>
+        <v>wget --no-check-certificate https://lh3.googleusercontent.com/gps-proxy/ALm4wwk3xkUshr8k33AOb87SS2U8vY-xgum2k-aTyRpdHOZ86C2pvPVGUC1IDtcfUFT5iemKTdvVyI5bhNQDs9ZlL6OXC5XkEa1HlEWst2JOZOJ1qOw__lmzs9lvJp-jHdrIJK2RLDghJOmcCy-t-boSoU26t7tW8tfDJGyG9ZCa_U8-9wedBh1pN0kd=w437-h240-k-no</v>
       </c>
       <c r="T2" t="str">
-        <v>AF1QipPOgfBL_SMdx6bZCZHeZCe150jGe-GqwXaX7lE=w408-h306-k-no</v>
+        <v>ALm4wwk3xkUshr8k33AOb87SS2U8vY-xgum2k-aTyRpdHOZ86C2pvPVGUC1IDtcfUFT5iemKTdvVyI5bhNQDs9ZlL6OXC5XkEa1HlEWst2JOZOJ1qOw__lmzs9lvJp-jHdrIJK2RLDghJOmcCy-t-boSoU26t7tW8tfDJGyG9ZCa_U8-9wedBh1pN0kd=w437-h240-k-no</v>
       </c>
       <c r="U2" t="str">
-        <v>Centro_Ecoturistico_El_Nuevo_Mundo_-_Estoracon_0</v>
+        <v>Cissus_Hotel_Boutique_0</v>
       </c>
       <c r="V2" t="str">
-        <v>Centro_Ecoturistico_El_Nuevo_Mundo_-_Estoracon_0.jpg</v>
+        <v>Cissus_Hotel_Boutique_0.jpg</v>
       </c>
       <c r="W2" t="str">
-        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturistico_El_Nuevo_Mundo_-_Estoracon_0.jpg</v>
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Cissus_Hotel_Boutique_0.jpg</v>
       </c>
       <c r="X2" t="str">
-        <v>ren "AF1QipPOgfBL_SMdx6bZCZHeZCe150jGe-GqwXaX7lE=w408-h306-k-no" "Centro_Ecoturistico_El_Nuevo_Mundo_-_Estoracon_0.jpg"</v>
+        <v>ren "ALm4wwk3xkUshr8k33AOb87SS2U8vY-xgum2k-aTyRpdHOZ86C2pvPVGUC1IDtcfUFT5iemKTdvVyI5bhNQDs9ZlL6OXC5XkEa1HlEWst2JOZOJ1qOw__lmzs9lvJp-jHdrIJK2RLDghJOmcCy-t-boSoU26t7tW8tfDJGyG9ZCa_U8-9wedBh1pN0kd=w437-h240-k-no" "Cissus_Hotel_Boutique_0.jpg"</v>
       </c>
       <c r="Y2" t="str">
         <v>parques-ecoturismo-en-chiapas</v>
       </c>
-      <c r="Z2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en Chiapas? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  centros de ecoturismo que han sido mejor evaluados en este estado. 
- Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los centros ecoturísticos que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en Chiapas durante los últimos años. 
- Con esta prueba social como respaldo, hoy te compartimos la lista de los parque natural mejor calificados en Chiapas en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
- Prepárate con esto y ¡a disfrutar del ecoturismo en Chiapas!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="AA2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon&lt;/b&gt;&lt;/h2&gt;
-                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturistico_El_Nuevo_Mundo_-_Estoracon_0.jpg" alt="Centro Ecoturistico El Nuevo Mundo - Estoracon"&gt;   
-                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3818.5113687598837!2d-93.79337389999999!3d16.8505798!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85eca6200d7617bb%3A0x7498371825377da6!2sCentro%20Ecoturistico%20El%20Nuevo%20Mundo%20-%20Estoracon!5e0!3m2!1ses!2smx!4v1679160007861!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
-                        &lt;div&gt;&lt;/div&gt;
-                        &lt;p&gt;¿Quieres vivir un paseo increible en contacto con la naturaleza? entonces no puedes dejar de considerar una visita al centro de ecoturismo undefined en undefined. Con una calificación promedio de undefined estrellas y más de undefined opiniones de visitantes, este lugar es una de las mejores opciones para los amantes del ecoturismo en esta región. Así es que ¡toma nota  de todo lo requerido para tu visita a continuación!&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Natural "Centro Ecoturistico El Nuevo Mundo - Estoracon"? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Este parque ecoturístico se ubica en Carretera Sayula S/N, Francisco I. Madero, 30400 Cintalapa, Chis.
- La verdad es que llegar a este Centro no tiene gran dificultad. Puedes encontrar la dirección de un lugar siguiendo cualquier aplicación de navegación que se te facilite o siguiendo esta liga al &lt;a href='https://www.google.com/maps/place/Centro+Ecoturistico+El+Nuevo+Mundo+-+Estoracon/@16.8505798,-93.7933739,17z/data=!3m1!4b1!4m6!3m5!1s0x85eca6200d7617bb:0x7498371825377da6!8m2!3d16.8505798!4d-93.7933739!16s%2Fg%2F11dxpchfty?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon&lt;/a&gt;&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Centro Ecoturistico El Nuevo Mundo - Estoracon son: &lt;/p&gt;
-                            &lt;ul&gt;
-                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;961 284 4705&lt;/li&gt;
-                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
-                            &lt;/ul&gt;
-                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon?&lt;/b&gt;&lt;/h3&gt;
-                        &lt;p&gt;Los horarios oficiales del parque ecoturístico Centro Ecoturistico El Nuevo Mundo - Estoracon son los siguientes:&lt;/p&gt;                       
-                            &lt;ul&gt;
-                                &lt;li&gt;Lunes de 10:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Martes de 10:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Miércoles de 10:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Jueves de 10:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Viernes de 10:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Sábado de 10:00 a 19:00&lt;/li&gt;
-                                &lt;li&gt;Domingo de 10:00 a 19:00&lt;/li&gt;
-                            &lt;/ul&gt;
-                            &lt;p&gt;Antes de visitar el lugar, es importante revisar sus sitios digitales y redes sociales, así te aseguras de detectar cualquier cambio que hayan tenido de última hora por cuestiones de fechas especiales, vacaciones, temporadas altas, etc&lt;/p&gt;</v>
-      </c>
-      <c r="AB2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturistico_El_Nuevo_Mundo_-_Estoracon_0.jpg" alt="Centro Ecoturistico El Nuevo Mundo - Estoracon"&gt;                
-                </v>
-      </c>
-      <c r="AC2" t="str">
-        <v>Añadir sitio web</v>
+      <c r="Z2" t="str">
+        <v/>
       </c>
     </row>
-    <row r="3" xml:space="preserve">
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>Siempre Verde Chiapas, Centro Ecoturístico</v>
+        <v>Hotel Posada de Don Rodrigo Antigua</v>
       </c>
       <c r="C3" t="str">
-        <v>Siempre Verde Chiapas, Centro Ecoturístico</v>
+        <v>Hotel Posada De Don Rodrigo Antigua</v>
       </c>
       <c r="D3" t="str">
-        <v>siempre verde chiapas, centro ecoturístico</v>
+        <v>hotel posada de don rodrigo antigua</v>
       </c>
       <c r="E3" t="str">
-        <v>Carretera Escopetazo Pichucalco Kilometro 81 S/N, El Campanario, 29760 Jitotol, Chis.</v>
+        <v>Calle del Arco, 5a Avenida Norte, Antigua Guatemala 00502, Guatemala</v>
       </c>
       <c r="F3" t="str">
-        <v>919 104 9970</v>
+        <v>+502 7832 0387</v>
       </c>
       <c r="G3" t="str">
-        <v>Web no disponible</v>
+        <v>https://hotels.cloudbeds.com/reservation/HbWTDr</v>
       </c>
       <c r="H3" t="str">
         <v>No se cuenta con horario oficial</v>
@@ -639,206 +612,158 @@
         <v>No se cuenta con horario oficial</v>
       </c>
       <c r="J3" t="str">
-        <v>Jitotol, Chiapas</v>
+        <v>Antigua Guatemala, Guatemala</v>
       </c>
       <c r="K3" t="str">
         <v>Chiapas</v>
       </c>
       <c r="L3" t="str">
-        <v>https://www.google.com/maps/place/Siempre+Verde+Chiapas,+Centro+Ecotur%C3%ADstico/@17.143827,-92.888084,17z/data=!3m1!4b1!4m6!3m5!1s0x85ed0ee58c29248b:0xcdab59d265c14ddf!8m2!3d17.143827!4d-92.888084!16s%2Fg%2F11bvv4whms?authuser=0&amp;hl=es</v>
+        <v>https://www.google.com/maps/place/Hotel+Posada+de+Don+Rodrigo+Antigua/@14.5586234,-90.7341365,17z/data=!3m1!4b1!4m9!3m8!1s0x8589a1b94f5fae91:0xe3f57f9559045d14!5m2!4m1!1i2!8m2!3d14.5586234!4d-90.7341365!16s%2Fg%2F1td6yfpn?authuser=0&amp;hl=es</v>
       </c>
       <c r="M3" t="str">
-        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3812.5419796816677!2d-92.88808399999999!3d17.143826999999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ed0ee58c29248b%3A0xcdab59d265c14ddf!2sSiempre%20Verde%20Chiapas%2C%20Centro%20Ecotur%C3%ADstico!5e0!3m2!1ses!2smx!4v1679160012658!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3861.7090524214746!2d-90.73413649999999!3d14.558623399999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8589a1b94f5fae91%3A0xe3f57f9559045d14!2sHotel%20Posada%20de%20Don%20Rodrigo%20Antigua!5e0!3m2!1ses!2smx!4v1679356390798!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
       </c>
       <c r="N3" t="str">
-        <v>44V6+GQ Jitotol, Chiapas</v>
+        <v>H758+C8 Antigua Guatemala, Guatemala</v>
       </c>
       <c r="O3" t="str">
-        <v>4.4</v>
+        <v>0.0</v>
       </c>
       <c r="P3" t="str">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="str">
-        <v>Hermoso lugar para realizar senderismo, manejar cuatrimotos y para pasar unos días de relajamiento, todo el lugar es magnifico, las cabañas con chimeneas y balcones enormes desde donde puedes admirar el bosque, el lugar cuenta con…,El lugar es espectacular para estar alejado de la ciudad. Descansar, delicioso clima. Cómodo y limpio. No esperes un lugar de lujo pero si un lugar acogedor.,Un lugar muy bello para pasar un fin de semana en familia, el clima súper agradable y la vegetación maravillosa. Amo mi chiapas</v>
+        <v>no hay opiniones</v>
       </c>
       <c r="R3" t="str">
-        <v>https://lh5.googleusercontent.com/p/AF1QipPeHN3i2PWxhWxToRs-k5bKZZRwHphpyIy-yf-L=w426-h240-k-no</v>
+        <v>https://lh5.googleusercontent.com/p/AF1QipO409lNwbTr2Y-iGrirW9z7r6jqxvgW6x7GCpRP=w408-h272-k-no</v>
       </c>
       <c r="S3" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPeHN3i2PWxhWxToRs-k5bKZZRwHphpyIy-yf-L=w426-h240-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipO409lNwbTr2Y-iGrirW9z7r6jqxvgW6x7GCpRP=w408-h272-k-no</v>
       </c>
       <c r="T3" t="str">
-        <v>AF1QipPeHN3i2PWxhWxToRs-k5bKZZRwHphpyIy-yf-L=w426-h240-k-no</v>
+        <v>AF1QipO409lNwbTr2Y-iGrirW9z7r6jqxvgW6x7GCpRP=w408-h272-k-no</v>
       </c>
       <c r="U3" t="str">
-        <v>Siempre_Verde_Chiapas,_Centro_Ecoturístico_1</v>
+        <v>Hotel_Posada_de_Don_Rodrigo_Antigua_1</v>
       </c>
       <c r="V3" t="str">
-        <v>Siempre_Verde_Chiapas,_Centro_Ecoturístico_1.jpg</v>
+        <v>Hotel_Posada_de_Don_Rodrigo_Antigua_1.jpg</v>
       </c>
       <c r="W3" t="str">
-        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Siempre_Verde_Chiapas,_Centro_Ecoturístico_1.jpg</v>
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Hotel_Posada_de_Don_Rodrigo_Antigua_1.jpg</v>
       </c>
       <c r="X3" t="str">
-        <v>ren "AF1QipPeHN3i2PWxhWxToRs-k5bKZZRwHphpyIy-yf-L=w426-h240-k-no" "Siempre_Verde_Chiapas,_Centro_Ecoturístico_1.jpg"</v>
+        <v>ren "AF1QipO409lNwbTr2Y-iGrirW9z7r6jqxvgW6x7GCpRP=w408-h272-k-no" "Hotel_Posada_de_Don_Rodrigo_Antigua_1.jpg"</v>
       </c>
       <c r="Y3" t="str">
         <v>parques-ecoturismo-en-chiapas</v>
       </c>
-      <c r="Z3" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en Chiapas? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parques ecoturísticos que han sido mejor evaluados en este estado. 
- Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parques ecoturísticos que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en Chiapas durante los últimos años. 
- Con esta prueba social como respaldo, hoy te compartimos la lista de los centro ecoturístico mejor calificados en Chiapas en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
- Prepárate con esto y ¡a disfrutar del ecoturismo en Chiapas!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="AA3" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;h2&gt;&lt;b&gt;Centro de Ecoturismo Siempre Verde Chiapas, Centro Ecoturístico&lt;/b&gt;&lt;/h2&gt;
-                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Siempre_Verde_Chiapas,_Centro_Ecoturístico_1.jpg" alt="Siempre Verde Chiapas, Centro Ecoturístico"&gt;   
-                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3812.5419796816677!2d-92.88808399999999!3d17.143826999999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ed0ee58c29248b%3A0xcdab59d265c14ddf!2sSiempre%20Verde%20Chiapas%2C%20Centro%20Ecotur%C3%ADstico!5e0!3m2!1ses!2smx!4v1679160012658!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
-                        &lt;div&gt;&lt;/div&gt;
-                        &lt;p&gt;El parque ecoturístico undefined es una opción fantástica para tener una aventura natural en undefined. Su calificación promedio es de undefined estrellas respaldada por más de undefined visitantes, así que no tenemos duda de que este lugar pertenece a la lista de los parques ecoturísticos mejor rankeados de de undefined y que se trata de uno de los principales atractivos naturales en la región. Así que ya sabes... ¿ganas de naturaleza?... pues entonces el parque natural undefined es una grandísima opción&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Sitio Ecoturístico "Siempre Verde Chiapas, Centro Ecoturístico"? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Este parque natural se ubica en Carretera Escopetazo Pichucalco Kilometro 81 S/N, El Campanario, 29760 Jitotol, Chis.
- Si necesitas ir a este sitio manejando puedes apoyarte poniendo la dirección en un navegador tipo waze o googleMaps o siguiendo directamente este &lt;a href='https://www.google.com/maps/place/Siempre+Verde+Chiapas,+Centro+Ecotur%C3%ADstico/@17.143827,-92.888084,17z/data=!3m1!4b1!4m6!3m5!1s0x85ed0ee58c29248b:0xcdab59d265c14ddf!8m2!3d17.143827!4d-92.888084!16s%2Fg%2F11bvv4whms?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Siempre Verde Chiapas, Centro Ecoturístico&lt;/a&gt;&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque de ecoturismo Siempre Verde Chiapas, Centro Ecoturístico?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los contactos disponibles del Centro Ecoturístico Siempre Verde Chiapas, Centro Ecoturístico son: &lt;/p&gt;
-                            &lt;ul&gt;
-                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;919 104 9970&lt;/li&gt;
-                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
-                            &lt;/ul&gt;
-                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro ecoturístico Siempre Verde Chiapas, Centro Ecoturístico?&lt;/b&gt;&lt;/h3&gt;
-                        &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente debido a que existen variaciones frecuentes en sus horarios de operación. 
- Por este motivo, te recomendamos consultar sus sitios oficiales en una fecha cercana a tu visita o contactarlos directamente para pedir la actualización más reciente de sus días y horas de operación.</v>
-      </c>
-      <c r="AB3" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Siempre_Verde_Chiapas,_Centro_Ecoturístico_1.jpg" alt="Siempre Verde Chiapas, Centro Ecoturístico"&gt;                
-                </v>
-      </c>
-      <c r="AC3" t="str">
-        <v>Añadir sitio web</v>
+      <c r="Z3" t="str">
+        <v/>
       </c>
     </row>
-    <row r="4" xml:space="preserve">
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>Parque Ecoturistico Tzimbac</v>
+        <v>Centro Ecoturistico El Nuevo Mundo - Estoracon</v>
       </c>
       <c r="C4" t="str">
-        <v>Parque Ecoturistico Tzimbac</v>
+        <v>Centro Ecoturistico El Nuevo Mundo - Estoracon</v>
       </c>
       <c r="D4" t="str">
-        <v>parque ecoturistico tzimbac</v>
+        <v>centro ecoturistico el nuevo mundo - estoracon</v>
       </c>
       <c r="E4" t="str">
-        <v>Carretera a Monterrey Km. 2.2, Villarreal, 29125 Chis.</v>
+        <v>Carretera Sayula S/N, Francisco I. Madero, 30400 Cintalapa, Chis.</v>
       </c>
       <c r="F4" t="str">
-        <v>961 286 8575</v>
+        <v>961 284 4705</v>
       </c>
       <c r="G4" t="str">
         <v>Web no disponible</v>
       </c>
-      <c r="H4" t="str">
-        <v>No se cuenta con horario oficial</v>
-      </c>
       <c r="I4" t="str">
-        <v>No se cuenta con horario oficial</v>
+        <v>Lunes de 10:00 a 19:00,Martes de 10:00 a 19:00,Miércoles de 10:00 a 19:00,Jueves de 10:00 a 19:00,Viernes de 10:00 a 19:00,Sábado de 10:00 a 19:00,Domingo de 10:00 a 19:00</v>
       </c>
       <c r="J4" t="str">
-        <v>Santa Rita, Chiapas</v>
+        <v>Estoracón, Chiapas</v>
       </c>
       <c r="K4" t="str">
         <v>Chiapas</v>
       </c>
       <c r="L4" t="str">
-        <v>https://www.google.com/maps/place/Parque+Ecoturistico+Tzimbac/@16.8998672,-93.2289146,17z/data=!3m1!4b1!4m6!3m5!1s0x85ece790120fdba7:0xf3cf8d4d73cd7595!8m2!3d16.8998672!4d-93.2289146!16s%2Fg%2F12hm176_z?authuser=0&amp;hl=es</v>
+        <v>https://www.google.com/maps/place/Centro+Ecoturistico+El+Nuevo+Mundo+-+Estoracon/@16.8505798,-93.7933739,17z/data=!3m1!4b1!4m6!3m5!1s0x85eca6200d7617bb:0x7498371825377da6!8m2!3d16.8505798!4d-93.7933739!16s%2Fg%2F11dxpchfty?authuser=0&amp;hl=es</v>
       </c>
       <c r="M4" t="str">
-        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3817.515055110652!2d-93.2289146!3d16.8998672!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ece790120fdba7%3A0xf3cf8d4d73cd7595!2sParque%20Ecoturistico%20Tzimbac!5e0!3m2!1ses!2smx!4v1679160017598!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
+        <v>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3818.5113687598837!2d-93.79337389999999!3d16.8505798!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85eca6200d7617bb%3A0x7498371825377da6!2sCentro%20Ecoturistico%20El%20Nuevo%20Mundo%20-%20Estoracon!5e0!3m2!1ses!2smx!4v1679356394835!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</v>
       </c>
       <c r="N4" t="str">
-        <v>VQXC+WC Santa Rita, Chiapas</v>
+        <v>V624+6M Estoracón, Chiapas</v>
       </c>
       <c r="O4" t="str">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P4" t="str">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="Q4" t="str">
-        <v>Si te gusta la naturaleza visítalo, si esperas muchas comodidades no es un sitio para ti. No hay señal, los baños están módicamente cómodos (si vas a la naturaleza no esperes lujos), hay área para acampar, muy limpio. Fuimos y nos tocó…,Buen lugar para descansar y rejarte un rato, sin embargo podría mejorar en muchos detalles, porque en época de lluvia es imposible disfrutar de la naturaleza, tener más sanitarios o en áreas más comunes.,Exelente lugar para ir con la familia y amigos. Podras acampar, explorar, senderismo, rappel, tirolesa, montar a caballo. Todo esto rodeo de magia y naturaleza respirando aire puro, fuera de la cantaminacion de la ciudad; puedes realozar…</v>
+        <v>Hermoso día de excursión en familia a este sitio remoto con 4 cascadas en plena naturaleza con piscina y una comida riquísima con buena atención, los Tucanes con muchi acercamiento, salimos de Cintalapa Chiapas,Muy bonita reserva recomendable,Se puede acampar ($180 por tienda de campaña), hay cabañas (sencilla $400, doble $800), rentan hamacas, tienda de campaña, venden refrescos, cervezas, sabritas, buena comida(camarones empanizado, en ensalada , mojarras, carne asada, pollo,…</v>
       </c>
       <c r="R4" t="str">
-        <v>https://lh5.googleusercontent.com/p/AF1QipNYYHKIZRIqOhYXADcr3o_zu4-ho3SpnynhRZrw=w408-h306-k-no</v>
+        <v>https://lh5.googleusercontent.com/p/AF1QipPOgfBL_SMdx6bZCZHeZCe150jGe-GqwXaX7lE=w408-h306-k-no</v>
       </c>
       <c r="S4" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipNYYHKIZRIqOhYXADcr3o_zu4-ho3SpnynhRZrw=w408-h306-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPOgfBL_SMdx6bZCZHeZCe150jGe-GqwXaX7lE=w408-h306-k-no</v>
       </c>
       <c r="T4" t="str">
-        <v>AF1QipNYYHKIZRIqOhYXADcr3o_zu4-ho3SpnynhRZrw=w408-h306-k-no</v>
+        <v>AF1QipPOgfBL_SMdx6bZCZHeZCe150jGe-GqwXaX7lE=w408-h306-k-no</v>
       </c>
       <c r="U4" t="str">
-        <v>Parque_Ecoturistico_Tzimbac_2</v>
+        <v>Centro_Ecoturistico_El_Nuevo_Mundo_-_Estoracon_2</v>
       </c>
       <c r="V4" t="str">
-        <v>Parque_Ecoturistico_Tzimbac_2.jpg</v>
+        <v>Centro_Ecoturistico_El_Nuevo_Mundo_-_Estoracon_2.jpg</v>
       </c>
       <c r="W4" t="str">
-        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Parque_Ecoturistico_Tzimbac_2.jpg</v>
+        <v>https://rumbonaturaleza.com/wp-content/uploads/2023/03/Centro_Ecoturistico_El_Nuevo_Mundo_-_Estoracon_2.jpg</v>
       </c>
       <c r="X4" t="str">
-        <v>ren "AF1QipNYYHKIZRIqOhYXADcr3o_zu4-ho3SpnynhRZrw=w408-h306-k-no" "Parque_Ecoturistico_Tzimbac_2.jpg"</v>
+        <v>ren "AF1QipPOgfBL_SMdx6bZCZHeZCe150jGe-GqwXaX7lE=w408-h306-k-no" "Centro_Ecoturistico_El_Nuevo_Mundo_-_Estoracon_2.jpg"</v>
       </c>
       <c r="Y4" t="str">
         <v>parques-ecoturismo-en-chiapas</v>
       </c>
-      <c r="Z4" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;p&gt; ¿Estás buscando los mejores parques ecoturísticos en Chiapas? Entonces sin duda ¡estás en el lugar correcto!. Hoy en este artículo vamos a presentarte cuáles son los  parques ecológicos que han sido mejor evaluados en este estado. 
- Para poder definir esta listade los mejores, realizamos consultas en un montón de fuentes oficiales, redes sociales, rankings e incluso algunas entrevistas que nos permitieron determinar cuáles son y dónde se ubican los parques naturales que mejores experiencias han brindado a sus visitantes, y que mayor calificación han recibido en Chiapas durante los últimos años. 
- Con esta prueba social como respaldo, hoy te compartimos la lista de los parque ecoturístico mejor calificados en Chiapas en function getFullYear() { [native code] } junto con su ubicación, medios oficiales de contacto, horarios y cómo llegar hasta ellos; así como la calificación promedio con la que cuenta cada lugar. 
- Prepárate con esto y ¡a disfrutar del ecoturismo en Chiapas!&lt;/p&gt;                    
-                    </v>
-      </c>
-      <c r="AA4" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;h2&gt;&lt;b&gt;Parque Ecoturístico Parque Ecoturistico Tzimbac&lt;/b&gt;&lt;/h2&gt;
-                        &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Parque_Ecoturistico_Tzimbac_2.jpg" alt="Parque Ecoturistico Tzimbac"&gt;   
-                        &lt;div&gt;&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3817.515055110652!2d-93.2289146!3d16.8998672!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85ece790120fdba7%3A0xf3cf8d4d73cd7595!2sParque%20Ecoturistico%20Tzimbac!5e0!3m2!1ses!2smx!4v1679160017598!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;&lt;/div&gt;
-                        &lt;div&gt;&lt;/div&gt;
-                        &lt;p&gt;Si estás en undefined en búsqueda de algo de ecoturismo y aventura entonces el parque ecoturístico undefined no se te puede escapar. Hemos decidido incluir este parque ecoturístico en esta lista de los mejores de undefined gracias al respaldo y opiniones de más de undefined visitantes que lo han evaluado públicamente por lo menos con undefined estrellas de calificación (de las más altas para este estado del país). Así que chécate todos lo detalles necesarios para tu visita y ¡no se diga más! ¡a vivir el ecoturismo en undefined en undefined!&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Parque Ecoturistico Tzimbac"? &lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Este sitio ecoturístico se ubica en Carretera a Monterrey Km. 2.2, Villarreal, 29125 Chis.
- Para llegar a este parque, simplemente sigue las indicaciones de tu aplicación de navegación preferida o utiliza este link al &lt;a href='https://www.google.com/maps/place/Parque+Ecoturistico+Tzimbac/@16.8998672,-93.2289146,17z/data=!3m1!4b1!4m6!3m5!1s0x85ece790120fdba7:0xf3cf8d4d73cd7595!8m2!3d16.8998672!4d-93.2289146!16s%2Fg%2F12hm176_z?authuser=0&amp;hl=es'&gt;Mapa del Parque Ecoturístico Parque Ecoturistico Tzimbac&lt;/a&gt;&lt;/p&gt;
-                        &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Parque Ecoturistico Tzimbac?&lt;/b&gt;&lt;/h3&gt;
-                            &lt;p&gt;Los contactos disponibles del Centro Ecoturístico Parque Ecoturistico Tzimbac son: &lt;/p&gt;
-                            &lt;ul&gt;
-                                &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt;961 286 8575&lt;/li&gt;
-                                &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt;web no disponible&lt;/li&gt;                                
-                            &lt;/ul&gt;
-                        &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque natural Parque Ecoturistico Tzimbac?&lt;/b&gt;&lt;/h3&gt;
-                        &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente debido a que existen variaciones frecuentes en sus horarios de operación. 
- Por este motivo, te recomendamos consultar sus sitios oficiales en una fecha cercana a tu visita o contactarlos directamente para pedir la actualización más reciente de sus días y horas de operación.</v>
-      </c>
-      <c r="AB4" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    &lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/03/Parque_Ecoturistico_Tzimbac_2.jpg" alt="Parque Ecoturistico Tzimbac"&gt;                
-                </v>
+      <c r="Z4" t="str">
+        <v>Añadir sitio web</v>
+      </c>
+      <c r="AA4" t="str">
+        <v>Lunes de 10:00 a 19:00</v>
+      </c>
+      <c r="AB4" t="str">
+        <v>Martes de 10:00 a 19:00</v>
       </c>
       <c r="AC4" t="str">
-        <v>Añadir sitio web</v>
+        <v>Miércoles de 10:00 a 19:00</v>
+      </c>
+      <c r="AD4" t="str">
+        <v>Jueves de 10:00 a 19:00</v>
+      </c>
+      <c r="AE4" t="str">
+        <v>Viernes de 10:00 a 19:00</v>
+      </c>
+      <c r="AF4" t="str">
+        <v>Sábado de 10:00 a 19:00</v>
+      </c>
+      <c r="AG4" t="str">
+        <v>Domingo de 10:00 a 19:00</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AC4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AG4"/>
   </ignoredErrors>
 </worksheet>
 </file>